--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +582,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9954529291732167</v>
+      </c>
+      <c r="D3">
+        <v>0.9988120831081417</v>
+      </c>
+      <c r="E3">
+        <v>1.100301707342899</v>
+      </c>
+      <c r="F3">
+        <v>1.008365343058778</v>
+      </c>
+      <c r="G3">
+        <v>0.9954529291732167</v>
+      </c>
+      <c r="H3">
+        <v>1.00492102591884</v>
+      </c>
+      <c r="I3">
+        <v>0.9967600279007472</v>
+      </c>
+      <c r="J3">
         <v>1.100301707342898</v>
       </c>
-      <c r="D3">
-        <v>0.9954529291732168</v>
-      </c>
-      <c r="E3">
-        <v>1.008365343058778</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>1.100301707342898</v>
       </c>
-      <c r="G3">
-        <v>1.00492102591884</v>
-      </c>
-      <c r="H3">
-        <v>0.9967600279007472</v>
-      </c>
-      <c r="I3">
-        <v>1.100301707342899</v>
-      </c>
-      <c r="J3">
-        <v>0.9954529291732168</v>
-      </c>
-      <c r="K3">
-        <v>0.9988120831081417</v>
-      </c>
       <c r="L3">
+        <v>0.987618312632276</v>
+      </c>
+      <c r="M3">
         <v>0.9978009999086982</v>
-      </c>
-      <c r="M3">
-        <v>0.987618312632276</v>
       </c>
       <c r="N3">
         <v>1.100301707342898</v>
@@ -712,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9925149798249919</v>
+      </c>
+      <c r="D4">
+        <v>1.003535976736113</v>
+      </c>
+      <c r="E4">
         <v>1.211549731434579</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>1.016012359026622</v>
+      </c>
+      <c r="G4">
         <v>0.9925149798249919</v>
       </c>
-      <c r="E4">
-        <v>1.016012359026622</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
+        <v>1.005397152486552</v>
+      </c>
+      <c r="I4">
+        <v>0.9956352333619829</v>
+      </c>
+      <c r="J4">
         <v>1.211549731434579</v>
       </c>
-      <c r="G4">
-        <v>1.005397152486552</v>
-      </c>
-      <c r="H4">
-        <v>0.9956352333619829</v>
-      </c>
-      <c r="I4">
+      <c r="K4">
         <v>1.211549731434579</v>
       </c>
-      <c r="J4">
-        <v>0.9925149798249919</v>
-      </c>
-      <c r="K4">
-        <v>1.003535976736113</v>
-      </c>
       <c r="L4">
+        <v>0.9912829795576776</v>
+      </c>
+      <c r="M4">
         <v>0.9992945329227504</v>
-      </c>
-      <c r="M4">
-        <v>0.9912829795576776</v>
       </c>
       <c r="N4">
         <v>1.211549731434579</v>
@@ -783,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9797656509559932</v>
+      </c>
+      <c r="D5">
+        <v>1.033561358962769</v>
+      </c>
+      <c r="E5">
         <v>1.537461698612397</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1.119826039862722</v>
+      </c>
+      <c r="G5">
         <v>0.9797656509559932</v>
       </c>
-      <c r="E5">
-        <v>1.119826039862722</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
+        <v>1.031151632070594</v>
+      </c>
+      <c r="I5">
+        <v>1.036847743485764</v>
+      </c>
+      <c r="J5">
         <v>1.537461698612397</v>
       </c>
-      <c r="G5">
-        <v>1.031151632070594</v>
-      </c>
-      <c r="H5">
-        <v>1.036847743485764</v>
-      </c>
-      <c r="I5">
+      <c r="K5">
         <v>1.537461698612397</v>
       </c>
-      <c r="J5">
-        <v>0.9797656509559932</v>
-      </c>
-      <c r="K5">
-        <v>1.033561358962769</v>
-      </c>
       <c r="L5">
+        <v>0.9936672405215879</v>
+      </c>
+      <c r="M5">
         <v>1.016660855470511</v>
-      </c>
-      <c r="M5">
-        <v>0.9936672405215879</v>
       </c>
       <c r="N5">
         <v>1.537461698612397</v>
@@ -854,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.019338160434871</v>
+      </c>
+      <c r="D6">
+        <v>0.9625854553202233</v>
+      </c>
+      <c r="E6">
         <v>2.15242454439678</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>0.9198355901420283</v>
+      </c>
+      <c r="G6">
         <v>1.019338160434871</v>
       </c>
-      <c r="E6">
-        <v>0.9198355901420283</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>1.142834411125328</v>
+      </c>
+      <c r="I6">
+        <v>1.039845700446282</v>
+      </c>
+      <c r="J6">
         <v>2.15242454439678</v>
       </c>
-      <c r="G6">
-        <v>1.142834411125328</v>
-      </c>
-      <c r="H6">
-        <v>1.039845700446282</v>
-      </c>
-      <c r="I6">
+      <c r="K6">
         <v>2.15242454439678</v>
       </c>
-      <c r="J6">
-        <v>1.019338160434871</v>
-      </c>
-      <c r="K6">
-        <v>0.9625854553202231</v>
-      </c>
       <c r="L6">
+        <v>0.8154831348887442</v>
+      </c>
+      <c r="M6">
         <v>0.9582074052311781</v>
-      </c>
-      <c r="M6">
-        <v>0.8154831348887442</v>
       </c>
       <c r="N6">
         <v>2.15242454439678</v>
@@ -925,40 +937,40 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9984087956191043</v>
+      </c>
+      <c r="D7">
+        <v>0.9986922468780762</v>
+      </c>
+      <c r="E7">
         <v>1.000663163269911</v>
       </c>
-      <c r="D7">
-        <v>0.9984087956191041</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.005048021684187</v>
       </c>
-      <c r="F7">
-        <v>1.000663163269911</v>
-      </c>
       <c r="G7">
-        <v>0.9995464674702339</v>
+        <v>0.9984087956191043</v>
       </c>
       <c r="H7">
-        <v>0.999881303702372</v>
+        <v>0.999546467470233</v>
       </c>
       <c r="I7">
-        <v>1.000663163269911</v>
+        <v>0.9998813037023717</v>
       </c>
       <c r="J7">
-        <v>0.9984087956191041</v>
+        <v>1.00066316326991</v>
       </c>
       <c r="K7">
-        <v>0.9986922468780762</v>
+        <v>1.00066316326991</v>
       </c>
       <c r="L7">
-        <v>1.003652714693367</v>
+        <v>0.9988985051557923</v>
       </c>
       <c r="M7">
-        <v>0.9988985051557931</v>
+        <v>1.003652714693368</v>
       </c>
       <c r="N7">
-        <v>1.000663163269911</v>
+        <v>1.00066316326991</v>
       </c>
       <c r="O7">
         <v>1.005048021684187</v>
@@ -967,13 +979,13 @@
         <v>1.001728408651646</v>
       </c>
       <c r="Q7">
-        <v>1.002297244577211</v>
+        <v>1.00229724457721</v>
       </c>
       <c r="R7">
         <v>1.001373326857734</v>
       </c>
       <c r="S7">
-        <v>1.001001094924509</v>
+        <v>1.001001094924508</v>
       </c>
       <c r="T7">
         <v>1.001373326857734</v>
@@ -982,10 +994,10 @@
         <v>1.000916612010859</v>
       </c>
       <c r="V7">
-        <v>1.00086592226267</v>
+        <v>1.000865922262669</v>
       </c>
       <c r="W7">
-        <v>1.000598902309131</v>
+        <v>1.00059890230913</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,46 +1008,46 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9971446790590125</v>
+      </c>
+      <c r="D8">
+        <v>0.9973892746417096</v>
+      </c>
+      <c r="E8">
+        <v>1.002737463569013</v>
+      </c>
+      <c r="F8">
+        <v>1.007243188091124</v>
+      </c>
+      <c r="G8">
+        <v>0.9971446790590125</v>
+      </c>
+      <c r="H8">
+        <v>0.9970116822125716</v>
+      </c>
+      <c r="I8">
+        <v>1.000588289956484</v>
+      </c>
+      <c r="J8">
         <v>1.002737463569012</v>
       </c>
-      <c r="D8">
-        <v>0.9971446790590117</v>
-      </c>
-      <c r="E8">
-        <v>1.007243188091123</v>
-      </c>
-      <c r="F8">
+      <c r="K8">
         <v>1.002737463569012</v>
       </c>
-      <c r="G8">
-        <v>0.9970116822125725</v>
-      </c>
-      <c r="H8">
-        <v>1.000588289956484</v>
-      </c>
-      <c r="I8">
-        <v>1.002737463569013</v>
-      </c>
-      <c r="J8">
-        <v>0.9971446790590117</v>
-      </c>
-      <c r="K8">
-        <v>0.9973892746417111</v>
-      </c>
       <c r="L8">
+        <v>0.9956547491602694</v>
+      </c>
+      <c r="M8">
         <v>1.010140576160794</v>
-      </c>
-      <c r="M8">
-        <v>0.9956547491602696</v>
       </c>
       <c r="N8">
         <v>1.002737463569012</v>
       </c>
       <c r="O8">
-        <v>1.007243188091123</v>
+        <v>1.007243188091124</v>
       </c>
       <c r="P8">
-        <v>1.002193933575067</v>
+        <v>1.002193933575068</v>
       </c>
       <c r="Q8">
         <v>1.002127435151848</v>
@@ -1067,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9854933607701349</v>
+      </c>
+      <c r="D9">
+        <v>0.9963159973648815</v>
+      </c>
+      <c r="E9">
+        <v>1.021617690346793</v>
+      </c>
+      <c r="F9">
+        <v>1.006443525589103</v>
+      </c>
+      <c r="G9">
+        <v>0.9854933607701349</v>
+      </c>
+      <c r="H9">
+        <v>0.9991012148116039</v>
+      </c>
+      <c r="I9">
+        <v>0.9954221875162347</v>
+      </c>
+      <c r="J9">
         <v>1.021617690346792</v>
       </c>
-      <c r="D9">
-        <v>0.9854933607701352</v>
-      </c>
-      <c r="E9">
-        <v>1.006443525589103</v>
-      </c>
-      <c r="F9">
+      <c r="K9">
         <v>1.021617690346792</v>
       </c>
-      <c r="G9">
-        <v>0.9991012148116041</v>
-      </c>
-      <c r="H9">
-        <v>0.9954221875162347</v>
-      </c>
-      <c r="I9">
-        <v>1.021617690346793</v>
-      </c>
-      <c r="J9">
-        <v>0.9854933607701352</v>
-      </c>
-      <c r="K9">
-        <v>0.9963159973648813</v>
-      </c>
       <c r="L9">
+        <v>0.9899408922301073</v>
+      </c>
+      <c r="M9">
         <v>1.017676143857498</v>
-      </c>
-      <c r="M9">
-        <v>0.9899408922301074</v>
       </c>
       <c r="N9">
         <v>1.021617690346792</v>
@@ -1106,7 +1118,7 @@
         <v>1.006443525589103</v>
       </c>
       <c r="P9">
-        <v>0.995968443179619</v>
+        <v>0.9959684431796187</v>
       </c>
       <c r="Q9">
         <v>1.002772370200353</v>
@@ -1115,13 +1127,13 @@
         <v>1.004518192235343</v>
       </c>
       <c r="S9">
-        <v>0.9970127003902807</v>
+        <v>0.9970127003902803</v>
       </c>
       <c r="T9">
         <v>1.004518192235343</v>
       </c>
       <c r="U9">
-        <v>1.003163947879409</v>
+        <v>1.003163947879408</v>
       </c>
       <c r="V9">
         <v>1.006854696372885</v>
@@ -1138,40 +1150,40 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.022471667563905</v>
+        <v>0.9865889002452836</v>
       </c>
       <c r="D10">
+        <v>0.991871691868891</v>
+      </c>
+      <c r="E10">
+        <v>1.022471667563906</v>
+      </c>
+      <c r="F10">
+        <v>1.027755789835657</v>
+      </c>
+      <c r="G10">
         <v>0.9865889002452836</v>
       </c>
-      <c r="E10">
-        <v>1.027755789835657</v>
-      </c>
-      <c r="F10">
-        <v>1.022471667563905</v>
-      </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.9972593016981848</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.00226467449593</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.022471667563906</v>
       </c>
-      <c r="J10">
-        <v>0.9865889002452836</v>
-      </c>
       <c r="K10">
-        <v>0.991871691868891</v>
+        <v>1.022471667563906</v>
       </c>
       <c r="L10">
+        <v>0.9921530460940218</v>
+      </c>
+      <c r="M10">
         <v>1.032436130897946</v>
       </c>
-      <c r="M10">
-        <v>0.9921530460940218</v>
-      </c>
       <c r="N10">
-        <v>1.022471667563905</v>
+        <v>1.022471667563906</v>
       </c>
       <c r="O10">
         <v>1.027755789835657</v>
@@ -1198,7 +1210,7 @@
         <v>1.011309465381387</v>
       </c>
       <c r="W10">
-        <v>1.006600150337477</v>
+        <v>1.006600150337478</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9429065295833545</v>
+      </c>
+      <c r="D11">
+        <v>1.003499184700537</v>
+      </c>
+      <c r="E11">
+        <v>1.090190038884231</v>
+      </c>
+      <c r="F11">
+        <v>1.016891943789209</v>
+      </c>
+      <c r="G11">
+        <v>0.9429065295833545</v>
+      </c>
+      <c r="H11">
+        <v>0.9958324195119941</v>
+      </c>
+      <c r="I11">
+        <v>0.9824751759880799</v>
+      </c>
+      <c r="J11">
         <v>1.09019003888423</v>
       </c>
-      <c r="D11">
-        <v>0.9429065295833545</v>
-      </c>
-      <c r="E11">
-        <v>1.016891943789209</v>
-      </c>
-      <c r="F11">
+      <c r="K11">
         <v>1.09019003888423</v>
       </c>
-      <c r="G11">
-        <v>0.9958324195119941</v>
-      </c>
-      <c r="H11">
-        <v>0.9824751759880799</v>
-      </c>
-      <c r="I11">
-        <v>1.090190038884231</v>
-      </c>
-      <c r="J11">
-        <v>0.9429065295833545</v>
-      </c>
-      <c r="K11">
-        <v>1.003499184700537</v>
-      </c>
       <c r="L11">
+        <v>0.9637026445004377</v>
+      </c>
+      <c r="M11">
         <v>1.070764817019961</v>
-      </c>
-      <c r="M11">
-        <v>0.9637026445004375</v>
       </c>
       <c r="N11">
         <v>1.09019003888423</v>
@@ -1248,7 +1260,7 @@
         <v>1.016891943789209</v>
       </c>
       <c r="P11">
-        <v>0.979899236686282</v>
+        <v>0.9798992366862819</v>
       </c>
       <c r="Q11">
         <v>1.006362181650602</v>
@@ -1257,7 +1269,7 @@
         <v>1.016662837418931</v>
       </c>
       <c r="S11">
-        <v>0.985210297628186</v>
+        <v>0.9852102976281859</v>
       </c>
       <c r="T11">
         <v>1.016662837418931</v>
@@ -1280,58 +1292,58 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.726801437537558</v>
+      </c>
+      <c r="D12">
+        <v>0.8828982741061746</v>
+      </c>
+      <c r="E12">
         <v>1.145232462878803</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>0.1599185143386154</v>
+      </c>
+      <c r="G12">
         <v>1.726801437537558</v>
       </c>
-      <c r="E12">
-        <v>0.1599185143386155</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
+        <v>1.085228272657029</v>
+      </c>
+      <c r="I12">
+        <v>0.7751179788942166</v>
+      </c>
+      <c r="J12">
         <v>1.145232462878803</v>
       </c>
-      <c r="G12">
-        <v>1.085228272657029</v>
-      </c>
-      <c r="H12">
-        <v>0.7751179788942169</v>
-      </c>
-      <c r="I12">
+      <c r="K12">
         <v>1.145232462878803</v>
       </c>
-      <c r="J12">
-        <v>1.726801437537558</v>
-      </c>
-      <c r="K12">
-        <v>0.8828982741061747</v>
-      </c>
       <c r="L12">
+        <v>1.372661093213325</v>
+      </c>
+      <c r="M12">
         <v>1.383118589064885</v>
-      </c>
-      <c r="M12">
-        <v>1.372661093213325</v>
       </c>
       <c r="N12">
         <v>1.145232462878803</v>
       </c>
       <c r="O12">
-        <v>0.1599185143386155</v>
+        <v>0.1599185143386154</v>
       </c>
       <c r="P12">
-        <v>0.9433599759380865</v>
+        <v>0.9433599759380868</v>
       </c>
       <c r="Q12">
-        <v>0.622573393497822</v>
+        <v>0.6225733934978221</v>
       </c>
       <c r="R12">
-        <v>1.010650804918325</v>
+        <v>1.010650804918326</v>
       </c>
       <c r="S12">
-        <v>0.9906494081777338</v>
+        <v>0.9906494081777342</v>
       </c>
       <c r="T12">
-        <v>1.010650804918325</v>
+        <v>1.010650804918326</v>
       </c>
       <c r="U12">
         <v>1.029295171853001</v>
@@ -1351,40 +1363,40 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.036021412617617</v>
+        <v>1.082997514484764</v>
       </c>
       <c r="D13">
+        <v>1.038092648420819</v>
+      </c>
+      <c r="E13">
+        <v>1.036021412617618</v>
+      </c>
+      <c r="F13">
+        <v>1.243025255202959</v>
+      </c>
+      <c r="G13">
         <v>1.082997514484764</v>
       </c>
-      <c r="E13">
-        <v>1.243025255202959</v>
-      </c>
-      <c r="F13">
-        <v>1.036021412617617</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.001828586076536</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.049621676940299</v>
       </c>
-      <c r="I13">
-        <v>1.036021412617617</v>
-      </c>
       <c r="J13">
-        <v>1.082997514484764</v>
+        <v>1.036021412617618</v>
       </c>
       <c r="K13">
-        <v>1.038092648420819</v>
+        <v>1.036021412617618</v>
       </c>
       <c r="L13">
+        <v>0.9665614535475507</v>
+      </c>
+      <c r="M13">
         <v>0.712092959815386</v>
       </c>
-      <c r="M13">
-        <v>0.9665614535475505</v>
-      </c>
       <c r="N13">
-        <v>1.036021412617617</v>
+        <v>1.036021412617618</v>
       </c>
       <c r="O13">
         <v>1.243025255202959</v>
@@ -1411,7 +1423,7 @@
         <v>1.079978836199899</v>
       </c>
       <c r="W13">
-        <v>1.016280188388241</v>
+        <v>1.016280188388242</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,64 +1434,64 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0003076322294923389</v>
+        <v>0.03773837536633542</v>
       </c>
       <c r="D14">
-        <v>0.03773837536633544</v>
+        <v>1.570541915132424</v>
       </c>
       <c r="E14">
+        <v>0.0003076322294923381</v>
+      </c>
+      <c r="F14">
         <v>1.656625280993738</v>
       </c>
-      <c r="F14">
-        <v>0.0003076322294923389</v>
-      </c>
       <c r="G14">
-        <v>0.6360889011545151</v>
+        <v>0.03773837536633542</v>
       </c>
       <c r="H14">
-        <v>1.473716931119823</v>
+        <v>0.6360889011545153</v>
       </c>
       <c r="I14">
-        <v>0.0003076322294923389</v>
+        <v>1.473716931119822</v>
       </c>
       <c r="J14">
-        <v>0.03773837536633544</v>
+        <v>0.0003076322294923381</v>
       </c>
       <c r="K14">
-        <v>1.570541915132424</v>
+        <v>0.0003076322294923381</v>
       </c>
       <c r="L14">
+        <v>0.7796614023820978</v>
+      </c>
+      <c r="M14">
         <v>0.8783289107094991</v>
       </c>
-      <c r="M14">
-        <v>0.7796614023820978</v>
-      </c>
       <c r="N14">
-        <v>0.0003076322294923389</v>
+        <v>0.0003076322294923381</v>
       </c>
       <c r="O14">
         <v>1.656625280993738</v>
       </c>
       <c r="P14">
-        <v>0.8471818281800367</v>
+        <v>0.8471818281800368</v>
       </c>
       <c r="Q14">
         <v>1.146357091074127</v>
       </c>
       <c r="R14">
-        <v>0.5648904295298552</v>
+        <v>0.5648904295298554</v>
       </c>
       <c r="S14">
-        <v>0.7768175191715295</v>
+        <v>0.7768175191715296</v>
       </c>
       <c r="T14">
-        <v>0.5648904295298552</v>
+        <v>0.5648904295298554</v>
       </c>
       <c r="U14">
-        <v>0.5826900474360203</v>
+        <v>0.5826900474360204</v>
       </c>
       <c r="V14">
-        <v>0.4662135643947146</v>
+        <v>0.4662135643947147</v>
       </c>
       <c r="W14">
         <v>0.8791261686359906</v>
@@ -1493,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.791353615150844</v>
+      </c>
+      <c r="D15">
+        <v>0.7257790382051001</v>
+      </c>
+      <c r="E15">
         <v>1.141735436796123</v>
       </c>
-      <c r="D15">
+      <c r="F15">
+        <v>0.6608881912220492</v>
+      </c>
+      <c r="G15">
         <v>1.791353615150844</v>
       </c>
-      <c r="E15">
-        <v>0.6608881912220492</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
+        <v>1.155123494897504</v>
+      </c>
+      <c r="I15">
+        <v>0.8690513730446268</v>
+      </c>
+      <c r="J15">
         <v>1.141735436796123</v>
       </c>
-      <c r="G15">
-        <v>1.155123494897503</v>
-      </c>
-      <c r="H15">
-        <v>0.8690513730446268</v>
-      </c>
-      <c r="I15">
+      <c r="K15">
         <v>1.141735436796123</v>
       </c>
-      <c r="J15">
-        <v>1.791353615150844</v>
-      </c>
-      <c r="K15">
-        <v>0.7257790382051003</v>
-      </c>
       <c r="L15">
+        <v>1.202095304430305</v>
+      </c>
+      <c r="M15">
         <v>1.120996097187746</v>
-      </c>
-      <c r="M15">
-        <v>1.202095304430305</v>
       </c>
       <c r="N15">
         <v>1.141735436796123</v>
@@ -1535,7 +1547,7 @@
         <v>1.226120903186447</v>
       </c>
       <c r="Q15">
-        <v>0.9080058430597763</v>
+        <v>0.9080058430597764</v>
       </c>
       <c r="R15">
         <v>1.197992414389672</v>
@@ -1564,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9959331443068412</v>
+        <v>0.8148344588568142</v>
       </c>
       <c r="D16">
-        <v>1.006990663975722</v>
+        <v>0.9971762624377425</v>
       </c>
       <c r="E16">
-        <v>1.004167491528044</v>
+        <v>2.699003696247105</v>
       </c>
       <c r="F16">
-        <v>0.9959331443068412</v>
+        <v>1.145762604890904</v>
       </c>
       <c r="G16">
-        <v>0.9945506366831951</v>
+        <v>0.8148344588568142</v>
       </c>
       <c r="H16">
-        <v>1.002261957879053</v>
+        <v>1.031667839858437</v>
       </c>
       <c r="I16">
-        <v>0.9959331443068415</v>
+        <v>0.9690782064223594</v>
       </c>
       <c r="J16">
-        <v>1.006990663975722</v>
+        <v>2.699003696247104</v>
       </c>
       <c r="K16">
-        <v>0.9997301585596676</v>
+        <v>2.699003696247104</v>
       </c>
       <c r="L16">
-        <v>0.9994332643183312</v>
+        <v>0.8023198596559901</v>
       </c>
       <c r="M16">
-        <v>0.999225944987653</v>
+        <v>0.9939964133119019</v>
       </c>
       <c r="N16">
-        <v>0.9959331443068412</v>
+        <v>2.699003696247104</v>
       </c>
       <c r="O16">
-        <v>1.004167491528044</v>
+        <v>1.145762604890904</v>
       </c>
       <c r="P16">
-        <v>1.005579077751883</v>
+        <v>0.9802985318738593</v>
       </c>
       <c r="Q16">
-        <v>0.9993590641056194</v>
+        <v>1.088715222374671</v>
       </c>
       <c r="R16">
-        <v>1.002363766603536</v>
+        <v>1.553200253331608</v>
       </c>
       <c r="S16">
-        <v>1.001902930728987</v>
+        <v>0.9974216345353852</v>
       </c>
       <c r="T16">
-        <v>1.002363766603536</v>
+        <v>1.553200253331608</v>
       </c>
       <c r="U16">
-        <v>1.000410484123451</v>
+        <v>1.422817149963315</v>
       </c>
       <c r="V16">
-        <v>0.9995150161601287</v>
+        <v>1.678054459220073</v>
       </c>
       <c r="W16">
-        <v>1.000286657779814</v>
+        <v>1.181729917710157</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.007576448623922</v>
+        <v>0.8178398984467117</v>
       </c>
       <c r="D17">
-        <v>0.9919174881516474</v>
+        <v>0.9712465566564449</v>
       </c>
       <c r="E17">
-        <v>1.000428770411991</v>
+        <v>2.121557822772397</v>
       </c>
       <c r="F17">
-        <v>1.007576448623922</v>
+        <v>1.198339149130953</v>
       </c>
       <c r="G17">
-        <v>1.008146923112346</v>
+        <v>0.8178398984467117</v>
       </c>
       <c r="H17">
-        <v>1.000809420372564</v>
+        <v>1.004761511937315</v>
       </c>
       <c r="I17">
-        <v>1.007576448623922</v>
+        <v>1.003015238266422</v>
       </c>
       <c r="J17">
-        <v>0.9919174881516474</v>
+        <v>2.121557822772397</v>
       </c>
       <c r="K17">
-        <v>0.9970440927965002</v>
+        <v>2.121557822772397</v>
       </c>
       <c r="L17">
-        <v>1.0108505195747</v>
+        <v>0.821057354891326</v>
       </c>
       <c r="M17">
-        <v>0.9991003092535025</v>
+        <v>1.056920939200804</v>
       </c>
       <c r="N17">
-        <v>1.007576448623922</v>
+        <v>2.121557822772397</v>
       </c>
       <c r="O17">
-        <v>1.000428770411991</v>
+        <v>1.198339149130953</v>
       </c>
       <c r="P17">
-        <v>0.9961731292818194</v>
+        <v>1.008089523788832</v>
       </c>
       <c r="Q17">
-        <v>1.004287846762169</v>
+        <v>1.101550330534134</v>
       </c>
       <c r="R17">
-        <v>0.9999742357291869</v>
+        <v>1.37924562345002</v>
       </c>
       <c r="S17">
-        <v>1.000164393891995</v>
+        <v>1.006980186504993</v>
       </c>
       <c r="T17">
-        <v>0.9999742357291869</v>
+        <v>1.37924562345002</v>
       </c>
       <c r="U17">
-        <v>1.002017407574977</v>
+        <v>1.285624595571844</v>
       </c>
       <c r="V17">
-        <v>1.003129215784766</v>
+        <v>1.452811241011954</v>
       </c>
       <c r="W17">
-        <v>1.001984246537146</v>
+        <v>1.124342308912797</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.048029527760301</v>
+        <v>0.8214083538211311</v>
       </c>
       <c r="D18">
-        <v>1.02205210547788</v>
+        <v>0.9186326285882668</v>
       </c>
       <c r="E18">
-        <v>1.004373216807255</v>
+        <v>0.9813620374966735</v>
       </c>
       <c r="F18">
-        <v>1.048029527760301</v>
+        <v>1.300192516254254</v>
       </c>
       <c r="G18">
-        <v>1.007021683663601</v>
+        <v>0.8214083538211311</v>
       </c>
       <c r="H18">
-        <v>1.022976007054087</v>
+        <v>0.953013509166779</v>
       </c>
       <c r="I18">
-        <v>1.048029527760301</v>
+        <v>1.073445580330785</v>
       </c>
       <c r="J18">
-        <v>1.02205210547788</v>
+        <v>0.9813620374966735</v>
       </c>
       <c r="K18">
-        <v>1.016759620268286</v>
+        <v>0.9813620374966735</v>
       </c>
       <c r="L18">
-        <v>1.013146935354963</v>
+        <v>0.8599927515636228</v>
       </c>
       <c r="M18">
-        <v>0.9988668571084026</v>
+        <v>1.186760793802856</v>
       </c>
       <c r="N18">
-        <v>1.048029527760301</v>
+        <v>0.9813620374966735</v>
       </c>
       <c r="O18">
-        <v>1.004373216807255</v>
+        <v>1.300192516254254</v>
       </c>
       <c r="P18">
-        <v>1.013212661142567</v>
+        <v>1.060800435037692</v>
       </c>
       <c r="Q18">
-        <v>1.005697450235428</v>
+        <v>1.126603012710516</v>
       </c>
       <c r="R18">
-        <v>1.024818283348478</v>
+        <v>1.034320969190686</v>
       </c>
       <c r="S18">
-        <v>1.011149001982912</v>
+        <v>1.024871459747388</v>
       </c>
       <c r="T18">
-        <v>1.024818283348478</v>
+        <v>1.034320969190686</v>
       </c>
       <c r="U18">
-        <v>1.020369133427259</v>
+        <v>1.013994104184709</v>
       </c>
       <c r="V18">
-        <v>1.025901212293868</v>
+        <v>1.007467690847102</v>
       </c>
       <c r="W18">
-        <v>1.016653244186847</v>
+        <v>1.011851021378046</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.7962097623313094</v>
+      </c>
+      <c r="D19">
+        <v>0.9163712029122393</v>
+      </c>
+      <c r="E19">
+        <v>0.8988753022164956</v>
+      </c>
+      <c r="F19">
+        <v>1.475271183586421</v>
+      </c>
+      <c r="G19">
+        <v>0.7962097623313094</v>
+      </c>
+      <c r="H19">
+        <v>0.9200273455336888</v>
+      </c>
+      <c r="I19">
+        <v>1.066441407400368</v>
+      </c>
+      <c r="J19">
+        <v>0.8988753022164956</v>
+      </c>
+      <c r="K19">
+        <v>0.8988753022164956</v>
+      </c>
+      <c r="L19">
+        <v>0.8436556001678726</v>
+      </c>
+      <c r="M19">
+        <v>1.242716917307334</v>
+      </c>
+      <c r="N19">
+        <v>0.8988753022164956</v>
+      </c>
+      <c r="O19">
+        <v>1.475271183586421</v>
+      </c>
+      <c r="P19">
+        <v>1.135740472958865</v>
+      </c>
+      <c r="Q19">
+        <v>1.197649264560055</v>
+      </c>
+      <c r="R19">
+        <v>1.056785416044742</v>
+      </c>
+      <c r="S19">
+        <v>1.063836097150473</v>
+      </c>
+      <c r="T19">
+        <v>1.056785416044742</v>
+      </c>
+      <c r="U19">
+        <v>1.022595898416979</v>
+      </c>
+      <c r="V19">
+        <v>0.9978517791768819</v>
+      </c>
+      <c r="W19">
+        <v>1.019946090181966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.006990663975722</v>
+      </c>
+      <c r="D20">
+        <v>0.9997301585596668</v>
+      </c>
+      <c r="E20">
+        <v>0.9959331443068422</v>
+      </c>
+      <c r="F20">
+        <v>1.004167491528044</v>
+      </c>
+      <c r="G20">
+        <v>1.006990663975722</v>
+      </c>
+      <c r="H20">
+        <v>0.994550636683195</v>
+      </c>
+      <c r="I20">
+        <v>1.002261957879053</v>
+      </c>
+      <c r="J20">
+        <v>0.995933144306842</v>
+      </c>
+      <c r="K20">
+        <v>0.995933144306842</v>
+      </c>
+      <c r="L20">
+        <v>0.9992259449876532</v>
+      </c>
+      <c r="M20">
+        <v>0.9994332643183305</v>
+      </c>
+      <c r="N20">
+        <v>0.995933144306842</v>
+      </c>
+      <c r="O20">
+        <v>1.004167491528044</v>
+      </c>
+      <c r="P20">
+        <v>1.005579077751883</v>
+      </c>
+      <c r="Q20">
+        <v>0.9993590641056194</v>
+      </c>
+      <c r="R20">
+        <v>1.002363766603536</v>
+      </c>
+      <c r="S20">
+        <v>1.001902930728987</v>
+      </c>
+      <c r="T20">
+        <v>1.002363766603536</v>
+      </c>
+      <c r="U20">
+        <v>1.000410484123451</v>
+      </c>
+      <c r="V20">
+        <v>0.9995150161601292</v>
+      </c>
+      <c r="W20">
+        <v>1.000286657779813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9919174881516477</v>
+      </c>
+      <c r="D21">
+        <v>0.9970440927965006</v>
+      </c>
+      <c r="E21">
+        <v>1.007576448623924</v>
+      </c>
+      <c r="F21">
+        <v>1.000428770411991</v>
+      </c>
+      <c r="G21">
+        <v>0.9919174881516477</v>
+      </c>
+      <c r="H21">
+        <v>1.008146923112346</v>
+      </c>
+      <c r="I21">
+        <v>1.000809420372564</v>
+      </c>
+      <c r="J21">
+        <v>1.007576448623923</v>
+      </c>
+      <c r="K21">
+        <v>1.007576448623923</v>
+      </c>
+      <c r="L21">
+        <v>0.9991003092535027</v>
+      </c>
+      <c r="M21">
+        <v>1.0108505195747</v>
+      </c>
+      <c r="N21">
+        <v>1.007576448623923</v>
+      </c>
+      <c r="O21">
+        <v>1.000428770411991</v>
+      </c>
+      <c r="P21">
+        <v>0.9961731292818194</v>
+      </c>
+      <c r="Q21">
+        <v>1.004287846762169</v>
+      </c>
+      <c r="R21">
+        <v>0.9999742357291872</v>
+      </c>
+      <c r="S21">
+        <v>1.000164393891995</v>
+      </c>
+      <c r="T21">
+        <v>0.9999742357291872</v>
+      </c>
+      <c r="U21">
+        <v>1.002017407574977</v>
+      </c>
+      <c r="V21">
+        <v>1.003129215784766</v>
+      </c>
+      <c r="W21">
+        <v>1.001984246537147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.02205210547788</v>
+      </c>
+      <c r="D22">
+        <v>1.016759620268286</v>
+      </c>
+      <c r="E22">
+        <v>1.048029527760302</v>
+      </c>
+      <c r="F22">
+        <v>1.004373216807256</v>
+      </c>
+      <c r="G22">
+        <v>1.02205210547788</v>
+      </c>
+      <c r="H22">
+        <v>1.007021683663601</v>
+      </c>
+      <c r="I22">
+        <v>1.022976007054087</v>
+      </c>
+      <c r="J22">
+        <v>1.048029527760302</v>
+      </c>
+      <c r="K22">
+        <v>1.048029527760302</v>
+      </c>
+      <c r="L22">
+        <v>0.9988668571084022</v>
+      </c>
+      <c r="M22">
+        <v>1.013146935354963</v>
+      </c>
+      <c r="N22">
+        <v>1.048029527760302</v>
+      </c>
+      <c r="O22">
+        <v>1.004373216807256</v>
+      </c>
+      <c r="P22">
+        <v>1.013212661142568</v>
+      </c>
+      <c r="Q22">
+        <v>1.005697450235429</v>
+      </c>
+      <c r="R22">
+        <v>1.024818283348479</v>
+      </c>
+      <c r="S22">
+        <v>1.011149001982912</v>
+      </c>
+      <c r="T22">
+        <v>1.024818283348479</v>
+      </c>
+      <c r="U22">
+        <v>1.02036913342726</v>
+      </c>
+      <c r="V22">
+        <v>1.025901212293868</v>
+      </c>
+      <c r="W22">
+        <v>1.016653244186847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.067578255220803</v>
+      </c>
+      <c r="D23">
+        <v>1.017660199338066</v>
+      </c>
+      <c r="E23">
         <v>1.156635416445899</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.015375834657054</v>
+      </c>
+      <c r="G23">
         <v>1.067578255220803</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>0.9159029717808196</v>
+      </c>
+      <c r="I23">
+        <v>1.043084228274425</v>
+      </c>
+      <c r="J23">
+        <v>1.156635416445899</v>
+      </c>
+      <c r="K23">
+        <v>1.156635416445899</v>
+      </c>
+      <c r="L23">
+        <v>1.030990941762087</v>
+      </c>
+      <c r="M23">
+        <v>0.9692390254997375</v>
+      </c>
+      <c r="N23">
+        <v>1.156635416445899</v>
+      </c>
+      <c r="O23">
         <v>1.015375834657054</v>
       </c>
-      <c r="F19">
-        <v>1.156635416445899</v>
-      </c>
-      <c r="G19">
-        <v>0.9159029717808196</v>
-      </c>
-      <c r="H19">
-        <v>1.043084228274425</v>
-      </c>
-      <c r="I19">
-        <v>1.156635416445899</v>
-      </c>
-      <c r="J19">
-        <v>1.067578255220803</v>
-      </c>
-      <c r="K19">
-        <v>1.017660199338066</v>
-      </c>
-      <c r="L19">
-        <v>0.9692390254997375</v>
-      </c>
-      <c r="M19">
-        <v>1.030990941762087</v>
-      </c>
-      <c r="N19">
-        <v>1.156635416445899</v>
-      </c>
-      <c r="O19">
-        <v>1.015375834657054</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.041477044938929</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9656394032189369</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.079863168774585</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9996190205528924</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.079863168774585</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.038873119526144</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.062425578910095</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.027058359122361</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9954529291732167</v>
+        <v>0.8035469071444115</v>
       </c>
       <c r="D3">
-        <v>0.9988120831081417</v>
+        <v>0.8939251527622533</v>
       </c>
       <c r="E3">
-        <v>1.100301707342899</v>
+        <v>1.002955910497551</v>
       </c>
       <c r="F3">
-        <v>1.008365343058778</v>
+        <v>1.437303295954964</v>
       </c>
       <c r="G3">
-        <v>0.9954529291732167</v>
+        <v>0.8035469071444115</v>
       </c>
       <c r="H3">
-        <v>1.00492102591884</v>
+        <v>0.9336102737633115</v>
       </c>
       <c r="I3">
-        <v>0.9967600279007472</v>
+        <v>1.074955923817131</v>
       </c>
       <c r="J3">
-        <v>1.100301707342898</v>
+        <v>1.002955910497551</v>
       </c>
       <c r="K3">
-        <v>1.100301707342898</v>
+        <v>1.002955910497551</v>
       </c>
       <c r="L3">
-        <v>0.987618312632276</v>
+        <v>0.8333046271319161</v>
       </c>
       <c r="M3">
-        <v>0.9978009999086982</v>
+        <v>1.258216418900977</v>
       </c>
       <c r="N3">
-        <v>1.100301707342898</v>
+        <v>1.002955910497551</v>
       </c>
       <c r="O3">
-        <v>1.008365343058778</v>
+        <v>1.437303295954964</v>
       </c>
       <c r="P3">
-        <v>1.001909136115997</v>
+        <v>1.120425101549688</v>
       </c>
       <c r="Q3">
-        <v>1.006643184488809</v>
+        <v>1.185456784859138</v>
       </c>
       <c r="R3">
-        <v>1.034706659858297</v>
+        <v>1.081268704532309</v>
       </c>
       <c r="S3">
-        <v>1.002913099383611</v>
+        <v>1.058153492287562</v>
       </c>
       <c r="T3">
-        <v>1.034706659858298</v>
+        <v>1.081268704532309</v>
       </c>
       <c r="U3">
-        <v>1.027260251373433</v>
+        <v>1.04435409684006</v>
       </c>
       <c r="V3">
-        <v>1.041868542567326</v>
+        <v>1.036074459571558</v>
       </c>
       <c r="W3">
-        <v>1.01125405363045</v>
+        <v>1.029727313746565</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9925149798249919</v>
+        <v>0.8152202019972506</v>
       </c>
       <c r="D4">
-        <v>1.003535976736113</v>
+        <v>0.9080814764446078</v>
       </c>
       <c r="E4">
-        <v>1.211549731434579</v>
+        <v>0.9777291140115061</v>
       </c>
       <c r="F4">
-        <v>1.016012359026622</v>
+        <v>1.365073778531367</v>
       </c>
       <c r="G4">
-        <v>0.9925149798249919</v>
+        <v>0.8152202019972506</v>
       </c>
       <c r="H4">
-        <v>1.005397152486552</v>
+        <v>0.9433767821338168</v>
       </c>
       <c r="I4">
-        <v>0.9956352333619829</v>
+        <v>1.073887759815283</v>
       </c>
       <c r="J4">
-        <v>1.211549731434579</v>
+        <v>0.9777291140115061</v>
       </c>
       <c r="K4">
-        <v>1.211549731434579</v>
+        <v>0.9777291140115061</v>
       </c>
       <c r="L4">
-        <v>0.9912829795576776</v>
+        <v>0.8475416630566361</v>
       </c>
       <c r="M4">
-        <v>0.9992945329227504</v>
+        <v>1.214135417335076</v>
       </c>
       <c r="N4">
-        <v>1.211549731434579</v>
+        <v>0.9777291140115061</v>
       </c>
       <c r="O4">
-        <v>1.016012359026622</v>
+        <v>1.365073778531367</v>
       </c>
       <c r="P4">
-        <v>1.004263669425807</v>
+        <v>1.090146990264309</v>
       </c>
       <c r="Q4">
-        <v>1.010704755756587</v>
+        <v>1.154225280332592</v>
       </c>
       <c r="R4">
-        <v>1.073359023428731</v>
+        <v>1.052674364846708</v>
       </c>
       <c r="S4">
-        <v>1.004641497112722</v>
+        <v>1.041223587554145</v>
       </c>
       <c r="T4">
-        <v>1.073359023428731</v>
+        <v>1.052674364846708</v>
       </c>
       <c r="U4">
-        <v>1.056368555693186</v>
+        <v>1.025349969168485</v>
       </c>
       <c r="V4">
-        <v>1.087404790841465</v>
+        <v>1.015825798137089</v>
       </c>
       <c r="W4">
-        <v>1.026902868168909</v>
+        <v>1.018130774165693</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9797656509559932</v>
+        <v>0.7674936775097094</v>
       </c>
       <c r="D5">
-        <v>1.033561358962769</v>
+        <v>0.8681457111690031</v>
       </c>
       <c r="E5">
-        <v>1.537461698612397</v>
+        <v>1.073611530753448</v>
       </c>
       <c r="F5">
-        <v>1.119826039862722</v>
+        <v>1.607577006280914</v>
       </c>
       <c r="G5">
-        <v>0.9797656509559932</v>
+        <v>0.7674936775097094</v>
       </c>
       <c r="H5">
-        <v>1.031151632070594</v>
+        <v>0.9240060782627497</v>
       </c>
       <c r="I5">
-        <v>1.036847743485764</v>
+        <v>1.0905467860814</v>
       </c>
       <c r="J5">
-        <v>1.537461698612397</v>
+        <v>1.073611530753448</v>
       </c>
       <c r="K5">
-        <v>1.537461698612397</v>
+        <v>1.073611530753448</v>
       </c>
       <c r="L5">
-        <v>0.9936672405215879</v>
+        <v>0.808114501756118</v>
       </c>
       <c r="M5">
-        <v>1.016660855470511</v>
+        <v>1.369159769192346</v>
       </c>
       <c r="N5">
-        <v>1.537461698612397</v>
+        <v>1.073611530753448</v>
       </c>
       <c r="O5">
-        <v>1.119826039862722</v>
+        <v>1.607577006280914</v>
       </c>
       <c r="P5">
-        <v>1.049795845409358</v>
+        <v>1.187535341895312</v>
       </c>
       <c r="Q5">
-        <v>1.075488835966658</v>
+        <v>1.265791542271832</v>
       </c>
       <c r="R5">
-        <v>1.212351129810371</v>
+        <v>1.149560738181357</v>
       </c>
       <c r="S5">
-        <v>1.04358110762977</v>
+        <v>1.099692254017791</v>
       </c>
       <c r="T5">
-        <v>1.212351129810371</v>
+        <v>1.149560738181357</v>
       </c>
       <c r="U5">
-        <v>1.167051255375426</v>
+        <v>1.093172073201705</v>
       </c>
       <c r="V5">
-        <v>1.24113334402282</v>
+        <v>1.089259964712054</v>
       </c>
       <c r="W5">
-        <v>1.093617777492792</v>
+        <v>1.063581882625711</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.019338160434871</v>
+        <v>0.6847208170737387</v>
       </c>
       <c r="D6">
-        <v>0.9625854553202233</v>
+        <v>0.8374444784534087</v>
       </c>
       <c r="E6">
-        <v>2.15242454439678</v>
+        <v>1.173415018289591</v>
       </c>
       <c r="F6">
-        <v>0.9198355901420283</v>
+        <v>1.836725261029036</v>
       </c>
       <c r="G6">
-        <v>1.019338160434871</v>
+        <v>0.6847208170737387</v>
       </c>
       <c r="H6">
-        <v>1.142834411125328</v>
+        <v>0.9346796058231819</v>
       </c>
       <c r="I6">
-        <v>1.039845700446282</v>
+        <v>1.025960657139773</v>
       </c>
       <c r="J6">
-        <v>2.15242454439678</v>
+        <v>1.173415018289591</v>
       </c>
       <c r="K6">
-        <v>2.15242454439678</v>
+        <v>1.173415018289591</v>
       </c>
       <c r="L6">
-        <v>0.8154831348887442</v>
+        <v>0.685409914332443</v>
       </c>
       <c r="M6">
-        <v>0.9582074052311781</v>
+        <v>1.553972826747726</v>
       </c>
       <c r="N6">
-        <v>2.15242454439678</v>
+        <v>1.173415018289591</v>
       </c>
       <c r="O6">
-        <v>0.9198355901420283</v>
+        <v>1.836725261029036</v>
       </c>
       <c r="P6">
-        <v>0.9695868752884497</v>
+        <v>1.260723039051387</v>
       </c>
       <c r="Q6">
-        <v>1.031335000633678</v>
+        <v>1.385702433426109</v>
       </c>
       <c r="R6">
-        <v>1.36386609832456</v>
+        <v>1.231620365464122</v>
       </c>
       <c r="S6">
-        <v>1.027336053900742</v>
+        <v>1.152041894641985</v>
       </c>
       <c r="T6">
-        <v>1.36386609832456</v>
+        <v>1.231620365464122</v>
       </c>
       <c r="U6">
-        <v>1.308608176524752</v>
+        <v>1.157385175553887</v>
       </c>
       <c r="V6">
-        <v>1.477371450099157</v>
+        <v>1.160591144101028</v>
       </c>
       <c r="W6">
-        <v>1.126319300248179</v>
+        <v>1.091541072361112</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9984087956191043</v>
+        <v>0.8354903352864316</v>
       </c>
       <c r="D7">
-        <v>0.9986922468780762</v>
+        <v>0.4755757696202568</v>
       </c>
       <c r="E7">
-        <v>1.000663163269911</v>
+        <v>2.068991982209749</v>
       </c>
       <c r="F7">
-        <v>1.005048021684187</v>
+        <v>2.100165455863782</v>
       </c>
       <c r="G7">
-        <v>0.9984087956191043</v>
+        <v>0.8354903352864316</v>
       </c>
       <c r="H7">
-        <v>0.999546467470233</v>
+        <v>0.6855958641655505</v>
       </c>
       <c r="I7">
-        <v>0.9998813037023717</v>
+        <v>1.674977089184369</v>
       </c>
       <c r="J7">
-        <v>1.00066316326991</v>
+        <v>2.068991982209749</v>
       </c>
       <c r="K7">
-        <v>1.00066316326991</v>
+        <v>2.068991982209749</v>
       </c>
       <c r="L7">
-        <v>0.9988985051557923</v>
+        <v>0.6552063712340827</v>
       </c>
       <c r="M7">
-        <v>1.003652714693368</v>
+        <v>1.30584968371291</v>
       </c>
       <c r="N7">
-        <v>1.00066316326991</v>
+        <v>2.068991982209749</v>
       </c>
       <c r="O7">
-        <v>1.005048021684187</v>
+        <v>2.100165455863782</v>
       </c>
       <c r="P7">
-        <v>1.001728408651646</v>
+        <v>1.467827895575107</v>
       </c>
       <c r="Q7">
-        <v>1.00229724457721</v>
+        <v>1.392880660014666</v>
       </c>
       <c r="R7">
-        <v>1.001373326857734</v>
+        <v>1.668215924453321</v>
       </c>
       <c r="S7">
-        <v>1.001001094924508</v>
+        <v>1.207083885105255</v>
       </c>
       <c r="T7">
-        <v>1.001373326857734</v>
+        <v>1.668215924453321</v>
       </c>
       <c r="U7">
-        <v>1.000916612010859</v>
+        <v>1.422560909381378</v>
       </c>
       <c r="V7">
-        <v>1.000865922262669</v>
+        <v>1.551847123947053</v>
       </c>
       <c r="W7">
-        <v>1.00059890230913</v>
+        <v>1.225231568909642</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9971446790590125</v>
+        <v>0.8305328934739886</v>
       </c>
       <c r="D8">
-        <v>0.9973892746417096</v>
+        <v>0.4724627900982751</v>
       </c>
       <c r="E8">
-        <v>1.002737463569013</v>
+        <v>2.074606718724662</v>
       </c>
       <c r="F8">
-        <v>1.007243188091124</v>
+        <v>2.1091868653448</v>
       </c>
       <c r="G8">
-        <v>0.9971446790590125</v>
+        <v>0.8305328934739886</v>
       </c>
       <c r="H8">
-        <v>0.9970116822125716</v>
+        <v>0.6841172649425844</v>
       </c>
       <c r="I8">
-        <v>1.000588289956484</v>
+        <v>1.671558349885831</v>
       </c>
       <c r="J8">
-        <v>1.002737463569012</v>
+        <v>2.074606718724662</v>
       </c>
       <c r="K8">
-        <v>1.002737463569012</v>
+        <v>2.074606718724662</v>
       </c>
       <c r="L8">
-        <v>0.9956547491602694</v>
+        <v>0.651019297892378</v>
       </c>
       <c r="M8">
-        <v>1.010140576160794</v>
+        <v>1.322754281875473</v>
       </c>
       <c r="N8">
-        <v>1.002737463569012</v>
+        <v>2.074606718724662</v>
       </c>
       <c r="O8">
-        <v>1.007243188091124</v>
+        <v>2.1091868653448</v>
       </c>
       <c r="P8">
-        <v>1.002193933575068</v>
+        <v>1.469859879409394</v>
       </c>
       <c r="Q8">
-        <v>1.002127435151848</v>
+        <v>1.396652065143692</v>
       </c>
       <c r="R8">
-        <v>1.002375110239716</v>
+        <v>1.67144215918115</v>
       </c>
       <c r="S8">
-        <v>1.000466516454236</v>
+        <v>1.207945674587124</v>
       </c>
       <c r="T8">
-        <v>1.002375110239716</v>
+        <v>1.67144215918115</v>
       </c>
       <c r="U8">
-        <v>1.00103425323293</v>
+        <v>1.424610935621509</v>
       </c>
       <c r="V8">
-        <v>1.001374895300146</v>
+        <v>1.554610092242139</v>
       </c>
       <c r="W8">
-        <v>1.000988737856372</v>
+        <v>1.227029807779749</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9854933607701349</v>
+        <v>0.8266896591366661</v>
       </c>
       <c r="D9">
-        <v>0.9963159973648815</v>
+        <v>0.4694557049765806</v>
       </c>
       <c r="E9">
-        <v>1.021617690346793</v>
+        <v>2.063344017325457</v>
       </c>
       <c r="F9">
-        <v>1.006443525589103</v>
+        <v>2.129337972966119</v>
       </c>
       <c r="G9">
-        <v>0.9854933607701349</v>
+        <v>0.8266896591366661</v>
       </c>
       <c r="H9">
-        <v>0.9991012148116039</v>
+        <v>0.6817509142537512</v>
       </c>
       <c r="I9">
-        <v>0.9954221875162347</v>
+        <v>1.670397253404278</v>
       </c>
       <c r="J9">
-        <v>1.021617690346792</v>
+        <v>2.063344017325457</v>
       </c>
       <c r="K9">
-        <v>1.021617690346792</v>
+        <v>2.063344017325457</v>
       </c>
       <c r="L9">
-        <v>0.9899408922301073</v>
+        <v>0.6472728160412974</v>
       </c>
       <c r="M9">
-        <v>1.017676143857498</v>
+        <v>1.337646401120193</v>
       </c>
       <c r="N9">
-        <v>1.021617690346792</v>
+        <v>2.063344017325457</v>
       </c>
       <c r="O9">
-        <v>1.006443525589103</v>
+        <v>2.129337972966119</v>
       </c>
       <c r="P9">
-        <v>0.9959684431796187</v>
+        <v>1.478013816051392</v>
       </c>
       <c r="Q9">
-        <v>1.002772370200353</v>
+        <v>1.405544443609935</v>
       </c>
       <c r="R9">
-        <v>1.004518192235343</v>
+        <v>1.673123883142748</v>
       </c>
       <c r="S9">
-        <v>0.9970127003902803</v>
+        <v>1.212592848785512</v>
       </c>
       <c r="T9">
-        <v>1.004518192235343</v>
+        <v>1.673123883142748</v>
       </c>
       <c r="U9">
-        <v>1.003163947879408</v>
+        <v>1.425280640920498</v>
       </c>
       <c r="V9">
-        <v>1.006854696372885</v>
+        <v>1.55289331620149</v>
       </c>
       <c r="W9">
-        <v>1.001501376560794</v>
+        <v>1.228236842403043</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9865889002452836</v>
+        <v>0.8140666939175601</v>
       </c>
       <c r="D10">
-        <v>0.991871691868891</v>
+        <v>0.4594134158821953</v>
       </c>
       <c r="E10">
-        <v>1.022471667563906</v>
+        <v>2.116942803203433</v>
       </c>
       <c r="F10">
-        <v>1.027755789835657</v>
+        <v>2.151321006641332</v>
       </c>
       <c r="G10">
-        <v>0.9865889002452836</v>
+        <v>0.8140666939175601</v>
       </c>
       <c r="H10">
-        <v>0.9972593016981848</v>
+        <v>0.6718868711414153</v>
       </c>
       <c r="I10">
-        <v>1.00226467449593</v>
+        <v>1.653928477676998</v>
       </c>
       <c r="J10">
-        <v>1.022471667563906</v>
+        <v>2.116942803203433</v>
       </c>
       <c r="K10">
-        <v>1.022471667563906</v>
+        <v>2.116942803203433</v>
       </c>
       <c r="L10">
-        <v>0.9921530460940218</v>
+        <v>0.6352371844362392</v>
       </c>
       <c r="M10">
-        <v>1.032436130897946</v>
+        <v>1.404488110718422</v>
       </c>
       <c r="N10">
-        <v>1.022471667563906</v>
+        <v>2.116942803203433</v>
       </c>
       <c r="O10">
-        <v>1.027755789835657</v>
+        <v>2.151321006641332</v>
       </c>
       <c r="P10">
-        <v>1.00717234504047</v>
+        <v>1.482693850279446</v>
       </c>
       <c r="Q10">
-        <v>1.012507545766921</v>
+        <v>1.411603938891374</v>
       </c>
       <c r="R10">
-        <v>1.012272119214949</v>
+        <v>1.694110167920775</v>
       </c>
       <c r="S10">
-        <v>1.003867997259708</v>
+        <v>1.212424857233436</v>
       </c>
       <c r="T10">
-        <v>1.012272119214949</v>
+        <v>1.694110167920775</v>
       </c>
       <c r="U10">
-        <v>1.008518914835758</v>
+        <v>1.438554343725935</v>
       </c>
       <c r="V10">
-        <v>1.011309465381387</v>
+        <v>1.574232035621435</v>
       </c>
       <c r="W10">
-        <v>1.006600150337478</v>
+        <v>1.238410570452199</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9429065295833545</v>
+        <v>0.9937359188912124</v>
       </c>
       <c r="D11">
-        <v>1.003499184700537</v>
+        <v>0.9986722427848331</v>
       </c>
       <c r="E11">
-        <v>1.090190038884231</v>
+        <v>1.111735777928615</v>
       </c>
       <c r="F11">
-        <v>1.016891943789209</v>
+        <v>1.004373524099245</v>
       </c>
       <c r="G11">
-        <v>0.9429065295833545</v>
+        <v>0.9937359188912124</v>
       </c>
       <c r="H11">
-        <v>0.9958324195119941</v>
+        <v>1.001553592127684</v>
       </c>
       <c r="I11">
-        <v>0.9824751759880799</v>
+        <v>0.9978413679369329</v>
       </c>
       <c r="J11">
-        <v>1.09019003888423</v>
+        <v>1.111735777928615</v>
       </c>
       <c r="K11">
-        <v>1.09019003888423</v>
+        <v>1.111735777928615</v>
       </c>
       <c r="L11">
-        <v>0.9637026445004377</v>
+        <v>0.9926982764659755</v>
       </c>
       <c r="M11">
-        <v>1.070764817019961</v>
+        <v>0.9989677487805992</v>
       </c>
       <c r="N11">
-        <v>1.09019003888423</v>
+        <v>1.111735777928615</v>
       </c>
       <c r="O11">
-        <v>1.016891943789209</v>
+        <v>1.004373524099245</v>
       </c>
       <c r="P11">
-        <v>0.9798992366862819</v>
+        <v>0.9990547214952288</v>
       </c>
       <c r="Q11">
-        <v>1.006362181650602</v>
+        <v>1.002963558113465</v>
       </c>
       <c r="R11">
-        <v>1.016662837418931</v>
+        <v>1.036615073639691</v>
       </c>
       <c r="S11">
-        <v>0.9852102976281859</v>
+        <v>0.9998876783727138</v>
       </c>
       <c r="T11">
-        <v>1.016662837418931</v>
+        <v>1.036615073639691</v>
       </c>
       <c r="U11">
-        <v>1.011455232942197</v>
+        <v>1.027849703261689</v>
       </c>
       <c r="V11">
-        <v>1.027202194130604</v>
+        <v>1.044626918195074</v>
       </c>
       <c r="W11">
-        <v>1.008282844247225</v>
+        <v>1.012447306126887</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.726801437537558</v>
+        <v>0.9952209333133657</v>
       </c>
       <c r="D12">
-        <v>0.8828982741061746</v>
+        <v>0.9973279733567662</v>
       </c>
       <c r="E12">
-        <v>1.145232462878803</v>
+        <v>1.049286803132731</v>
       </c>
       <c r="F12">
-        <v>0.1599185143386154</v>
+        <v>1.012583342825348</v>
       </c>
       <c r="G12">
-        <v>1.726801437537558</v>
+        <v>0.9952209333133657</v>
       </c>
       <c r="H12">
-        <v>1.085228272657029</v>
+        <v>0.9997014141370569</v>
       </c>
       <c r="I12">
-        <v>0.7751179788942166</v>
+        <v>1.002566519534045</v>
       </c>
       <c r="J12">
-        <v>1.145232462878803</v>
+        <v>1.04928680313273</v>
       </c>
       <c r="K12">
-        <v>1.145232462878803</v>
+        <v>1.04928680313273</v>
       </c>
       <c r="L12">
-        <v>1.372661093213325</v>
+        <v>0.9934618944100621</v>
       </c>
       <c r="M12">
-        <v>1.383118589064885</v>
+        <v>1.000731887660331</v>
       </c>
       <c r="N12">
-        <v>1.145232462878803</v>
+        <v>1.04928680313273</v>
       </c>
       <c r="O12">
-        <v>0.1599185143386154</v>
+        <v>1.012583342825348</v>
       </c>
       <c r="P12">
-        <v>0.9433599759380868</v>
+        <v>1.003902138069357</v>
       </c>
       <c r="Q12">
-        <v>0.6225733934978221</v>
+        <v>1.006142378481202</v>
       </c>
       <c r="R12">
-        <v>1.010650804918326</v>
+        <v>1.019030359757148</v>
       </c>
       <c r="S12">
-        <v>0.9906494081777342</v>
+        <v>1.00250189675859</v>
       </c>
       <c r="T12">
-        <v>1.010650804918326</v>
+        <v>1.019030359757148</v>
       </c>
       <c r="U12">
-        <v>1.029295171853001</v>
+        <v>1.014198123352125</v>
       </c>
       <c r="V12">
-        <v>1.052482630058162</v>
+        <v>1.021215859308246</v>
       </c>
       <c r="W12">
-        <v>1.066372077836326</v>
+        <v>1.006360096046213</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.082997514484764</v>
+        <v>0.9576060039693765</v>
       </c>
       <c r="D13">
-        <v>1.038092648420819</v>
+        <v>1.005463475064666</v>
       </c>
       <c r="E13">
-        <v>1.036021412617618</v>
+        <v>1.200771698783107</v>
       </c>
       <c r="F13">
-        <v>1.243025255202959</v>
+        <v>1.041681925008592</v>
       </c>
       <c r="G13">
-        <v>1.082997514484764</v>
+        <v>0.9576060039693765</v>
       </c>
       <c r="H13">
-        <v>1.001828586076536</v>
+        <v>1.004246781041557</v>
       </c>
       <c r="I13">
-        <v>1.049621676940299</v>
+        <v>1.032087148466556</v>
       </c>
       <c r="J13">
-        <v>1.036021412617618</v>
+        <v>1.200771698783107</v>
       </c>
       <c r="K13">
-        <v>1.036021412617618</v>
+        <v>1.200771698783107</v>
       </c>
       <c r="L13">
-        <v>0.9665614535475507</v>
+        <v>0.9846293561070802</v>
       </c>
       <c r="M13">
-        <v>0.712092959815386</v>
+        <v>1.013636796752999</v>
       </c>
       <c r="N13">
-        <v>1.036021412617618</v>
+        <v>1.200771698783107</v>
       </c>
       <c r="O13">
-        <v>1.243025255202959</v>
+        <v>1.041681925008592</v>
       </c>
       <c r="P13">
-        <v>1.163011384843861</v>
+        <v>0.9996439644889841</v>
       </c>
       <c r="Q13">
-        <v>1.122426920639747</v>
+        <v>1.022964353025074</v>
       </c>
       <c r="R13">
-        <v>1.12068139410178</v>
+        <v>1.066686542587025</v>
       </c>
       <c r="S13">
-        <v>1.109283785254753</v>
+        <v>1.001178236673175</v>
       </c>
       <c r="T13">
-        <v>1.12068139410178</v>
+        <v>1.066686542587025</v>
       </c>
       <c r="U13">
-        <v>1.090968192095469</v>
+        <v>1.051076602200658</v>
       </c>
       <c r="V13">
-        <v>1.079978836199899</v>
+        <v>1.081015621517148</v>
       </c>
       <c r="W13">
-        <v>1.016280188388242</v>
+        <v>1.030015398149241</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.03773837536633542</v>
+        <v>0.9222381269795801</v>
       </c>
       <c r="D14">
-        <v>1.570541915132424</v>
+        <v>0.9853209004915657</v>
       </c>
       <c r="E14">
-        <v>0.0003076322294923381</v>
+        <v>1.488636885797303</v>
       </c>
       <c r="F14">
-        <v>1.656625280993738</v>
+        <v>1.097746600468338</v>
       </c>
       <c r="G14">
-        <v>0.03773837536633542</v>
+        <v>0.9222381269795801</v>
       </c>
       <c r="H14">
-        <v>0.6360889011545153</v>
+        <v>1.093871272082014</v>
       </c>
       <c r="I14">
-        <v>1.473716931119822</v>
+        <v>0.9626505313055007</v>
       </c>
       <c r="J14">
-        <v>0.0003076322294923381</v>
+        <v>1.488636885797303</v>
       </c>
       <c r="K14">
-        <v>0.0003076322294923381</v>
+        <v>1.488636885797303</v>
       </c>
       <c r="L14">
-        <v>0.7796614023820978</v>
+        <v>0.8894131808587725</v>
       </c>
       <c r="M14">
-        <v>0.8783289107094991</v>
+        <v>1.090785698091974</v>
       </c>
       <c r="N14">
-        <v>0.0003076322294923381</v>
+        <v>1.488636885797303</v>
       </c>
       <c r="O14">
-        <v>1.656625280993738</v>
+        <v>1.097746600468338</v>
       </c>
       <c r="P14">
-        <v>0.8471818281800368</v>
+        <v>1.009992363723959</v>
       </c>
       <c r="Q14">
-        <v>1.146357091074127</v>
+        <v>1.095808936275176</v>
       </c>
       <c r="R14">
-        <v>0.5648904295298554</v>
+        <v>1.169540537748407</v>
       </c>
       <c r="S14">
-        <v>0.7768175191715296</v>
+        <v>1.037951999843311</v>
       </c>
       <c r="T14">
-        <v>0.5648904295298554</v>
+        <v>1.169540537748407</v>
       </c>
       <c r="U14">
-        <v>0.5826900474360204</v>
+        <v>1.150623221331809</v>
       </c>
       <c r="V14">
-        <v>0.4662135643947147</v>
+        <v>1.218225954224908</v>
       </c>
       <c r="W14">
-        <v>0.8791261686359906</v>
+        <v>1.066332899509381</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.791353615150844</v>
+        <v>0.9954529291732167</v>
       </c>
       <c r="D15">
-        <v>0.7257790382051001</v>
+        <v>0.9988120831081417</v>
       </c>
       <c r="E15">
-        <v>1.141735436796123</v>
+        <v>1.100301707342899</v>
       </c>
       <c r="F15">
-        <v>0.6608881912220492</v>
+        <v>1.008365343058778</v>
       </c>
       <c r="G15">
-        <v>1.791353615150844</v>
+        <v>0.9954529291732167</v>
       </c>
       <c r="H15">
-        <v>1.155123494897504</v>
+        <v>1.00492102591884</v>
       </c>
       <c r="I15">
-        <v>0.8690513730446268</v>
+        <v>0.9967600279007472</v>
       </c>
       <c r="J15">
-        <v>1.141735436796123</v>
+        <v>1.100301707342898</v>
       </c>
       <c r="K15">
-        <v>1.141735436796123</v>
+        <v>1.100301707342898</v>
       </c>
       <c r="L15">
-        <v>1.202095304430305</v>
+        <v>0.987618312632276</v>
       </c>
       <c r="M15">
-        <v>1.120996097187746</v>
+        <v>0.9978009999086982</v>
       </c>
       <c r="N15">
-        <v>1.141735436796123</v>
+        <v>1.100301707342898</v>
       </c>
       <c r="O15">
-        <v>0.6608881912220492</v>
+        <v>1.008365343058778</v>
       </c>
       <c r="P15">
-        <v>1.226120903186447</v>
+        <v>1.001909136115997</v>
       </c>
       <c r="Q15">
-        <v>0.9080058430597764</v>
+        <v>1.006643184488809</v>
       </c>
       <c r="R15">
-        <v>1.197992414389672</v>
+        <v>1.034706659858297</v>
       </c>
       <c r="S15">
-        <v>1.202455100423466</v>
+        <v>1.002913099383611</v>
       </c>
       <c r="T15">
-        <v>1.197992414389672</v>
+        <v>1.034706659858298</v>
       </c>
       <c r="U15">
-        <v>1.18727518451663</v>
+        <v>1.027260251373433</v>
       </c>
       <c r="V15">
-        <v>1.178167234972529</v>
+        <v>1.041868542567326</v>
       </c>
       <c r="W15">
-        <v>1.083377818866787</v>
+        <v>1.01125405363045</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8148344588568142</v>
+        <v>0.9925149798249919</v>
       </c>
       <c r="D16">
-        <v>0.9971762624377425</v>
+        <v>1.003535976736113</v>
       </c>
       <c r="E16">
-        <v>2.699003696247105</v>
+        <v>1.211549731434579</v>
       </c>
       <c r="F16">
-        <v>1.145762604890904</v>
+        <v>1.016012359026622</v>
       </c>
       <c r="G16">
-        <v>0.8148344588568142</v>
+        <v>0.9925149798249919</v>
       </c>
       <c r="H16">
-        <v>1.031667839858437</v>
+        <v>1.005397152486552</v>
       </c>
       <c r="I16">
-        <v>0.9690782064223594</v>
+        <v>0.9956352333619829</v>
       </c>
       <c r="J16">
-        <v>2.699003696247104</v>
+        <v>1.211549731434579</v>
       </c>
       <c r="K16">
-        <v>2.699003696247104</v>
+        <v>1.211549731434579</v>
       </c>
       <c r="L16">
-        <v>0.8023198596559901</v>
+        <v>0.9912829795576776</v>
       </c>
       <c r="M16">
-        <v>0.9939964133119019</v>
+        <v>0.9992945329227504</v>
       </c>
       <c r="N16">
-        <v>2.699003696247104</v>
+        <v>1.211549731434579</v>
       </c>
       <c r="O16">
-        <v>1.145762604890904</v>
+        <v>1.016012359026622</v>
       </c>
       <c r="P16">
-        <v>0.9802985318738593</v>
+        <v>1.004263669425807</v>
       </c>
       <c r="Q16">
-        <v>1.088715222374671</v>
+        <v>1.010704755756587</v>
       </c>
       <c r="R16">
-        <v>1.553200253331608</v>
+        <v>1.073359023428731</v>
       </c>
       <c r="S16">
-        <v>0.9974216345353852</v>
+        <v>1.004641497112722</v>
       </c>
       <c r="T16">
-        <v>1.553200253331608</v>
+        <v>1.073359023428731</v>
       </c>
       <c r="U16">
-        <v>1.422817149963315</v>
+        <v>1.056368555693186</v>
       </c>
       <c r="V16">
-        <v>1.678054459220073</v>
+        <v>1.087404790841465</v>
       </c>
       <c r="W16">
-        <v>1.181729917710157</v>
+        <v>1.026902868168909</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8178398984467117</v>
+        <v>0.9797656509559932</v>
       </c>
       <c r="D17">
-        <v>0.9712465566564449</v>
+        <v>1.033561358962769</v>
       </c>
       <c r="E17">
-        <v>2.121557822772397</v>
+        <v>1.537461698612397</v>
       </c>
       <c r="F17">
-        <v>1.198339149130953</v>
+        <v>1.119826039862722</v>
       </c>
       <c r="G17">
-        <v>0.8178398984467117</v>
+        <v>0.9797656509559932</v>
       </c>
       <c r="H17">
-        <v>1.004761511937315</v>
+        <v>1.031151632070594</v>
       </c>
       <c r="I17">
-        <v>1.003015238266422</v>
+        <v>1.036847743485764</v>
       </c>
       <c r="J17">
-        <v>2.121557822772397</v>
+        <v>1.537461698612397</v>
       </c>
       <c r="K17">
-        <v>2.121557822772397</v>
+        <v>1.537461698612397</v>
       </c>
       <c r="L17">
-        <v>0.821057354891326</v>
+        <v>0.9936672405215879</v>
       </c>
       <c r="M17">
-        <v>1.056920939200804</v>
+        <v>1.016660855470511</v>
       </c>
       <c r="N17">
-        <v>2.121557822772397</v>
+        <v>1.537461698612397</v>
       </c>
       <c r="O17">
-        <v>1.198339149130953</v>
+        <v>1.119826039862722</v>
       </c>
       <c r="P17">
-        <v>1.008089523788832</v>
+        <v>1.049795845409358</v>
       </c>
       <c r="Q17">
-        <v>1.101550330534134</v>
+        <v>1.075488835966658</v>
       </c>
       <c r="R17">
-        <v>1.37924562345002</v>
+        <v>1.212351129810371</v>
       </c>
       <c r="S17">
-        <v>1.006980186504993</v>
+        <v>1.04358110762977</v>
       </c>
       <c r="T17">
-        <v>1.37924562345002</v>
+        <v>1.212351129810371</v>
       </c>
       <c r="U17">
-        <v>1.285624595571844</v>
+        <v>1.167051255375426</v>
       </c>
       <c r="V17">
-        <v>1.452811241011954</v>
+        <v>1.24113334402282</v>
       </c>
       <c r="W17">
-        <v>1.124342308912797</v>
+        <v>1.093617777492792</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8214083538211311</v>
+        <v>1.019338160434871</v>
       </c>
       <c r="D18">
-        <v>0.9186326285882668</v>
+        <v>0.9625854553202233</v>
       </c>
       <c r="E18">
-        <v>0.9813620374966735</v>
+        <v>2.15242454439678</v>
       </c>
       <c r="F18">
-        <v>1.300192516254254</v>
+        <v>0.9198355901420283</v>
       </c>
       <c r="G18">
-        <v>0.8214083538211311</v>
+        <v>1.019338160434871</v>
       </c>
       <c r="H18">
-        <v>0.953013509166779</v>
+        <v>1.142834411125328</v>
       </c>
       <c r="I18">
-        <v>1.073445580330785</v>
+        <v>1.039845700446282</v>
       </c>
       <c r="J18">
-        <v>0.9813620374966735</v>
+        <v>2.15242454439678</v>
       </c>
       <c r="K18">
-        <v>0.9813620374966735</v>
+        <v>2.15242454439678</v>
       </c>
       <c r="L18">
-        <v>0.8599927515636228</v>
+        <v>0.8154831348887442</v>
       </c>
       <c r="M18">
-        <v>1.186760793802856</v>
+        <v>0.9582074052311781</v>
       </c>
       <c r="N18">
-        <v>0.9813620374966735</v>
+        <v>2.15242454439678</v>
       </c>
       <c r="O18">
-        <v>1.300192516254254</v>
+        <v>0.9198355901420283</v>
       </c>
       <c r="P18">
-        <v>1.060800435037692</v>
+        <v>0.9695868752884497</v>
       </c>
       <c r="Q18">
-        <v>1.126603012710516</v>
+        <v>1.031335000633678</v>
       </c>
       <c r="R18">
-        <v>1.034320969190686</v>
+        <v>1.36386609832456</v>
       </c>
       <c r="S18">
-        <v>1.024871459747388</v>
+        <v>1.027336053900742</v>
       </c>
       <c r="T18">
-        <v>1.034320969190686</v>
+        <v>1.36386609832456</v>
       </c>
       <c r="U18">
-        <v>1.013994104184709</v>
+        <v>1.308608176524752</v>
       </c>
       <c r="V18">
-        <v>1.007467690847102</v>
+        <v>1.477371450099157</v>
       </c>
       <c r="W18">
-        <v>1.011851021378046</v>
+        <v>1.126319300248179</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7962097623313094</v>
+        <v>0.9984087956191043</v>
       </c>
       <c r="D19">
-        <v>0.9163712029122393</v>
+        <v>0.9986922468780762</v>
       </c>
       <c r="E19">
-        <v>0.8988753022164956</v>
+        <v>1.000663163269911</v>
       </c>
       <c r="F19">
-        <v>1.475271183586421</v>
+        <v>1.005048021684187</v>
       </c>
       <c r="G19">
-        <v>0.7962097623313094</v>
+        <v>0.9984087956191043</v>
       </c>
       <c r="H19">
-        <v>0.9200273455336888</v>
+        <v>0.999546467470233</v>
       </c>
       <c r="I19">
-        <v>1.066441407400368</v>
+        <v>0.9998813037023717</v>
       </c>
       <c r="J19">
-        <v>0.8988753022164956</v>
+        <v>1.00066316326991</v>
       </c>
       <c r="K19">
-        <v>0.8988753022164956</v>
+        <v>1.00066316326991</v>
       </c>
       <c r="L19">
-        <v>0.8436556001678726</v>
+        <v>0.9988985051557923</v>
       </c>
       <c r="M19">
-        <v>1.242716917307334</v>
+        <v>1.003652714693368</v>
       </c>
       <c r="N19">
-        <v>0.8988753022164956</v>
+        <v>1.00066316326991</v>
       </c>
       <c r="O19">
-        <v>1.475271183586421</v>
+        <v>1.005048021684187</v>
       </c>
       <c r="P19">
-        <v>1.135740472958865</v>
+        <v>1.001728408651646</v>
       </c>
       <c r="Q19">
-        <v>1.197649264560055</v>
+        <v>1.00229724457721</v>
       </c>
       <c r="R19">
-        <v>1.056785416044742</v>
+        <v>1.001373326857734</v>
       </c>
       <c r="S19">
-        <v>1.063836097150473</v>
+        <v>1.001001094924508</v>
       </c>
       <c r="T19">
-        <v>1.056785416044742</v>
+        <v>1.001373326857734</v>
       </c>
       <c r="U19">
-        <v>1.022595898416979</v>
+        <v>1.000916612010859</v>
       </c>
       <c r="V19">
-        <v>0.9978517791768819</v>
+        <v>1.000865922262669</v>
       </c>
       <c r="W19">
-        <v>1.019946090181966</v>
+        <v>1.00059890230913</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.006990663975722</v>
+        <v>0.9971446790590125</v>
       </c>
       <c r="D20">
-        <v>0.9997301585596668</v>
+        <v>0.9973892746417096</v>
       </c>
       <c r="E20">
-        <v>0.9959331443068422</v>
+        <v>1.002737463569013</v>
       </c>
       <c r="F20">
-        <v>1.004167491528044</v>
+        <v>1.007243188091124</v>
       </c>
       <c r="G20">
-        <v>1.006990663975722</v>
+        <v>0.9971446790590125</v>
       </c>
       <c r="H20">
-        <v>0.994550636683195</v>
+        <v>0.9970116822125716</v>
       </c>
       <c r="I20">
-        <v>1.002261957879053</v>
+        <v>1.000588289956484</v>
       </c>
       <c r="J20">
-        <v>0.995933144306842</v>
+        <v>1.002737463569012</v>
       </c>
       <c r="K20">
-        <v>0.995933144306842</v>
+        <v>1.002737463569012</v>
       </c>
       <c r="L20">
-        <v>0.9992259449876532</v>
+        <v>0.9956547491602694</v>
       </c>
       <c r="M20">
-        <v>0.9994332643183305</v>
+        <v>1.010140576160794</v>
       </c>
       <c r="N20">
-        <v>0.995933144306842</v>
+        <v>1.002737463569012</v>
       </c>
       <c r="O20">
-        <v>1.004167491528044</v>
+        <v>1.007243188091124</v>
       </c>
       <c r="P20">
-        <v>1.005579077751883</v>
+        <v>1.002193933575068</v>
       </c>
       <c r="Q20">
-        <v>0.9993590641056194</v>
+        <v>1.002127435151848</v>
       </c>
       <c r="R20">
-        <v>1.002363766603536</v>
+        <v>1.002375110239716</v>
       </c>
       <c r="S20">
-        <v>1.001902930728987</v>
+        <v>1.000466516454236</v>
       </c>
       <c r="T20">
-        <v>1.002363766603536</v>
+        <v>1.002375110239716</v>
       </c>
       <c r="U20">
-        <v>1.000410484123451</v>
+        <v>1.00103425323293</v>
       </c>
       <c r="V20">
-        <v>0.9995150161601292</v>
+        <v>1.001374895300146</v>
       </c>
       <c r="W20">
-        <v>1.000286657779813</v>
+        <v>1.000988737856372</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9919174881516477</v>
+        <v>0.9854933607701349</v>
       </c>
       <c r="D21">
-        <v>0.9970440927965006</v>
+        <v>0.9963159973648815</v>
       </c>
       <c r="E21">
-        <v>1.007576448623924</v>
+        <v>1.021617690346793</v>
       </c>
       <c r="F21">
-        <v>1.000428770411991</v>
+        <v>1.006443525589103</v>
       </c>
       <c r="G21">
-        <v>0.9919174881516477</v>
+        <v>0.9854933607701349</v>
       </c>
       <c r="H21">
-        <v>1.008146923112346</v>
+        <v>0.9991012148116039</v>
       </c>
       <c r="I21">
-        <v>1.000809420372564</v>
+        <v>0.9954221875162347</v>
       </c>
       <c r="J21">
-        <v>1.007576448623923</v>
+        <v>1.021617690346792</v>
       </c>
       <c r="K21">
-        <v>1.007576448623923</v>
+        <v>1.021617690346792</v>
       </c>
       <c r="L21">
-        <v>0.9991003092535027</v>
+        <v>0.9899408922301073</v>
       </c>
       <c r="M21">
-        <v>1.0108505195747</v>
+        <v>1.017676143857498</v>
       </c>
       <c r="N21">
-        <v>1.007576448623923</v>
+        <v>1.021617690346792</v>
       </c>
       <c r="O21">
-        <v>1.000428770411991</v>
+        <v>1.006443525589103</v>
       </c>
       <c r="P21">
-        <v>0.9961731292818194</v>
+        <v>0.9959684431796187</v>
       </c>
       <c r="Q21">
-        <v>1.004287846762169</v>
+        <v>1.002772370200353</v>
       </c>
       <c r="R21">
-        <v>0.9999742357291872</v>
+        <v>1.004518192235343</v>
       </c>
       <c r="S21">
-        <v>1.000164393891995</v>
+        <v>0.9970127003902803</v>
       </c>
       <c r="T21">
-        <v>0.9999742357291872</v>
+        <v>1.004518192235343</v>
       </c>
       <c r="U21">
-        <v>1.002017407574977</v>
+        <v>1.003163947879408</v>
       </c>
       <c r="V21">
-        <v>1.003129215784766</v>
+        <v>1.006854696372885</v>
       </c>
       <c r="W21">
-        <v>1.001984246537147</v>
+        <v>1.001501376560794</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.02205210547788</v>
+        <v>0.9865889002452836</v>
       </c>
       <c r="D22">
-        <v>1.016759620268286</v>
+        <v>0.991871691868891</v>
       </c>
       <c r="E22">
-        <v>1.048029527760302</v>
+        <v>1.022471667563906</v>
       </c>
       <c r="F22">
-        <v>1.004373216807256</v>
+        <v>1.027755789835657</v>
       </c>
       <c r="G22">
-        <v>1.02205210547788</v>
+        <v>0.9865889002452836</v>
       </c>
       <c r="H22">
-        <v>1.007021683663601</v>
+        <v>0.9972593016981848</v>
       </c>
       <c r="I22">
-        <v>1.022976007054087</v>
+        <v>1.00226467449593</v>
       </c>
       <c r="J22">
-        <v>1.048029527760302</v>
+        <v>1.022471667563906</v>
       </c>
       <c r="K22">
-        <v>1.048029527760302</v>
+        <v>1.022471667563906</v>
       </c>
       <c r="L22">
-        <v>0.9988668571084022</v>
+        <v>0.9921530460940218</v>
       </c>
       <c r="M22">
-        <v>1.013146935354963</v>
+        <v>1.032436130897946</v>
       </c>
       <c r="N22">
-        <v>1.048029527760302</v>
+        <v>1.022471667563906</v>
       </c>
       <c r="O22">
-        <v>1.004373216807256</v>
+        <v>1.027755789835657</v>
       </c>
       <c r="P22">
-        <v>1.013212661142568</v>
+        <v>1.00717234504047</v>
       </c>
       <c r="Q22">
-        <v>1.005697450235429</v>
+        <v>1.012507545766921</v>
       </c>
       <c r="R22">
-        <v>1.024818283348479</v>
+        <v>1.012272119214949</v>
       </c>
       <c r="S22">
-        <v>1.011149001982912</v>
+        <v>1.003867997259708</v>
       </c>
       <c r="T22">
-        <v>1.024818283348479</v>
+        <v>1.012272119214949</v>
       </c>
       <c r="U22">
-        <v>1.02036913342726</v>
+        <v>1.008518914835758</v>
       </c>
       <c r="V22">
-        <v>1.025901212293868</v>
+        <v>1.011309465381387</v>
       </c>
       <c r="W22">
-        <v>1.016653244186847</v>
+        <v>1.006600150337478</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9429065295833545</v>
+      </c>
+      <c r="D23">
+        <v>1.003499184700537</v>
+      </c>
+      <c r="E23">
+        <v>1.090190038884231</v>
+      </c>
+      <c r="F23">
+        <v>1.016891943789209</v>
+      </c>
+      <c r="G23">
+        <v>0.9429065295833545</v>
+      </c>
+      <c r="H23">
+        <v>0.9958324195119941</v>
+      </c>
+      <c r="I23">
+        <v>0.9824751759880799</v>
+      </c>
+      <c r="J23">
+        <v>1.09019003888423</v>
+      </c>
+      <c r="K23">
+        <v>1.09019003888423</v>
+      </c>
+      <c r="L23">
+        <v>0.9637026445004377</v>
+      </c>
+      <c r="M23">
+        <v>1.070764817019961</v>
+      </c>
+      <c r="N23">
+        <v>1.09019003888423</v>
+      </c>
+      <c r="O23">
+        <v>1.016891943789209</v>
+      </c>
+      <c r="P23">
+        <v>0.9798992366862819</v>
+      </c>
+      <c r="Q23">
+        <v>1.006362181650602</v>
+      </c>
+      <c r="R23">
+        <v>1.016662837418931</v>
+      </c>
+      <c r="S23">
+        <v>0.9852102976281859</v>
+      </c>
+      <c r="T23">
+        <v>1.016662837418931</v>
+      </c>
+      <c r="U23">
+        <v>1.011455232942197</v>
+      </c>
+      <c r="V23">
+        <v>1.027202194130604</v>
+      </c>
+      <c r="W23">
+        <v>1.008282844247225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.726801437537558</v>
+      </c>
+      <c r="D24">
+        <v>0.8828982741061746</v>
+      </c>
+      <c r="E24">
+        <v>1.145232462878803</v>
+      </c>
+      <c r="F24">
+        <v>0.1599185143386154</v>
+      </c>
+      <c r="G24">
+        <v>1.726801437537558</v>
+      </c>
+      <c r="H24">
+        <v>1.085228272657029</v>
+      </c>
+      <c r="I24">
+        <v>0.7751179788942166</v>
+      </c>
+      <c r="J24">
+        <v>1.145232462878803</v>
+      </c>
+      <c r="K24">
+        <v>1.145232462878803</v>
+      </c>
+      <c r="L24">
+        <v>1.372661093213325</v>
+      </c>
+      <c r="M24">
+        <v>1.383118589064885</v>
+      </c>
+      <c r="N24">
+        <v>1.145232462878803</v>
+      </c>
+      <c r="O24">
+        <v>0.1599185143386154</v>
+      </c>
+      <c r="P24">
+        <v>0.9433599759380868</v>
+      </c>
+      <c r="Q24">
+        <v>0.6225733934978221</v>
+      </c>
+      <c r="R24">
+        <v>1.010650804918326</v>
+      </c>
+      <c r="S24">
+        <v>0.9906494081777342</v>
+      </c>
+      <c r="T24">
+        <v>1.010650804918326</v>
+      </c>
+      <c r="U24">
+        <v>1.029295171853001</v>
+      </c>
+      <c r="V24">
+        <v>1.052482630058162</v>
+      </c>
+      <c r="W24">
+        <v>1.066372077836326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.082997514484764</v>
+      </c>
+      <c r="D25">
+        <v>1.038092648420819</v>
+      </c>
+      <c r="E25">
+        <v>1.036021412617618</v>
+      </c>
+      <c r="F25">
+        <v>1.243025255202959</v>
+      </c>
+      <c r="G25">
+        <v>1.082997514484764</v>
+      </c>
+      <c r="H25">
+        <v>1.001828586076536</v>
+      </c>
+      <c r="I25">
+        <v>1.049621676940299</v>
+      </c>
+      <c r="J25">
+        <v>1.036021412617618</v>
+      </c>
+      <c r="K25">
+        <v>1.036021412617618</v>
+      </c>
+      <c r="L25">
+        <v>0.9665614535475507</v>
+      </c>
+      <c r="M25">
+        <v>0.712092959815386</v>
+      </c>
+      <c r="N25">
+        <v>1.036021412617618</v>
+      </c>
+      <c r="O25">
+        <v>1.243025255202959</v>
+      </c>
+      <c r="P25">
+        <v>1.163011384843861</v>
+      </c>
+      <c r="Q25">
+        <v>1.122426920639747</v>
+      </c>
+      <c r="R25">
+        <v>1.12068139410178</v>
+      </c>
+      <c r="S25">
+        <v>1.109283785254753</v>
+      </c>
+      <c r="T25">
+        <v>1.12068139410178</v>
+      </c>
+      <c r="U25">
+        <v>1.090968192095469</v>
+      </c>
+      <c r="V25">
+        <v>1.079978836199899</v>
+      </c>
+      <c r="W25">
+        <v>1.016280188388242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.03773837536633542</v>
+      </c>
+      <c r="D26">
+        <v>1.570541915132424</v>
+      </c>
+      <c r="E26">
+        <v>0.0003076322294923381</v>
+      </c>
+      <c r="F26">
+        <v>1.656625280993738</v>
+      </c>
+      <c r="G26">
+        <v>0.03773837536633542</v>
+      </c>
+      <c r="H26">
+        <v>0.6360889011545153</v>
+      </c>
+      <c r="I26">
+        <v>1.473716931119822</v>
+      </c>
+      <c r="J26">
+        <v>0.0003076322294923381</v>
+      </c>
+      <c r="K26">
+        <v>0.0003076322294923381</v>
+      </c>
+      <c r="L26">
+        <v>0.7796614023820978</v>
+      </c>
+      <c r="M26">
+        <v>0.8783289107094991</v>
+      </c>
+      <c r="N26">
+        <v>0.0003076322294923381</v>
+      </c>
+      <c r="O26">
+        <v>1.656625280993738</v>
+      </c>
+      <c r="P26">
+        <v>0.8471818281800368</v>
+      </c>
+      <c r="Q26">
+        <v>1.146357091074127</v>
+      </c>
+      <c r="R26">
+        <v>0.5648904295298554</v>
+      </c>
+      <c r="S26">
+        <v>0.7768175191715296</v>
+      </c>
+      <c r="T26">
+        <v>0.5648904295298554</v>
+      </c>
+      <c r="U26">
+        <v>0.5826900474360204</v>
+      </c>
+      <c r="V26">
+        <v>0.4662135643947147</v>
+      </c>
+      <c r="W26">
+        <v>0.8791261686359906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.791353615150844</v>
+      </c>
+      <c r="D27">
+        <v>0.7257790382051001</v>
+      </c>
+      <c r="E27">
+        <v>1.141735436796123</v>
+      </c>
+      <c r="F27">
+        <v>0.6608881912220492</v>
+      </c>
+      <c r="G27">
+        <v>1.791353615150844</v>
+      </c>
+      <c r="H27">
+        <v>1.155123494897504</v>
+      </c>
+      <c r="I27">
+        <v>0.8690513730446268</v>
+      </c>
+      <c r="J27">
+        <v>1.141735436796123</v>
+      </c>
+      <c r="K27">
+        <v>1.141735436796123</v>
+      </c>
+      <c r="L27">
+        <v>1.202095304430305</v>
+      </c>
+      <c r="M27">
+        <v>1.120996097187746</v>
+      </c>
+      <c r="N27">
+        <v>1.141735436796123</v>
+      </c>
+      <c r="O27">
+        <v>0.6608881912220492</v>
+      </c>
+      <c r="P27">
+        <v>1.226120903186447</v>
+      </c>
+      <c r="Q27">
+        <v>0.9080058430597764</v>
+      </c>
+      <c r="R27">
+        <v>1.197992414389672</v>
+      </c>
+      <c r="S27">
+        <v>1.202455100423466</v>
+      </c>
+      <c r="T27">
+        <v>1.197992414389672</v>
+      </c>
+      <c r="U27">
+        <v>1.18727518451663</v>
+      </c>
+      <c r="V27">
+        <v>1.178167234972529</v>
+      </c>
+      <c r="W27">
+        <v>1.083377818866787</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8148344588568142</v>
+      </c>
+      <c r="D28">
+        <v>0.9971762624377425</v>
+      </c>
+      <c r="E28">
+        <v>2.699003696247105</v>
+      </c>
+      <c r="F28">
+        <v>1.145762604890904</v>
+      </c>
+      <c r="G28">
+        <v>0.8148344588568142</v>
+      </c>
+      <c r="H28">
+        <v>1.031667839858437</v>
+      </c>
+      <c r="I28">
+        <v>0.9690782064223594</v>
+      </c>
+      <c r="J28">
+        <v>2.699003696247104</v>
+      </c>
+      <c r="K28">
+        <v>2.699003696247104</v>
+      </c>
+      <c r="L28">
+        <v>0.8023198596559901</v>
+      </c>
+      <c r="M28">
+        <v>0.9939964133119019</v>
+      </c>
+      <c r="N28">
+        <v>2.699003696247104</v>
+      </c>
+      <c r="O28">
+        <v>1.145762604890904</v>
+      </c>
+      <c r="P28">
+        <v>0.9802985318738593</v>
+      </c>
+      <c r="Q28">
+        <v>1.088715222374671</v>
+      </c>
+      <c r="R28">
+        <v>1.553200253331608</v>
+      </c>
+      <c r="S28">
+        <v>0.9974216345353852</v>
+      </c>
+      <c r="T28">
+        <v>1.553200253331608</v>
+      </c>
+      <c r="U28">
+        <v>1.422817149963315</v>
+      </c>
+      <c r="V28">
+        <v>1.678054459220073</v>
+      </c>
+      <c r="W28">
+        <v>1.181729917710157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8178398984467117</v>
+      </c>
+      <c r="D29">
+        <v>0.9712465566564449</v>
+      </c>
+      <c r="E29">
+        <v>2.121557822772397</v>
+      </c>
+      <c r="F29">
+        <v>1.198339149130953</v>
+      </c>
+      <c r="G29">
+        <v>0.8178398984467117</v>
+      </c>
+      <c r="H29">
+        <v>1.004761511937315</v>
+      </c>
+      <c r="I29">
+        <v>1.003015238266422</v>
+      </c>
+      <c r="J29">
+        <v>2.121557822772397</v>
+      </c>
+      <c r="K29">
+        <v>2.121557822772397</v>
+      </c>
+      <c r="L29">
+        <v>0.821057354891326</v>
+      </c>
+      <c r="M29">
+        <v>1.056920939200804</v>
+      </c>
+      <c r="N29">
+        <v>2.121557822772397</v>
+      </c>
+      <c r="O29">
+        <v>1.198339149130953</v>
+      </c>
+      <c r="P29">
+        <v>1.008089523788832</v>
+      </c>
+      <c r="Q29">
+        <v>1.101550330534134</v>
+      </c>
+      <c r="R29">
+        <v>1.37924562345002</v>
+      </c>
+      <c r="S29">
+        <v>1.006980186504993</v>
+      </c>
+      <c r="T29">
+        <v>1.37924562345002</v>
+      </c>
+      <c r="U29">
+        <v>1.285624595571844</v>
+      </c>
+      <c r="V29">
+        <v>1.452811241011954</v>
+      </c>
+      <c r="W29">
+        <v>1.124342308912797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8214083538211311</v>
+      </c>
+      <c r="D30">
+        <v>0.9186326285882668</v>
+      </c>
+      <c r="E30">
+        <v>0.9813620374966735</v>
+      </c>
+      <c r="F30">
+        <v>1.300192516254254</v>
+      </c>
+      <c r="G30">
+        <v>0.8214083538211311</v>
+      </c>
+      <c r="H30">
+        <v>0.953013509166779</v>
+      </c>
+      <c r="I30">
+        <v>1.073445580330785</v>
+      </c>
+      <c r="J30">
+        <v>0.9813620374966735</v>
+      </c>
+      <c r="K30">
+        <v>0.9813620374966735</v>
+      </c>
+      <c r="L30">
+        <v>0.8599927515636228</v>
+      </c>
+      <c r="M30">
+        <v>1.186760793802856</v>
+      </c>
+      <c r="N30">
+        <v>0.9813620374966735</v>
+      </c>
+      <c r="O30">
+        <v>1.300192516254254</v>
+      </c>
+      <c r="P30">
+        <v>1.060800435037692</v>
+      </c>
+      <c r="Q30">
+        <v>1.126603012710516</v>
+      </c>
+      <c r="R30">
+        <v>1.034320969190686</v>
+      </c>
+      <c r="S30">
+        <v>1.024871459747388</v>
+      </c>
+      <c r="T30">
+        <v>1.034320969190686</v>
+      </c>
+      <c r="U30">
+        <v>1.013994104184709</v>
+      </c>
+      <c r="V30">
+        <v>1.007467690847102</v>
+      </c>
+      <c r="W30">
+        <v>1.011851021378046</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.7962097623313094</v>
+      </c>
+      <c r="D31">
+        <v>0.9163712029122393</v>
+      </c>
+      <c r="E31">
+        <v>0.8988753022164956</v>
+      </c>
+      <c r="F31">
+        <v>1.475271183586421</v>
+      </c>
+      <c r="G31">
+        <v>0.7962097623313094</v>
+      </c>
+      <c r="H31">
+        <v>0.9200273455336888</v>
+      </c>
+      <c r="I31">
+        <v>1.066441407400368</v>
+      </c>
+      <c r="J31">
+        <v>0.8988753022164956</v>
+      </c>
+      <c r="K31">
+        <v>0.8988753022164956</v>
+      </c>
+      <c r="L31">
+        <v>0.8436556001678726</v>
+      </c>
+      <c r="M31">
+        <v>1.242716917307334</v>
+      </c>
+      <c r="N31">
+        <v>0.8988753022164956</v>
+      </c>
+      <c r="O31">
+        <v>1.475271183586421</v>
+      </c>
+      <c r="P31">
+        <v>1.135740472958865</v>
+      </c>
+      <c r="Q31">
+        <v>1.197649264560055</v>
+      </c>
+      <c r="R31">
+        <v>1.056785416044742</v>
+      </c>
+      <c r="S31">
+        <v>1.063836097150473</v>
+      </c>
+      <c r="T31">
+        <v>1.056785416044742</v>
+      </c>
+      <c r="U31">
+        <v>1.022595898416979</v>
+      </c>
+      <c r="V31">
+        <v>0.9978517791768819</v>
+      </c>
+      <c r="W31">
+        <v>1.019946090181966</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.80011934749589</v>
+      </c>
+      <c r="D32">
+        <v>1.008394614342466</v>
+      </c>
+      <c r="E32">
+        <v>3.378503396672876</v>
+      </c>
+      <c r="F32">
+        <v>1.080927674568493</v>
+      </c>
+      <c r="G32">
+        <v>0.80011934749589</v>
+      </c>
+      <c r="H32">
+        <v>1.04648157446411</v>
+      </c>
+      <c r="I32">
+        <v>0.9223271643150684</v>
+      </c>
+      <c r="J32">
+        <v>3.378503396672876</v>
+      </c>
+      <c r="K32">
+        <v>3.378503396672876</v>
+      </c>
+      <c r="L32">
+        <v>0.772216375329726</v>
+      </c>
+      <c r="M32">
+        <v>0.9983813265534247</v>
+      </c>
+      <c r="N32">
+        <v>3.378503396672876</v>
+      </c>
+      <c r="O32">
+        <v>1.080927674568493</v>
+      </c>
+      <c r="P32">
+        <v>0.9405235110321915</v>
+      </c>
+      <c r="Q32">
+        <v>1.063704624516301</v>
+      </c>
+      <c r="R32">
+        <v>1.75318347291242</v>
+      </c>
+      <c r="S32">
+        <v>0.9758428655094976</v>
+      </c>
+      <c r="T32">
+        <v>1.75318347291242</v>
+      </c>
+      <c r="U32">
+        <v>1.576507998300342</v>
+      </c>
+      <c r="V32">
+        <v>1.936907077974849</v>
+      </c>
+      <c r="W32">
+        <v>1.250918934217757</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>-0.0002670411037368422</v>
+      </c>
+      <c r="D33">
+        <v>0.9953446248894737</v>
+      </c>
+      <c r="E33">
+        <v>1.526467541726316</v>
+      </c>
+      <c r="F33">
+        <v>2.608338012789474</v>
+      </c>
+      <c r="G33">
+        <v>-0.0002670411037368422</v>
+      </c>
+      <c r="H33">
+        <v>0.9669753640178944</v>
+      </c>
+      <c r="I33">
+        <v>1.013496240789474</v>
+      </c>
+      <c r="J33">
+        <v>1.526467541726316</v>
+      </c>
+      <c r="K33">
+        <v>1.526467541726316</v>
+      </c>
+      <c r="L33">
+        <v>0.1222936307821053</v>
+      </c>
+      <c r="M33">
+        <v>1.180989614684211</v>
+      </c>
+      <c r="N33">
+        <v>1.526467541726316</v>
+      </c>
+      <c r="O33">
+        <v>2.608338012789474</v>
+      </c>
+      <c r="P33">
+        <v>1.304035485842869</v>
+      </c>
+      <c r="Q33">
+        <v>1.787656688403684</v>
+      </c>
+      <c r="R33">
+        <v>1.378179504470684</v>
+      </c>
+      <c r="S33">
+        <v>1.19168211190121</v>
+      </c>
+      <c r="T33">
+        <v>1.378179504470684</v>
+      </c>
+      <c r="U33">
+        <v>1.275378469357487</v>
+      </c>
+      <c r="V33">
+        <v>1.325596283831253</v>
+      </c>
+      <c r="W33">
+        <v>1.051704748571901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.7519406738610578</v>
+      </c>
+      <c r="D34">
+        <v>0.4303516307509684</v>
+      </c>
+      <c r="E34">
+        <v>2.121380951949368</v>
+      </c>
+      <c r="F34">
+        <v>2.302151875418421</v>
+      </c>
+      <c r="G34">
+        <v>0.7519406738610578</v>
+      </c>
+      <c r="H34">
+        <v>0.6614177138947368</v>
+      </c>
+      <c r="I34">
+        <v>1.603225127563158</v>
+      </c>
+      <c r="J34">
+        <v>2.121380951949368</v>
+      </c>
+      <c r="K34">
+        <v>2.121380951949368</v>
+      </c>
+      <c r="L34">
+        <v>0.5900334626521053</v>
+      </c>
+      <c r="M34">
+        <v>1.596649602101053</v>
+      </c>
+      <c r="N34">
+        <v>2.121380951949368</v>
+      </c>
+      <c r="O34">
+        <v>2.302151875418421</v>
+      </c>
+      <c r="P34">
+        <v>1.52704627463974</v>
+      </c>
+      <c r="Q34">
+        <v>1.481784794656579</v>
+      </c>
+      <c r="R34">
+        <v>1.725157833742949</v>
+      </c>
+      <c r="S34">
+        <v>1.238503421058072</v>
+      </c>
+      <c r="T34">
+        <v>1.725157833742949</v>
+      </c>
+      <c r="U34">
+        <v>1.459222803780896</v>
+      </c>
+      <c r="V34">
+        <v>1.591654433414591</v>
+      </c>
+      <c r="W34">
+        <v>1.257143879773859</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4084877448674685</v>
+      </c>
+      <c r="D35">
+        <v>0.4641187178664089</v>
+      </c>
+      <c r="E35">
+        <v>0.4797255152004886</v>
+      </c>
+      <c r="F35">
+        <v>3.877737134530845</v>
+      </c>
+      <c r="G35">
+        <v>0.4084877448674685</v>
+      </c>
+      <c r="H35">
+        <v>0.6083872202938756</v>
+      </c>
+      <c r="I35">
+        <v>1.047036343349024</v>
+      </c>
+      <c r="J35">
+        <v>0.4797255152004886</v>
+      </c>
+      <c r="K35">
+        <v>0.4797255152004886</v>
+      </c>
+      <c r="L35">
+        <v>0.4273140980184293</v>
+      </c>
+      <c r="M35">
+        <v>2.835249732868166</v>
+      </c>
+      <c r="N35">
+        <v>0.4797255152004886</v>
+      </c>
+      <c r="O35">
+        <v>3.877737134530845</v>
+      </c>
+      <c r="P35">
+        <v>2.143112439699157</v>
+      </c>
+      <c r="Q35">
+        <v>2.24306217741236</v>
+      </c>
+      <c r="R35">
+        <v>1.588650131532934</v>
+      </c>
+      <c r="S35">
+        <v>1.631537366564063</v>
+      </c>
+      <c r="T35">
+        <v>1.588650131532934</v>
+      </c>
+      <c r="U35">
+        <v>1.343584403723169</v>
+      </c>
+      <c r="V35">
+        <v>1.170812626018633</v>
+      </c>
+      <c r="W35">
+        <v>1.268507063374338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.006990663975722</v>
+      </c>
+      <c r="D36">
+        <v>0.9997301585596668</v>
+      </c>
+      <c r="E36">
+        <v>0.9959331443068422</v>
+      </c>
+      <c r="F36">
+        <v>1.004167491528044</v>
+      </c>
+      <c r="G36">
+        <v>1.006990663975722</v>
+      </c>
+      <c r="H36">
+        <v>0.994550636683195</v>
+      </c>
+      <c r="I36">
+        <v>1.002261957879053</v>
+      </c>
+      <c r="J36">
+        <v>0.995933144306842</v>
+      </c>
+      <c r="K36">
+        <v>0.995933144306842</v>
+      </c>
+      <c r="L36">
+        <v>0.9992259449876532</v>
+      </c>
+      <c r="M36">
+        <v>0.9994332643183305</v>
+      </c>
+      <c r="N36">
+        <v>0.995933144306842</v>
+      </c>
+      <c r="O36">
+        <v>1.004167491528044</v>
+      </c>
+      <c r="P36">
+        <v>1.005579077751883</v>
+      </c>
+      <c r="Q36">
+        <v>0.9993590641056194</v>
+      </c>
+      <c r="R36">
+        <v>1.002363766603536</v>
+      </c>
+      <c r="S36">
+        <v>1.001902930728987</v>
+      </c>
+      <c r="T36">
+        <v>1.002363766603536</v>
+      </c>
+      <c r="U36">
+        <v>1.000410484123451</v>
+      </c>
+      <c r="V36">
+        <v>0.9995150161601292</v>
+      </c>
+      <c r="W36">
+        <v>1.000286657779813</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9919174881516477</v>
+      </c>
+      <c r="D37">
+        <v>0.9970440927965006</v>
+      </c>
+      <c r="E37">
+        <v>1.007576448623924</v>
+      </c>
+      <c r="F37">
+        <v>1.000428770411991</v>
+      </c>
+      <c r="G37">
+        <v>0.9919174881516477</v>
+      </c>
+      <c r="H37">
+        <v>1.008146923112346</v>
+      </c>
+      <c r="I37">
+        <v>1.000809420372564</v>
+      </c>
+      <c r="J37">
+        <v>1.007576448623923</v>
+      </c>
+      <c r="K37">
+        <v>1.007576448623923</v>
+      </c>
+      <c r="L37">
+        <v>0.9991003092535027</v>
+      </c>
+      <c r="M37">
+        <v>1.0108505195747</v>
+      </c>
+      <c r="N37">
+        <v>1.007576448623923</v>
+      </c>
+      <c r="O37">
+        <v>1.000428770411991</v>
+      </c>
+      <c r="P37">
+        <v>0.9961731292818194</v>
+      </c>
+      <c r="Q37">
+        <v>1.004287846762169</v>
+      </c>
+      <c r="R37">
+        <v>0.9999742357291872</v>
+      </c>
+      <c r="S37">
+        <v>1.000164393891995</v>
+      </c>
+      <c r="T37">
+        <v>0.9999742357291872</v>
+      </c>
+      <c r="U37">
+        <v>1.002017407574977</v>
+      </c>
+      <c r="V37">
+        <v>1.003129215784766</v>
+      </c>
+      <c r="W37">
+        <v>1.001984246537147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.02205210547788</v>
+      </c>
+      <c r="D38">
+        <v>1.016759620268286</v>
+      </c>
+      <c r="E38">
+        <v>1.048029527760302</v>
+      </c>
+      <c r="F38">
+        <v>1.004373216807256</v>
+      </c>
+      <c r="G38">
+        <v>1.02205210547788</v>
+      </c>
+      <c r="H38">
+        <v>1.007021683663601</v>
+      </c>
+      <c r="I38">
+        <v>1.022976007054087</v>
+      </c>
+      <c r="J38">
+        <v>1.048029527760302</v>
+      </c>
+      <c r="K38">
+        <v>1.048029527760302</v>
+      </c>
+      <c r="L38">
+        <v>0.9988668571084022</v>
+      </c>
+      <c r="M38">
+        <v>1.013146935354963</v>
+      </c>
+      <c r="N38">
+        <v>1.048029527760302</v>
+      </c>
+      <c r="O38">
+        <v>1.004373216807256</v>
+      </c>
+      <c r="P38">
+        <v>1.013212661142568</v>
+      </c>
+      <c r="Q38">
+        <v>1.005697450235429</v>
+      </c>
+      <c r="R38">
+        <v>1.024818283348479</v>
+      </c>
+      <c r="S38">
+        <v>1.011149001982912</v>
+      </c>
+      <c r="T38">
+        <v>1.024818283348479</v>
+      </c>
+      <c r="U38">
+        <v>1.02036913342726</v>
+      </c>
+      <c r="V38">
+        <v>1.025901212293868</v>
+      </c>
+      <c r="W38">
+        <v>1.016653244186847</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.067578255220803</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.017660199338066</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.156635416445899</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.015375834657054</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.067578255220803</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9159029717808196</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.043084228274425</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.156635416445899</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.156635416445899</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.030990941762087</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9692390254997375</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.156635416445899</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.015375834657054</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.041477044938929</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9656394032189369</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.079863168774585</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9996190205528924</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.079863168774585</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.038873119526144</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.062425578910095</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.027058359122361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.7833982587822929</v>
+      </c>
+      <c r="D40">
+        <v>0.9015810708565423</v>
+      </c>
+      <c r="E40">
+        <v>1.39575018566405</v>
+      </c>
+      <c r="F40">
+        <v>1.234465426894643</v>
+      </c>
+      <c r="G40">
+        <v>0.7833982587822929</v>
+      </c>
+      <c r="H40">
+        <v>0.8849170385059854</v>
+      </c>
+      <c r="I40">
+        <v>1.132321693870512</v>
+      </c>
+      <c r="J40">
+        <v>1.39575018566405</v>
+      </c>
+      <c r="K40">
+        <v>1.39575018566405</v>
+      </c>
+      <c r="L40">
+        <v>0.8157886243458725</v>
+      </c>
+      <c r="M40">
+        <v>0.9952687013813194</v>
+      </c>
+      <c r="N40">
+        <v>1.39575018566405</v>
+      </c>
+      <c r="O40">
+        <v>1.234465426894643</v>
+      </c>
+      <c r="P40">
+        <v>1.008931842838468</v>
+      </c>
+      <c r="Q40">
+        <v>1.059691232700314</v>
+      </c>
+      <c r="R40">
+        <v>1.137871290446995</v>
+      </c>
+      <c r="S40">
+        <v>0.9675935747276402</v>
+      </c>
+      <c r="T40">
+        <v>1.137871290446995</v>
+      </c>
+      <c r="U40">
+        <v>1.074632727461743</v>
+      </c>
+      <c r="V40">
+        <v>1.138856219102204</v>
+      </c>
+      <c r="W40">
+        <v>1.017936375037652</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.274228939792945</v>
+      </c>
+      <c r="D41">
+        <v>0.9646030367449927</v>
+      </c>
+      <c r="E41">
+        <v>0.9424478138935468</v>
+      </c>
+      <c r="F41">
+        <v>0.9441358358122969</v>
+      </c>
+      <c r="G41">
+        <v>1.274228939792945</v>
+      </c>
+      <c r="H41">
+        <v>1.072427554935915</v>
+      </c>
+      <c r="I41">
+        <v>0.9366018051304917</v>
+      </c>
+      <c r="J41">
+        <v>0.9424478138935466</v>
+      </c>
+      <c r="K41">
+        <v>0.9424478138935466</v>
+      </c>
+      <c r="L41">
+        <v>1.133970164826474</v>
+      </c>
+      <c r="M41">
+        <v>1.009493389518209</v>
+      </c>
+      <c r="N41">
+        <v>0.9424478138935466</v>
+      </c>
+      <c r="O41">
+        <v>0.9441358358122969</v>
+      </c>
+      <c r="P41">
+        <v>1.109182387802621</v>
+      </c>
+      <c r="Q41">
+        <v>1.008281695374106</v>
+      </c>
+      <c r="R41">
+        <v>1.053604196499596</v>
+      </c>
+      <c r="S41">
+        <v>1.096930776847052</v>
+      </c>
+      <c r="T41">
+        <v>1.053604196499596</v>
+      </c>
+      <c r="U41">
+        <v>1.058310036108676</v>
+      </c>
+      <c r="V41">
+        <v>1.03513759166565</v>
+      </c>
+      <c r="W41">
+        <v>1.034738567581859</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.6895821440691006</v>
+      </c>
+      <c r="D42">
+        <v>0.9337226697041887</v>
+      </c>
+      <c r="E42">
+        <v>0.9976703498770048</v>
+      </c>
+      <c r="F42">
+        <v>1.369910421026076</v>
+      </c>
+      <c r="G42">
+        <v>0.6895821440691006</v>
+      </c>
+      <c r="H42">
+        <v>0.9587796762235953</v>
+      </c>
+      <c r="I42">
+        <v>1.142893325122725</v>
+      </c>
+      <c r="J42">
+        <v>0.9976703498770038</v>
+      </c>
+      <c r="K42">
+        <v>0.9976703498770038</v>
+      </c>
+      <c r="L42">
+        <v>0.7801107095095899</v>
+      </c>
+      <c r="M42">
+        <v>1.065416402843783</v>
+      </c>
+      <c r="N42">
+        <v>0.9976703498770038</v>
+      </c>
+      <c r="O42">
+        <v>1.369910421026076</v>
+      </c>
+      <c r="P42">
+        <v>1.029746282547588</v>
+      </c>
+      <c r="Q42">
+        <v>1.164345048624836</v>
+      </c>
+      <c r="R42">
+        <v>1.019054304990727</v>
+      </c>
+      <c r="S42">
+        <v>1.006090747106257</v>
+      </c>
+      <c r="T42">
+        <v>1.019054304990727</v>
+      </c>
+      <c r="U42">
+        <v>1.003985647798944</v>
+      </c>
+      <c r="V42">
+        <v>1.002722588214556</v>
+      </c>
+      <c r="W42">
+        <v>0.9922607122970077</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +600,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,67 +671,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.100301707342898</v>
+        <v>0.9971446790590125</v>
       </c>
       <c r="D3">
-        <v>0.9954529291732168</v>
+        <v>0.9973892746417096</v>
       </c>
       <c r="E3">
-        <v>1.008365343058778</v>
+        <v>1.002737463569013</v>
       </c>
       <c r="F3">
-        <v>1.100301707342898</v>
+        <v>1.007243188091124</v>
       </c>
       <c r="G3">
-        <v>1.00492102591884</v>
+        <v>0.9971446790590125</v>
       </c>
       <c r="H3">
-        <v>0.9967600279007472</v>
+        <v>0.9970116822125716</v>
       </c>
       <c r="I3">
-        <v>1.100301707342899</v>
+        <v>1.000588289956484</v>
       </c>
       <c r="J3">
-        <v>0.9954529291732168</v>
+        <v>1.002737463569012</v>
       </c>
       <c r="K3">
-        <v>0.9988120831081417</v>
+        <v>1.002737463569012</v>
       </c>
       <c r="L3">
-        <v>0.9978009999086982</v>
+        <v>0.9956547491602694</v>
       </c>
       <c r="M3">
-        <v>0.987618312632276</v>
+        <v>1.010140576160794</v>
       </c>
       <c r="N3">
-        <v>1.100301707342898</v>
+        <v>1.002737463569012</v>
       </c>
       <c r="O3">
-        <v>1.008365343058778</v>
+        <v>1.007243188091124</v>
       </c>
       <c r="P3">
-        <v>1.001909136115997</v>
+        <v>1.002193933575068</v>
       </c>
       <c r="Q3">
-        <v>1.006643184488809</v>
+        <v>1.002127435151848</v>
       </c>
       <c r="R3">
-        <v>1.034706659858297</v>
+        <v>1.002375110239716</v>
       </c>
       <c r="S3">
-        <v>1.002913099383611</v>
+        <v>1.000466516454236</v>
       </c>
       <c r="T3">
-        <v>1.034706659858298</v>
+        <v>1.002375110239716</v>
       </c>
       <c r="U3">
-        <v>1.027260251373433</v>
+        <v>1.00103425323293</v>
       </c>
       <c r="V3">
-        <v>1.041868542567326</v>
+        <v>1.001374895300146</v>
       </c>
       <c r="W3">
-        <v>1.01125405363045</v>
+        <v>1.000988737856372</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,67 +742,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.211549731434579</v>
+        <v>0.7833982587822929</v>
       </c>
       <c r="D4">
-        <v>0.9925149798249919</v>
+        <v>0.9015810708565423</v>
       </c>
       <c r="E4">
-        <v>1.016012359026622</v>
+        <v>1.39575018566405</v>
       </c>
       <c r="F4">
-        <v>1.211549731434579</v>
+        <v>1.234465426894643</v>
       </c>
       <c r="G4">
-        <v>1.005397152486552</v>
+        <v>0.7833982587822929</v>
       </c>
       <c r="H4">
-        <v>0.9956352333619829</v>
+        <v>0.8849170385059854</v>
       </c>
       <c r="I4">
-        <v>1.211549731434579</v>
+        <v>1.132321693870512</v>
       </c>
       <c r="J4">
-        <v>0.9925149798249919</v>
+        <v>1.39575018566405</v>
       </c>
       <c r="K4">
-        <v>1.003535976736113</v>
+        <v>1.39575018566405</v>
       </c>
       <c r="L4">
-        <v>0.9992945329227504</v>
+        <v>0.8157886243458725</v>
       </c>
       <c r="M4">
-        <v>0.9912829795576776</v>
+        <v>0.9952687013813194</v>
       </c>
       <c r="N4">
-        <v>1.211549731434579</v>
+        <v>1.39575018566405</v>
       </c>
       <c r="O4">
-        <v>1.016012359026622</v>
+        <v>1.234465426894643</v>
       </c>
       <c r="P4">
-        <v>1.004263669425807</v>
+        <v>1.008931842838468</v>
       </c>
       <c r="Q4">
-        <v>1.010704755756587</v>
+        <v>1.059691232700314</v>
       </c>
       <c r="R4">
-        <v>1.073359023428731</v>
+        <v>1.137871290446995</v>
       </c>
       <c r="S4">
-        <v>1.004641497112722</v>
+        <v>0.9675935747276402</v>
       </c>
       <c r="T4">
-        <v>1.073359023428731</v>
+        <v>1.137871290446995</v>
       </c>
       <c r="U4">
-        <v>1.056368555693186</v>
+        <v>1.074632727461743</v>
       </c>
       <c r="V4">
-        <v>1.087404790841465</v>
+        <v>1.138856219102204</v>
       </c>
       <c r="W4">
-        <v>1.026902868168909</v>
+        <v>1.017936375037652</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,67 +813,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.537461698612397</v>
+        <v>0.8035469071444115</v>
       </c>
       <c r="D5">
-        <v>0.9797656509559932</v>
+        <v>0.8939251527622533</v>
       </c>
       <c r="E5">
-        <v>1.119826039862722</v>
+        <v>1.002955910497551</v>
       </c>
       <c r="F5">
-        <v>1.537461698612397</v>
+        <v>1.437303295954964</v>
       </c>
       <c r="G5">
-        <v>1.031151632070594</v>
+        <v>0.8035469071444115</v>
       </c>
       <c r="H5">
-        <v>1.036847743485764</v>
+        <v>0.9336102737633115</v>
       </c>
       <c r="I5">
-        <v>1.537461698612397</v>
+        <v>1.074955923817131</v>
       </c>
       <c r="J5">
-        <v>0.9797656509559932</v>
+        <v>1.002955910497551</v>
       </c>
       <c r="K5">
-        <v>1.033561358962769</v>
+        <v>1.002955910497551</v>
       </c>
       <c r="L5">
-        <v>1.016660855470511</v>
+        <v>0.8333046271319161</v>
       </c>
       <c r="M5">
-        <v>0.9936672405215879</v>
+        <v>1.258216418900977</v>
       </c>
       <c r="N5">
-        <v>1.537461698612397</v>
+        <v>1.002955910497551</v>
       </c>
       <c r="O5">
-        <v>1.119826039862722</v>
+        <v>1.437303295954964</v>
       </c>
       <c r="P5">
-        <v>1.049795845409358</v>
+        <v>1.120425101549688</v>
       </c>
       <c r="Q5">
-        <v>1.075488835966658</v>
+        <v>1.185456784859138</v>
       </c>
       <c r="R5">
-        <v>1.212351129810371</v>
+        <v>1.081268704532309</v>
       </c>
       <c r="S5">
-        <v>1.04358110762977</v>
+        <v>1.058153492287562</v>
       </c>
       <c r="T5">
-        <v>1.212351129810371</v>
+        <v>1.081268704532309</v>
       </c>
       <c r="U5">
-        <v>1.167051255375426</v>
+        <v>1.04435409684006</v>
       </c>
       <c r="V5">
-        <v>1.24113334402282</v>
+        <v>1.036074459571558</v>
       </c>
       <c r="W5">
-        <v>1.093617777492792</v>
+        <v>1.029727313746565</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,67 +884,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.15242454439678</v>
+        <v>0.4084877448674685</v>
       </c>
       <c r="D6">
-        <v>1.019338160434871</v>
+        <v>0.4641187178664089</v>
       </c>
       <c r="E6">
-        <v>0.9198355901420283</v>
+        <v>0.4797255152004886</v>
       </c>
       <c r="F6">
-        <v>2.15242454439678</v>
+        <v>3.877737134530845</v>
       </c>
       <c r="G6">
-        <v>1.142834411125328</v>
+        <v>0.4084877448674685</v>
       </c>
       <c r="H6">
-        <v>1.039845700446282</v>
+        <v>0.6083872202938756</v>
       </c>
       <c r="I6">
-        <v>2.15242454439678</v>
+        <v>1.047036343349024</v>
       </c>
       <c r="J6">
-        <v>1.019338160434871</v>
+        <v>0.4797255152004886</v>
       </c>
       <c r="K6">
-        <v>0.9625854553202231</v>
+        <v>0.4797255152004886</v>
       </c>
       <c r="L6">
-        <v>0.9582074052311781</v>
+        <v>0.4273140980184293</v>
       </c>
       <c r="M6">
-        <v>0.8154831348887442</v>
+        <v>2.835249732868166</v>
       </c>
       <c r="N6">
-        <v>2.15242454439678</v>
+        <v>0.4797255152004886</v>
       </c>
       <c r="O6">
-        <v>0.9198355901420283</v>
+        <v>3.877737134530845</v>
       </c>
       <c r="P6">
-        <v>0.9695868752884497</v>
+        <v>2.143112439699157</v>
       </c>
       <c r="Q6">
-        <v>1.031335000633678</v>
+        <v>2.24306217741236</v>
       </c>
       <c r="R6">
-        <v>1.36386609832456</v>
+        <v>1.588650131532934</v>
       </c>
       <c r="S6">
-        <v>1.027336053900742</v>
+        <v>1.631537366564063</v>
       </c>
       <c r="T6">
-        <v>1.36386609832456</v>
+        <v>1.588650131532934</v>
       </c>
       <c r="U6">
-        <v>1.308608176524752</v>
+        <v>1.343584403723169</v>
       </c>
       <c r="V6">
-        <v>1.477371450099157</v>
+        <v>1.170812626018633</v>
       </c>
       <c r="W6">
-        <v>1.126319300248179</v>
+        <v>1.268507063374338</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,67 +955,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000663163269911</v>
+        <v>0.9937359188912124</v>
       </c>
       <c r="D7">
-        <v>0.9984087956191041</v>
+        <v>0.9986722427848331</v>
       </c>
       <c r="E7">
-        <v>1.005048021684187</v>
+        <v>1.111735777928615</v>
       </c>
       <c r="F7">
-        <v>1.000663163269911</v>
+        <v>1.004373524099245</v>
       </c>
       <c r="G7">
-        <v>0.9995464674702339</v>
+        <v>0.9937359188912124</v>
       </c>
       <c r="H7">
-        <v>0.999881303702372</v>
+        <v>1.001553592127684</v>
       </c>
       <c r="I7">
-        <v>1.000663163269911</v>
+        <v>0.9978413679369329</v>
       </c>
       <c r="J7">
-        <v>0.9984087956191041</v>
+        <v>1.111735777928615</v>
       </c>
       <c r="K7">
-        <v>0.9986922468780762</v>
+        <v>1.111735777928615</v>
       </c>
       <c r="L7">
-        <v>1.003652714693367</v>
+        <v>0.9926982764659755</v>
       </c>
       <c r="M7">
-        <v>0.9988985051557931</v>
+        <v>0.9989677487805992</v>
       </c>
       <c r="N7">
-        <v>1.000663163269911</v>
+        <v>1.111735777928615</v>
       </c>
       <c r="O7">
-        <v>1.005048021684187</v>
+        <v>1.004373524099245</v>
       </c>
       <c r="P7">
-        <v>1.001728408651646</v>
+        <v>0.9990547214952288</v>
       </c>
       <c r="Q7">
-        <v>1.002297244577211</v>
+        <v>1.002963558113465</v>
       </c>
       <c r="R7">
-        <v>1.001373326857734</v>
+        <v>1.036615073639691</v>
       </c>
       <c r="S7">
-        <v>1.001001094924509</v>
+        <v>0.9998876783727138</v>
       </c>
       <c r="T7">
-        <v>1.001373326857734</v>
+        <v>1.036615073639691</v>
       </c>
       <c r="U7">
-        <v>1.000916612010859</v>
+        <v>1.027849703261689</v>
       </c>
       <c r="V7">
-        <v>1.00086592226267</v>
+        <v>1.044626918195074</v>
       </c>
       <c r="W7">
-        <v>1.000598902309131</v>
+        <v>1.012447306126887</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1026,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002737463569012</v>
+        <v>0.9919174881516477</v>
       </c>
       <c r="D8">
-        <v>0.9971446790590117</v>
+        <v>0.9970440927965006</v>
       </c>
       <c r="E8">
-        <v>1.007243188091123</v>
+        <v>1.007576448623924</v>
       </c>
       <c r="F8">
-        <v>1.002737463569012</v>
+        <v>1.000428770411991</v>
       </c>
       <c r="G8">
-        <v>0.9970116822125725</v>
+        <v>0.9919174881516477</v>
       </c>
       <c r="H8">
-        <v>1.000588289956484</v>
+        <v>1.008146923112346</v>
       </c>
       <c r="I8">
-        <v>1.002737463569013</v>
+        <v>1.000809420372564</v>
       </c>
       <c r="J8">
-        <v>0.9971446790590117</v>
+        <v>1.007576448623923</v>
       </c>
       <c r="K8">
-        <v>0.9973892746417111</v>
+        <v>1.007576448623923</v>
       </c>
       <c r="L8">
-        <v>1.010140576160794</v>
+        <v>0.9991003092535027</v>
       </c>
       <c r="M8">
-        <v>0.9956547491602696</v>
+        <v>1.0108505195747</v>
       </c>
       <c r="N8">
-        <v>1.002737463569012</v>
+        <v>1.007576448623923</v>
       </c>
       <c r="O8">
-        <v>1.007243188091123</v>
+        <v>1.000428770411991</v>
       </c>
       <c r="P8">
-        <v>1.002193933575067</v>
+        <v>0.9961731292818194</v>
       </c>
       <c r="Q8">
-        <v>1.002127435151848</v>
+        <v>1.004287846762169</v>
       </c>
       <c r="R8">
-        <v>1.002375110239716</v>
+        <v>0.9999742357291872</v>
       </c>
       <c r="S8">
-        <v>1.000466516454236</v>
+        <v>1.000164393891995</v>
       </c>
       <c r="T8">
-        <v>1.002375110239716</v>
+        <v>0.9999742357291872</v>
       </c>
       <c r="U8">
-        <v>1.00103425323293</v>
+        <v>1.002017407574977</v>
       </c>
       <c r="V8">
-        <v>1.001374895300146</v>
+        <v>1.003129215784766</v>
       </c>
       <c r="W8">
-        <v>1.000988737856372</v>
+        <v>1.001984246537147</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,67 +1097,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.021617690346792</v>
+        <v>0.9925149798249919</v>
       </c>
       <c r="D9">
-        <v>0.9854933607701352</v>
+        <v>1.003535976736113</v>
       </c>
       <c r="E9">
-        <v>1.006443525589103</v>
+        <v>1.211549731434579</v>
       </c>
       <c r="F9">
-        <v>1.021617690346792</v>
+        <v>1.016012359026622</v>
       </c>
       <c r="G9">
-        <v>0.9991012148116041</v>
+        <v>0.9925149798249919</v>
       </c>
       <c r="H9">
-        <v>0.9954221875162347</v>
+        <v>1.005397152486552</v>
       </c>
       <c r="I9">
-        <v>1.021617690346793</v>
+        <v>0.9956352333619829</v>
       </c>
       <c r="J9">
-        <v>0.9854933607701352</v>
+        <v>1.211549731434579</v>
       </c>
       <c r="K9">
-        <v>0.9963159973648813</v>
+        <v>1.211549731434579</v>
       </c>
       <c r="L9">
-        <v>1.017676143857498</v>
+        <v>0.9912829795576776</v>
       </c>
       <c r="M9">
-        <v>0.9899408922301074</v>
+        <v>0.9992945329227504</v>
       </c>
       <c r="N9">
-        <v>1.021617690346792</v>
+        <v>1.211549731434579</v>
       </c>
       <c r="O9">
-        <v>1.006443525589103</v>
+        <v>1.016012359026622</v>
       </c>
       <c r="P9">
-        <v>0.995968443179619</v>
+        <v>1.004263669425807</v>
       </c>
       <c r="Q9">
-        <v>1.002772370200353</v>
+        <v>1.010704755756587</v>
       </c>
       <c r="R9">
-        <v>1.004518192235343</v>
+        <v>1.073359023428731</v>
       </c>
       <c r="S9">
-        <v>0.9970127003902807</v>
+        <v>1.004641497112722</v>
       </c>
       <c r="T9">
-        <v>1.004518192235343</v>
+        <v>1.073359023428731</v>
       </c>
       <c r="U9">
-        <v>1.003163947879409</v>
+        <v>1.056368555693186</v>
       </c>
       <c r="V9">
-        <v>1.006854696372885</v>
+        <v>1.087404790841465</v>
       </c>
       <c r="W9">
-        <v>1.001501376560794</v>
+        <v>1.026902868168909</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,67 +1168,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.022471667563905</v>
+        <v>0.3916108023588791</v>
       </c>
       <c r="D10">
-        <v>0.9865889002452836</v>
+        <v>0.4624244182553622</v>
       </c>
       <c r="E10">
-        <v>1.027755789835657</v>
+        <v>0.4531614300253244</v>
       </c>
       <c r="F10">
-        <v>1.022471667563905</v>
+        <v>3.943507996050741</v>
       </c>
       <c r="G10">
-        <v>0.9972593016981848</v>
+        <v>0.3916108023588791</v>
       </c>
       <c r="H10">
-        <v>1.00226467449593</v>
+        <v>0.5927466425047507</v>
       </c>
       <c r="I10">
-        <v>1.022471667563906</v>
+        <v>1.047184648410623</v>
       </c>
       <c r="J10">
-        <v>0.9865889002452836</v>
+        <v>0.4531614300253244</v>
       </c>
       <c r="K10">
-        <v>0.991871691868891</v>
+        <v>0.4531614300253244</v>
       </c>
       <c r="L10">
-        <v>1.032436130897946</v>
+        <v>0.4222033777579563</v>
       </c>
       <c r="M10">
-        <v>0.9921530460940218</v>
+        <v>2.86885504410152</v>
       </c>
       <c r="N10">
-        <v>1.022471667563905</v>
+        <v>0.4531614300253244</v>
       </c>
       <c r="O10">
-        <v>1.027755789835657</v>
+        <v>3.943507996050741</v>
       </c>
       <c r="P10">
-        <v>1.00717234504047</v>
+        <v>2.16755939920481</v>
       </c>
       <c r="Q10">
-        <v>1.012507545766921</v>
+        <v>2.268127319277746</v>
       </c>
       <c r="R10">
-        <v>1.012272119214949</v>
+        <v>1.596093409478315</v>
       </c>
       <c r="S10">
-        <v>1.003867997259708</v>
+        <v>1.642621813638123</v>
       </c>
       <c r="T10">
-        <v>1.012272119214949</v>
+        <v>1.596093409478315</v>
       </c>
       <c r="U10">
-        <v>1.008518914835758</v>
+        <v>1.345256717734924</v>
       </c>
       <c r="V10">
-        <v>1.011309465381387</v>
+        <v>1.166837660193004</v>
       </c>
       <c r="W10">
-        <v>1.006600150337477</v>
+        <v>1.272711794933145</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,67 +1239,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.09019003888423</v>
+        <v>1.027654763951649</v>
       </c>
       <c r="D11">
-        <v>0.9429065295833545</v>
+        <v>0.8715267824267383</v>
       </c>
       <c r="E11">
-        <v>1.016891943789209</v>
+        <v>1.297753732958971</v>
       </c>
       <c r="F11">
-        <v>1.09019003888423</v>
+        <v>1.198573665953601</v>
       </c>
       <c r="G11">
-        <v>0.9958324195119941</v>
+        <v>1.027654763951649</v>
       </c>
       <c r="H11">
-        <v>0.9824751759880799</v>
+        <v>0.94714452893345</v>
       </c>
       <c r="I11">
-        <v>1.090190038884231</v>
+        <v>1.090335227961583</v>
       </c>
       <c r="J11">
-        <v>0.9429065295833545</v>
+        <v>1.29775373295897</v>
       </c>
       <c r="K11">
-        <v>1.003499184700537</v>
+        <v>1.29775373295897</v>
       </c>
       <c r="L11">
-        <v>1.070764817019961</v>
+        <v>0.9488853334382957</v>
       </c>
       <c r="M11">
-        <v>0.9637026445004375</v>
+        <v>1.005973347330492</v>
       </c>
       <c r="N11">
-        <v>1.09019003888423</v>
+        <v>1.29775373295897</v>
       </c>
       <c r="O11">
-        <v>1.016891943789209</v>
+        <v>1.198573665953601</v>
       </c>
       <c r="P11">
-        <v>0.979899236686282</v>
+        <v>1.113114214952625</v>
       </c>
       <c r="Q11">
-        <v>1.006362181650602</v>
+        <v>1.072859097443525</v>
       </c>
       <c r="R11">
-        <v>1.016662837418931</v>
+        <v>1.17466072095474</v>
       </c>
       <c r="S11">
-        <v>0.985210297628186</v>
+        <v>1.057790986279567</v>
       </c>
       <c r="T11">
-        <v>1.016662837418931</v>
+        <v>1.17466072095474</v>
       </c>
       <c r="U11">
-        <v>1.011455232942197</v>
+        <v>1.117781672949418</v>
       </c>
       <c r="V11">
-        <v>1.027202194130604</v>
+        <v>1.153776084951328</v>
       </c>
       <c r="W11">
-        <v>1.008282844247225</v>
+        <v>1.048480922869347</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,67 +1310,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.145232462878803</v>
+        <v>0.7711350004478741</v>
       </c>
       <c r="D12">
-        <v>1.726801437537558</v>
+        <v>0.8938810769864624</v>
       </c>
       <c r="E12">
-        <v>0.1599185143386155</v>
+        <v>0.8848966404267238</v>
       </c>
       <c r="F12">
-        <v>1.145232462878803</v>
+        <v>1.636251743706517</v>
       </c>
       <c r="G12">
-        <v>1.085228272657029</v>
+        <v>0.7711350004478741</v>
       </c>
       <c r="H12">
-        <v>0.7751179788942169</v>
+        <v>0.9076450845515792</v>
       </c>
       <c r="I12">
-        <v>1.145232462878803</v>
+        <v>1.053976917295979</v>
       </c>
       <c r="J12">
-        <v>1.726801437537558</v>
+        <v>0.8848966404267238</v>
       </c>
       <c r="K12">
-        <v>0.8828982741061747</v>
+        <v>0.8848966404267238</v>
       </c>
       <c r="L12">
-        <v>1.383118589064885</v>
+        <v>0.8276464970045487</v>
       </c>
       <c r="M12">
-        <v>1.372661093213325</v>
+        <v>1.340660817099115</v>
       </c>
       <c r="N12">
-        <v>1.145232462878803</v>
+        <v>0.8848966404267238</v>
       </c>
       <c r="O12">
-        <v>0.1599185143386155</v>
+        <v>1.636251743706517</v>
       </c>
       <c r="P12">
-        <v>0.9433599759380865</v>
+        <v>1.203693372077196</v>
       </c>
       <c r="Q12">
-        <v>0.622573393497822</v>
+        <v>1.271948414129048</v>
       </c>
       <c r="R12">
-        <v>1.010650804918325</v>
+        <v>1.097427794860372</v>
       </c>
       <c r="S12">
-        <v>0.9906494081777338</v>
+        <v>1.105010609568657</v>
       </c>
       <c r="T12">
-        <v>1.010650804918325</v>
+        <v>1.097427794860372</v>
       </c>
       <c r="U12">
-        <v>1.029295171853001</v>
+        <v>1.049982117283174</v>
       </c>
       <c r="V12">
-        <v>1.052482630058162</v>
+        <v>1.016965021911884</v>
       </c>
       <c r="W12">
-        <v>1.066372077836326</v>
+        <v>1.03951172218985</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,67 +1381,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.036021412617617</v>
+        <v>1.081643720477908</v>
       </c>
       <c r="D13">
-        <v>1.082997514484764</v>
+        <v>1.081478495047422</v>
       </c>
       <c r="E13">
-        <v>1.243025255202959</v>
+        <v>0.9257387622891763</v>
       </c>
       <c r="F13">
-        <v>1.036021412617617</v>
+        <v>0.9458109396185096</v>
       </c>
       <c r="G13">
-        <v>1.001828586076536</v>
+        <v>1.081643720477908</v>
       </c>
       <c r="H13">
-        <v>1.049621676940299</v>
+        <v>1.00171803837264</v>
       </c>
       <c r="I13">
-        <v>1.036021412617617</v>
+        <v>0.9255716189670614</v>
       </c>
       <c r="J13">
-        <v>1.082997514484764</v>
+        <v>0.9257387622891763</v>
       </c>
       <c r="K13">
-        <v>1.038092648420819</v>
+        <v>0.9257387622891763</v>
       </c>
       <c r="L13">
-        <v>0.712092959815386</v>
+        <v>1.107100164748763</v>
       </c>
       <c r="M13">
-        <v>0.9665614535475505</v>
+        <v>0.9769035345956014</v>
       </c>
       <c r="N13">
-        <v>1.036021412617617</v>
+        <v>0.9257387622891763</v>
       </c>
       <c r="O13">
-        <v>1.243025255202959</v>
+        <v>0.9458109396185096</v>
       </c>
       <c r="P13">
-        <v>1.163011384843861</v>
+        <v>1.013727330048209</v>
       </c>
       <c r="Q13">
-        <v>1.122426920639747</v>
+        <v>0.9737644889955748</v>
       </c>
       <c r="R13">
-        <v>1.12068139410178</v>
+        <v>0.9843978074618648</v>
       </c>
       <c r="S13">
-        <v>1.109283785254753</v>
+        <v>1.009724232823019</v>
       </c>
       <c r="T13">
-        <v>1.12068139410178</v>
+        <v>0.9843978074618648</v>
       </c>
       <c r="U13">
-        <v>1.090968192095469</v>
+        <v>0.9887278651895586</v>
       </c>
       <c r="V13">
-        <v>1.079978836199899</v>
+        <v>0.9761300446094822</v>
       </c>
       <c r="W13">
-        <v>1.016280188388241</v>
+        <v>1.005745659264635</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,67 +1452,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0003076322294923389</v>
+        <v>-0.002121017000000002</v>
       </c>
       <c r="D14">
-        <v>0.03773837536633544</v>
+        <v>0.0045273426</v>
       </c>
       <c r="E14">
-        <v>1.656625280993738</v>
+        <v>7.851874800000007E-05</v>
       </c>
       <c r="F14">
-        <v>0.0003076322294923389</v>
+        <v>6.470613800000009</v>
       </c>
       <c r="G14">
-        <v>0.6360889011545151</v>
+        <v>-0.002121017000000002</v>
       </c>
       <c r="H14">
-        <v>1.473716931119823</v>
+        <v>0.26259054</v>
       </c>
       <c r="I14">
-        <v>0.0003076322294923389</v>
+        <v>1.025542700000001</v>
       </c>
       <c r="J14">
-        <v>0.03773837536633544</v>
+        <v>7.851874800000007E-05</v>
       </c>
       <c r="K14">
-        <v>1.570541915132424</v>
+        <v>7.851874800000007E-05</v>
       </c>
       <c r="L14">
-        <v>0.8783289107094991</v>
+        <v>-0.002569772999999999</v>
       </c>
       <c r="M14">
-        <v>0.7796614023820978</v>
+        <v>4.501093000000004</v>
       </c>
       <c r="N14">
-        <v>0.0003076322294923389</v>
+        <v>7.851874800000007E-05</v>
       </c>
       <c r="O14">
-        <v>1.656625280993738</v>
+        <v>6.470613800000009</v>
       </c>
       <c r="P14">
-        <v>0.8471818281800367</v>
+        <v>3.234246391500004</v>
       </c>
       <c r="Q14">
-        <v>1.146357091074127</v>
+        <v>3.366602170000004</v>
       </c>
       <c r="R14">
-        <v>0.5648904295298552</v>
+        <v>2.156190433916003</v>
       </c>
       <c r="S14">
-        <v>0.7768175191715295</v>
+        <v>2.243694441000003</v>
       </c>
       <c r="T14">
-        <v>0.5648904295298552</v>
+        <v>2.156190433916003</v>
       </c>
       <c r="U14">
-        <v>0.5826900474360203</v>
+        <v>1.682790460437002</v>
       </c>
       <c r="V14">
-        <v>0.4662135643947146</v>
+        <v>1.346248072099202</v>
       </c>
       <c r="W14">
-        <v>0.8791261686359906</v>
+        <v>1.532469388918502</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,67 +1523,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.141735436796123</v>
+        <v>0.0029932838</v>
       </c>
       <c r="D15">
-        <v>1.791353615150844</v>
+        <v>0.0014752952</v>
       </c>
       <c r="E15">
-        <v>0.6608881912220492</v>
+        <v>10.664726</v>
       </c>
       <c r="F15">
-        <v>1.141735436796123</v>
+        <v>-0.0023402665</v>
       </c>
       <c r="G15">
-        <v>1.155123494897503</v>
+        <v>0.0029932838</v>
       </c>
       <c r="H15">
-        <v>0.8690513730446268</v>
+        <v>0.21637366</v>
       </c>
       <c r="I15">
-        <v>1.141735436796123</v>
+        <v>0.014683657</v>
       </c>
       <c r="J15">
-        <v>1.791353615150844</v>
+        <v>10.664726</v>
       </c>
       <c r="K15">
-        <v>0.7257790382051003</v>
+        <v>10.664726</v>
       </c>
       <c r="L15">
-        <v>1.120996097187746</v>
+        <v>0.0006464878100000001</v>
       </c>
       <c r="M15">
-        <v>1.202095304430305</v>
+        <v>5.6402698</v>
       </c>
       <c r="N15">
-        <v>1.141735436796123</v>
+        <v>10.664726</v>
       </c>
       <c r="O15">
-        <v>0.6608881912220492</v>
+        <v>-0.0023402665</v>
       </c>
       <c r="P15">
-        <v>1.226120903186447</v>
+        <v>0.0003265086500000001</v>
       </c>
       <c r="Q15">
-        <v>0.9080058430597763</v>
+        <v>0.10701669675</v>
       </c>
       <c r="R15">
-        <v>1.197992414389672</v>
+        <v>3.5551263391</v>
       </c>
       <c r="S15">
-        <v>1.202455100423466</v>
+        <v>0.07234222576666667</v>
       </c>
       <c r="T15">
-        <v>1.197992414389672</v>
+        <v>3.555126339100001</v>
       </c>
       <c r="U15">
-        <v>1.18727518451663</v>
+        <v>2.720438169325</v>
       </c>
       <c r="V15">
-        <v>1.178167234972529</v>
+        <v>4.30929573546</v>
       </c>
       <c r="W15">
-        <v>1.083377818866787</v>
+        <v>2.06735348966375</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9959331443068412</v>
+        <v>0.0015558615</v>
       </c>
       <c r="D16">
-        <v>1.006990663975722</v>
+        <v>0.0021401663</v>
       </c>
       <c r="E16">
-        <v>1.004167491528044</v>
+        <v>9.9444131</v>
       </c>
       <c r="F16">
-        <v>0.9959331443068412</v>
+        <v>6.530846399999999</v>
       </c>
       <c r="G16">
-        <v>0.9945506366831951</v>
+        <v>0.0015558615</v>
       </c>
       <c r="H16">
-        <v>1.002261957879053</v>
+        <v>-0.00019674346</v>
       </c>
       <c r="I16">
-        <v>0.9959331443068415</v>
+        <v>1.8359454</v>
       </c>
       <c r="J16">
-        <v>1.006990663975722</v>
+        <v>9.9444131</v>
       </c>
       <c r="K16">
-        <v>0.9997301585596676</v>
+        <v>9.9444131</v>
       </c>
       <c r="L16">
-        <v>0.9994332643183312</v>
+        <v>-0.0011767289</v>
       </c>
       <c r="M16">
-        <v>0.999225944987653</v>
+        <v>0.069599525</v>
       </c>
       <c r="N16">
-        <v>0.9959331443068412</v>
+        <v>9.9444131</v>
       </c>
       <c r="O16">
-        <v>1.004167491528044</v>
+        <v>6.530846399999999</v>
       </c>
       <c r="P16">
-        <v>1.005579077751883</v>
+        <v>3.266201130749999</v>
       </c>
       <c r="Q16">
-        <v>0.9993590641056194</v>
+        <v>3.265324828269999</v>
       </c>
       <c r="R16">
-        <v>1.002363766603536</v>
+        <v>5.492271787166666</v>
       </c>
       <c r="S16">
-        <v>1.001902930728987</v>
+        <v>2.177401839346666</v>
       </c>
       <c r="T16">
-        <v>1.002363766603536</v>
+        <v>5.492271787166666</v>
       </c>
       <c r="U16">
-        <v>1.000410484123451</v>
+        <v>4.11915465451</v>
       </c>
       <c r="V16">
-        <v>0.9995150161601287</v>
+        <v>5.284206343608</v>
       </c>
       <c r="W16">
-        <v>1.000286657779814</v>
+        <v>2.297890872555</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.007576448623922</v>
+        <v>0.00047998677</v>
       </c>
       <c r="D17">
-        <v>0.9919174881516474</v>
+        <v>1.9510487</v>
       </c>
       <c r="E17">
-        <v>1.000428770411991</v>
+        <v>0.07519672600000001</v>
       </c>
       <c r="F17">
-        <v>1.007576448623922</v>
+        <v>0.004619474</v>
       </c>
       <c r="G17">
-        <v>1.008146923112346</v>
+        <v>0.00047998677</v>
       </c>
       <c r="H17">
-        <v>1.000809420372564</v>
+        <v>0.84889067</v>
       </c>
       <c r="I17">
-        <v>1.007576448623922</v>
+        <v>0.4858122</v>
       </c>
       <c r="J17">
-        <v>0.9919174881516474</v>
+        <v>0.07519672600000001</v>
       </c>
       <c r="K17">
-        <v>0.9970440927965002</v>
+        <v>0.07519672600000001</v>
       </c>
       <c r="L17">
-        <v>1.0108505195747</v>
+        <v>0.06566205</v>
       </c>
       <c r="M17">
-        <v>0.9991003092535025</v>
+        <v>3.405394100000001</v>
       </c>
       <c r="N17">
-        <v>1.007576448623922</v>
+        <v>0.07519672600000001</v>
       </c>
       <c r="O17">
-        <v>1.000428770411991</v>
+        <v>0.004619474</v>
       </c>
       <c r="P17">
-        <v>0.9961731292818194</v>
+        <v>0.002549730385</v>
       </c>
       <c r="Q17">
-        <v>1.004287846762169</v>
+        <v>0.426755072</v>
       </c>
       <c r="R17">
-        <v>0.9999742357291869</v>
+        <v>0.02676539559</v>
       </c>
       <c r="S17">
-        <v>1.000164393891995</v>
+        <v>0.2846633769233333</v>
       </c>
       <c r="T17">
-        <v>0.9999742357291869</v>
+        <v>0.02676539559</v>
       </c>
       <c r="U17">
-        <v>1.002017407574977</v>
+        <v>0.2322967141925</v>
       </c>
       <c r="V17">
-        <v>1.003129215784766</v>
+        <v>0.200876716554</v>
       </c>
       <c r="W17">
-        <v>1.001984246537146</v>
+        <v>0.85463798834625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.048029527760301</v>
+        <v>0.80011934749589</v>
       </c>
       <c r="D18">
-        <v>1.02205210547788</v>
+        <v>1.008394614342466</v>
       </c>
       <c r="E18">
-        <v>1.004373216807255</v>
+        <v>3.378503396672876</v>
       </c>
       <c r="F18">
-        <v>1.048029527760301</v>
+        <v>1.080927674568493</v>
       </c>
       <c r="G18">
-        <v>1.007021683663601</v>
+        <v>0.80011934749589</v>
       </c>
       <c r="H18">
-        <v>1.022976007054087</v>
+        <v>1.04648157446411</v>
       </c>
       <c r="I18">
-        <v>1.048029527760301</v>
+        <v>0.9223271643150684</v>
       </c>
       <c r="J18">
-        <v>1.02205210547788</v>
+        <v>3.378503396672876</v>
       </c>
       <c r="K18">
-        <v>1.016759620268286</v>
+        <v>3.378503396672876</v>
       </c>
       <c r="L18">
-        <v>1.013146935354963</v>
+        <v>0.772216375329726</v>
       </c>
       <c r="M18">
-        <v>0.9988668571084026</v>
+        <v>0.9983813265534247</v>
       </c>
       <c r="N18">
-        <v>1.048029527760301</v>
+        <v>3.378503396672876</v>
       </c>
       <c r="O18">
-        <v>1.004373216807255</v>
+        <v>1.080927674568493</v>
       </c>
       <c r="P18">
-        <v>1.013212661142567</v>
+        <v>0.9405235110321915</v>
       </c>
       <c r="Q18">
-        <v>1.005697450235428</v>
+        <v>1.063704624516301</v>
       </c>
       <c r="R18">
-        <v>1.024818283348478</v>
+        <v>1.75318347291242</v>
       </c>
       <c r="S18">
-        <v>1.011149001982912</v>
+        <v>0.9758428655094976</v>
       </c>
       <c r="T18">
-        <v>1.024818283348478</v>
+        <v>1.75318347291242</v>
       </c>
       <c r="U18">
-        <v>1.020369133427259</v>
+        <v>1.576507998300342</v>
       </c>
       <c r="V18">
-        <v>1.025901212293868</v>
+        <v>1.936907077974849</v>
       </c>
       <c r="W18">
-        <v>1.016653244186847</v>
+        <v>1.250918934217757</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.156635416445899</v>
+        <v>-0.0002670411037368422</v>
       </c>
       <c r="D19">
-        <v>1.067578255220803</v>
+        <v>0.9953446248894737</v>
       </c>
       <c r="E19">
-        <v>1.015375834657054</v>
+        <v>1.526467541726316</v>
       </c>
       <c r="F19">
-        <v>1.156635416445899</v>
+        <v>2.608338012789474</v>
       </c>
       <c r="G19">
-        <v>0.9159029717808196</v>
+        <v>-0.0002670411037368422</v>
       </c>
       <c r="H19">
-        <v>1.043084228274425</v>
+        <v>0.9669753640178944</v>
       </c>
       <c r="I19">
-        <v>1.156635416445899</v>
+        <v>1.013496240789474</v>
       </c>
       <c r="J19">
-        <v>1.067578255220803</v>
+        <v>1.526467541726316</v>
       </c>
       <c r="K19">
-        <v>1.017660199338066</v>
+        <v>1.526467541726316</v>
       </c>
       <c r="L19">
-        <v>0.9692390254997375</v>
+        <v>0.1222936307821053</v>
       </c>
       <c r="M19">
-        <v>1.030990941762087</v>
+        <v>1.180989614684211</v>
       </c>
       <c r="N19">
-        <v>1.156635416445899</v>
+        <v>1.526467541726316</v>
       </c>
       <c r="O19">
-        <v>1.015375834657054</v>
+        <v>2.608338012789474</v>
       </c>
       <c r="P19">
-        <v>1.041477044938929</v>
+        <v>1.304035485842869</v>
       </c>
       <c r="Q19">
-        <v>0.9656394032189369</v>
+        <v>1.787656688403684</v>
       </c>
       <c r="R19">
-        <v>1.079863168774585</v>
+        <v>1.378179504470684</v>
       </c>
       <c r="S19">
-        <v>0.9996190205528924</v>
+        <v>1.19168211190121</v>
       </c>
       <c r="T19">
-        <v>1.079863168774585</v>
+        <v>1.378179504470684</v>
       </c>
       <c r="U19">
-        <v>1.038873119526144</v>
+        <v>1.275378469357487</v>
       </c>
       <c r="V19">
-        <v>1.062425578910095</v>
+        <v>1.325596283831253</v>
       </c>
       <c r="W19">
-        <v>1.027058359122361</v>
+        <v>1.051704748571901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.7519406738610578</v>
+      </c>
+      <c r="D20">
+        <v>0.4303516307509684</v>
+      </c>
+      <c r="E20">
+        <v>2.121380951949368</v>
+      </c>
+      <c r="F20">
+        <v>2.302151875418421</v>
+      </c>
+      <c r="G20">
+        <v>0.7519406738610578</v>
+      </c>
+      <c r="H20">
+        <v>0.6614177138947368</v>
+      </c>
+      <c r="I20">
+        <v>1.603225127563158</v>
+      </c>
+      <c r="J20">
+        <v>2.121380951949368</v>
+      </c>
+      <c r="K20">
+        <v>2.121380951949368</v>
+      </c>
+      <c r="L20">
+        <v>0.5900334626521053</v>
+      </c>
+      <c r="M20">
+        <v>1.596649602101053</v>
+      </c>
+      <c r="N20">
+        <v>2.121380951949368</v>
+      </c>
+      <c r="O20">
+        <v>2.302151875418421</v>
+      </c>
+      <c r="P20">
+        <v>1.52704627463974</v>
+      </c>
+      <c r="Q20">
+        <v>1.481784794656579</v>
+      </c>
+      <c r="R20">
+        <v>1.725157833742949</v>
+      </c>
+      <c r="S20">
+        <v>1.238503421058072</v>
+      </c>
+      <c r="T20">
+        <v>1.725157833742949</v>
+      </c>
+      <c r="U20">
+        <v>1.459222803780896</v>
+      </c>
+      <c r="V20">
+        <v>1.591654433414591</v>
+      </c>
+      <c r="W20">
+        <v>1.257143879773859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.03773837536633542</v>
+      </c>
+      <c r="D21">
+        <v>1.570541915132424</v>
+      </c>
+      <c r="E21">
+        <v>0.0003076322294923381</v>
+      </c>
+      <c r="F21">
+        <v>1.656625280993738</v>
+      </c>
+      <c r="G21">
+        <v>0.03773837536633542</v>
+      </c>
+      <c r="H21">
+        <v>0.6360889011545153</v>
+      </c>
+      <c r="I21">
+        <v>1.473716931119822</v>
+      </c>
+      <c r="J21">
+        <v>0.0003076322294923381</v>
+      </c>
+      <c r="K21">
+        <v>0.0003076322294923381</v>
+      </c>
+      <c r="L21">
+        <v>0.7796614023820978</v>
+      </c>
+      <c r="M21">
+        <v>0.8783289107094991</v>
+      </c>
+      <c r="N21">
+        <v>0.0003076322294923381</v>
+      </c>
+      <c r="O21">
+        <v>1.656625280993738</v>
+      </c>
+      <c r="P21">
+        <v>0.8471818281800368</v>
+      </c>
+      <c r="Q21">
+        <v>1.146357091074127</v>
+      </c>
+      <c r="R21">
+        <v>0.5648904295298554</v>
+      </c>
+      <c r="S21">
+        <v>0.7768175191715296</v>
+      </c>
+      <c r="T21">
+        <v>0.5648904295298554</v>
+      </c>
+      <c r="U21">
+        <v>0.5826900474360204</v>
+      </c>
+      <c r="V21">
+        <v>0.4662135643947147</v>
+      </c>
+      <c r="W21">
+        <v>0.8791261686359906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.791353615150844</v>
+      </c>
+      <c r="D22">
+        <v>0.7257790382051001</v>
+      </c>
+      <c r="E22">
+        <v>1.141735436796123</v>
+      </c>
+      <c r="F22">
+        <v>0.6608881912220492</v>
+      </c>
+      <c r="G22">
+        <v>1.791353615150844</v>
+      </c>
+      <c r="H22">
+        <v>1.155123494897504</v>
+      </c>
+      <c r="I22">
+        <v>0.8690513730446268</v>
+      </c>
+      <c r="J22">
+        <v>1.141735436796123</v>
+      </c>
+      <c r="K22">
+        <v>1.141735436796123</v>
+      </c>
+      <c r="L22">
+        <v>1.202095304430305</v>
+      </c>
+      <c r="M22">
+        <v>1.120996097187746</v>
+      </c>
+      <c r="N22">
+        <v>1.141735436796123</v>
+      </c>
+      <c r="O22">
+        <v>0.6608881912220492</v>
+      </c>
+      <c r="P22">
+        <v>1.226120903186447</v>
+      </c>
+      <c r="Q22">
+        <v>0.9080058430597764</v>
+      </c>
+      <c r="R22">
+        <v>1.197992414389672</v>
+      </c>
+      <c r="S22">
+        <v>1.202455100423466</v>
+      </c>
+      <c r="T22">
+        <v>1.197992414389672</v>
+      </c>
+      <c r="U22">
+        <v>1.18727518451663</v>
+      </c>
+      <c r="V22">
+        <v>1.178167234972529</v>
+      </c>
+      <c r="W22">
+        <v>1.083377818866787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.726801437537558</v>
+      </c>
+      <c r="D23">
+        <v>0.8828982741061746</v>
+      </c>
+      <c r="E23">
+        <v>1.145232462878803</v>
+      </c>
+      <c r="F23">
+        <v>0.1599185143386154</v>
+      </c>
+      <c r="G23">
+        <v>1.726801437537558</v>
+      </c>
+      <c r="H23">
+        <v>1.085228272657029</v>
+      </c>
+      <c r="I23">
+        <v>0.7751179788942166</v>
+      </c>
+      <c r="J23">
+        <v>1.145232462878803</v>
+      </c>
+      <c r="K23">
+        <v>1.145232462878803</v>
+      </c>
+      <c r="L23">
+        <v>1.372661093213325</v>
+      </c>
+      <c r="M23">
+        <v>1.383118589064885</v>
+      </c>
+      <c r="N23">
+        <v>1.145232462878803</v>
+      </c>
+      <c r="O23">
+        <v>0.1599185143386154</v>
+      </c>
+      <c r="P23">
+        <v>0.9433599759380868</v>
+      </c>
+      <c r="Q23">
+        <v>0.6225733934978221</v>
+      </c>
+      <c r="R23">
+        <v>1.010650804918326</v>
+      </c>
+      <c r="S23">
+        <v>0.9906494081777342</v>
+      </c>
+      <c r="T23">
+        <v>1.010650804918326</v>
+      </c>
+      <c r="U23">
+        <v>1.029295171853001</v>
+      </c>
+      <c r="V23">
+        <v>1.052482630058162</v>
+      </c>
+      <c r="W23">
+        <v>1.066372077836326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.082997514484764</v>
+      </c>
+      <c r="D24">
+        <v>1.038092648420819</v>
+      </c>
+      <c r="E24">
+        <v>1.036021412617618</v>
+      </c>
+      <c r="F24">
+        <v>1.243025255202959</v>
+      </c>
+      <c r="G24">
+        <v>1.082997514484764</v>
+      </c>
+      <c r="H24">
+        <v>1.001828586076536</v>
+      </c>
+      <c r="I24">
+        <v>1.049621676940299</v>
+      </c>
+      <c r="J24">
+        <v>1.036021412617618</v>
+      </c>
+      <c r="K24">
+        <v>1.036021412617618</v>
+      </c>
+      <c r="L24">
+        <v>0.9665614535475507</v>
+      </c>
+      <c r="M24">
+        <v>0.712092959815386</v>
+      </c>
+      <c r="N24">
+        <v>1.036021412617618</v>
+      </c>
+      <c r="O24">
+        <v>1.243025255202959</v>
+      </c>
+      <c r="P24">
+        <v>1.163011384843861</v>
+      </c>
+      <c r="Q24">
+        <v>1.122426920639747</v>
+      </c>
+      <c r="R24">
+        <v>1.12068139410178</v>
+      </c>
+      <c r="S24">
+        <v>1.109283785254753</v>
+      </c>
+      <c r="T24">
+        <v>1.12068139410178</v>
+      </c>
+      <c r="U24">
+        <v>1.090968192095469</v>
+      </c>
+      <c r="V24">
+        <v>1.079978836199899</v>
+      </c>
+      <c r="W24">
+        <v>1.016280188388242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.181415886518902</v>
+      </c>
+      <c r="D25">
+        <v>0.3538601308767901</v>
+      </c>
+      <c r="E25">
+        <v>1.867554428680995</v>
+      </c>
+      <c r="F25">
+        <v>0.2969189350260613</v>
+      </c>
+      <c r="G25">
+        <v>1.181415886518902</v>
+      </c>
+      <c r="H25">
+        <v>0.8132364109836681</v>
+      </c>
+      <c r="I25">
+        <v>0.8777226875536663</v>
+      </c>
+      <c r="J25">
+        <v>1.867554428680995</v>
+      </c>
+      <c r="K25">
+        <v>1.867554428680995</v>
+      </c>
+      <c r="L25">
+        <v>1.129598621014024</v>
+      </c>
+      <c r="M25">
+        <v>1.17267306424144</v>
+      </c>
+      <c r="N25">
+        <v>1.867554428680995</v>
+      </c>
+      <c r="O25">
+        <v>0.2969189350260613</v>
+      </c>
+      <c r="P25">
+        <v>0.7391674107724818</v>
+      </c>
+      <c r="Q25">
+        <v>0.5550776730048647</v>
+      </c>
+      <c r="R25">
+        <v>1.115296416741986</v>
+      </c>
+      <c r="S25">
+        <v>0.7638570775095439</v>
+      </c>
+      <c r="T25">
+        <v>1.115296416741986</v>
+      </c>
+      <c r="U25">
+        <v>1.039781415302407</v>
+      </c>
+      <c r="V25">
+        <v>1.205336017978124</v>
+      </c>
+      <c r="W25">
+        <v>0.9616225206119433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.5516271307015894</v>
+      </c>
+      <c r="D26">
+        <v>1.620672981573563</v>
+      </c>
+      <c r="E26">
+        <v>0.6477686783339331</v>
+      </c>
+      <c r="F26">
+        <v>1.1290623337565</v>
+      </c>
+      <c r="G26">
+        <v>0.5516271307015894</v>
+      </c>
+      <c r="H26">
+        <v>1.376324826221152</v>
+      </c>
+      <c r="I26">
+        <v>0.8690934055135403</v>
+      </c>
+      <c r="J26">
+        <v>0.6477686783339331</v>
+      </c>
+      <c r="K26">
+        <v>0.6477686783339331</v>
+      </c>
+      <c r="L26">
+        <v>0.8210707486783988</v>
+      </c>
+      <c r="M26">
+        <v>0.5393095625250561</v>
+      </c>
+      <c r="N26">
+        <v>0.6477686783339331</v>
+      </c>
+      <c r="O26">
+        <v>1.1290623337565</v>
+      </c>
+      <c r="P26">
+        <v>0.8403447322290448</v>
+      </c>
+      <c r="Q26">
+        <v>1.252693579988826</v>
+      </c>
+      <c r="R26">
+        <v>0.7761527142640077</v>
+      </c>
+      <c r="S26">
+        <v>1.019004763559747</v>
+      </c>
+      <c r="T26">
+        <v>0.7761527142640077</v>
+      </c>
+      <c r="U26">
+        <v>0.9261957422532936</v>
+      </c>
+      <c r="V26">
+        <v>0.8705103294694215</v>
+      </c>
+      <c r="W26">
+        <v>0.9443662084129666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.709633460173726</v>
+      </c>
+      <c r="D27">
+        <v>0.6314389973715618</v>
+      </c>
+      <c r="E27">
+        <v>0.7336737261001748</v>
+      </c>
+      <c r="F27">
+        <v>1.479818250683035</v>
+      </c>
+      <c r="G27">
+        <v>1.709633460173726</v>
+      </c>
+      <c r="H27">
+        <v>0.9504328112651368</v>
+      </c>
+      <c r="I27">
+        <v>1.07651347405149</v>
+      </c>
+      <c r="J27">
+        <v>0.7336737261001748</v>
+      </c>
+      <c r="K27">
+        <v>0.7336737261001748</v>
+      </c>
+      <c r="L27">
+        <v>0.6816126823434893</v>
+      </c>
+      <c r="M27">
+        <v>1.328716988935114</v>
+      </c>
+      <c r="N27">
+        <v>0.7336737261001748</v>
+      </c>
+      <c r="O27">
+        <v>1.479818250683035</v>
+      </c>
+      <c r="P27">
+        <v>1.59472585542838</v>
+      </c>
+      <c r="Q27">
+        <v>1.215125530974086</v>
+      </c>
+      <c r="R27">
+        <v>1.307708478985645</v>
+      </c>
+      <c r="S27">
+        <v>1.379961507373966</v>
+      </c>
+      <c r="T27">
+        <v>1.307708478985645</v>
+      </c>
+      <c r="U27">
+        <v>1.218389562055518</v>
+      </c>
+      <c r="V27">
+        <v>1.12144639486445</v>
+      </c>
+      <c r="W27">
+        <v>1.073980048865466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.171111422494656</v>
+      </c>
+      <c r="D28">
+        <v>1.255640117068292</v>
+      </c>
+      <c r="E28">
+        <v>1.337741628823156</v>
+      </c>
+      <c r="F28">
+        <v>1.03180624229009</v>
+      </c>
+      <c r="G28">
+        <v>1.171111422494656</v>
+      </c>
+      <c r="H28">
+        <v>0.7947910837157592</v>
+      </c>
+      <c r="I28">
+        <v>1.151807415378035</v>
+      </c>
+      <c r="J28">
+        <v>1.337741628823156</v>
+      </c>
+      <c r="K28">
+        <v>1.337741628823156</v>
+      </c>
+      <c r="L28">
+        <v>0.9583730600109537</v>
+      </c>
+      <c r="M28">
+        <v>1.067096805451199</v>
+      </c>
+      <c r="N28">
+        <v>1.337741628823156</v>
+      </c>
+      <c r="O28">
+        <v>1.03180624229009</v>
+      </c>
+      <c r="P28">
+        <v>1.101458832392373</v>
+      </c>
+      <c r="Q28">
+        <v>0.9132986630029246</v>
+      </c>
+      <c r="R28">
+        <v>1.180219764535967</v>
+      </c>
+      <c r="S28">
+        <v>0.9992362495001683</v>
+      </c>
+      <c r="T28">
+        <v>1.180219764535967</v>
+      </c>
+      <c r="U28">
+        <v>1.083862594330915</v>
+      </c>
+      <c r="V28">
+        <v>1.134638401229364</v>
+      </c>
+      <c r="W28">
+        <v>1.096045971904018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8600118615986335</v>
+      </c>
+      <c r="D29">
+        <v>1.714639893722389</v>
+      </c>
+      <c r="E29">
+        <v>0.2077396785070532</v>
+      </c>
+      <c r="F29">
+        <v>0.03249030391632691</v>
+      </c>
+      <c r="G29">
+        <v>0.8600118615986335</v>
+      </c>
+      <c r="H29">
+        <v>1.151033481524991</v>
+      </c>
+      <c r="I29">
+        <v>0.9266880887967153</v>
+      </c>
+      <c r="J29">
+        <v>0.2077396785070532</v>
+      </c>
+      <c r="K29">
+        <v>0.2077396785070532</v>
+      </c>
+      <c r="L29">
+        <v>0.9717137962487213</v>
+      </c>
+      <c r="M29">
+        <v>1.680427208709791</v>
+      </c>
+      <c r="N29">
+        <v>0.2077396785070532</v>
+      </c>
+      <c r="O29">
+        <v>0.03249030391632691</v>
+      </c>
+      <c r="P29">
+        <v>0.4462510827574802</v>
+      </c>
+      <c r="Q29">
+        <v>0.591761892720659</v>
+      </c>
+      <c r="R29">
+        <v>0.3667472813406712</v>
+      </c>
+      <c r="S29">
+        <v>0.6811785490133172</v>
+      </c>
+      <c r="T29">
+        <v>0.3667472813406712</v>
+      </c>
+      <c r="U29">
+        <v>0.5628188313867513</v>
+      </c>
+      <c r="V29">
+        <v>0.4918030008108117</v>
+      </c>
+      <c r="W29">
+        <v>0.9430930391280777</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7833982587822929</v>
+        <v>0.8295704574463023</v>
       </c>
       <c r="D4">
-        <v>0.9015810708565423</v>
+        <v>0.9258025544342886</v>
       </c>
       <c r="E4">
-        <v>1.39575018566405</v>
+        <v>0.9155670053322305</v>
       </c>
       <c r="F4">
-        <v>1.234465426894643</v>
+        <v>1.308445637881816</v>
       </c>
       <c r="G4">
-        <v>0.7833982587822929</v>
+        <v>0.8295704574463023</v>
       </c>
       <c r="H4">
-        <v>0.8849170385059854</v>
+        <v>0.9502252955908927</v>
       </c>
       <c r="I4">
-        <v>1.132321693870512</v>
+        <v>1.077274604739633</v>
       </c>
       <c r="J4">
-        <v>1.39575018566405</v>
+        <v>0.9155670053322302</v>
       </c>
       <c r="K4">
-        <v>1.39575018566405</v>
+        <v>0.9155670053322302</v>
       </c>
       <c r="L4">
-        <v>0.8157886243458725</v>
+        <v>0.8625748168619097</v>
       </c>
       <c r="M4">
-        <v>0.9952687013813194</v>
+        <v>1.171586552812749</v>
       </c>
       <c r="N4">
-        <v>1.39575018566405</v>
+        <v>0.9155670053322302</v>
       </c>
       <c r="O4">
-        <v>1.234465426894643</v>
+        <v>1.308445637881816</v>
       </c>
       <c r="P4">
-        <v>1.008931842838468</v>
+        <v>1.069008047664059</v>
       </c>
       <c r="Q4">
-        <v>1.059691232700314</v>
+        <v>1.129335466736354</v>
       </c>
       <c r="R4">
-        <v>1.137871290446995</v>
+        <v>1.017861033553449</v>
       </c>
       <c r="S4">
-        <v>0.9675935747276402</v>
+        <v>1.029413796973004</v>
       </c>
       <c r="T4">
-        <v>1.137871290446995</v>
+        <v>1.017861033553449</v>
       </c>
       <c r="U4">
-        <v>1.074632727461743</v>
+        <v>1.00095209906281</v>
       </c>
       <c r="V4">
-        <v>1.138856219102204</v>
+        <v>0.9838750803166942</v>
       </c>
       <c r="W4">
-        <v>1.017936375037652</v>
+        <v>1.005130865637478</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8035469071444115</v>
+        <v>0.8305328934739886</v>
       </c>
       <c r="D5">
-        <v>0.8939251527622533</v>
+        <v>0.4724627900982751</v>
       </c>
       <c r="E5">
-        <v>1.002955910497551</v>
+        <v>2.074606718724662</v>
       </c>
       <c r="F5">
-        <v>1.437303295954964</v>
+        <v>2.1091868653448</v>
       </c>
       <c r="G5">
-        <v>0.8035469071444115</v>
+        <v>0.8305328934739886</v>
       </c>
       <c r="H5">
-        <v>0.9336102737633115</v>
+        <v>0.6841172649425844</v>
       </c>
       <c r="I5">
-        <v>1.074955923817131</v>
+        <v>1.671558349885831</v>
       </c>
       <c r="J5">
-        <v>1.002955910497551</v>
+        <v>2.074606718724662</v>
       </c>
       <c r="K5">
-        <v>1.002955910497551</v>
+        <v>2.074606718724662</v>
       </c>
       <c r="L5">
-        <v>0.8333046271319161</v>
+        <v>0.651019297892378</v>
       </c>
       <c r="M5">
-        <v>1.258216418900977</v>
+        <v>1.322754281875473</v>
       </c>
       <c r="N5">
-        <v>1.002955910497551</v>
+        <v>2.074606718724662</v>
       </c>
       <c r="O5">
-        <v>1.437303295954964</v>
+        <v>2.1091868653448</v>
       </c>
       <c r="P5">
-        <v>1.120425101549688</v>
+        <v>1.469859879409394</v>
       </c>
       <c r="Q5">
-        <v>1.185456784859138</v>
+        <v>1.396652065143692</v>
       </c>
       <c r="R5">
-        <v>1.081268704532309</v>
+        <v>1.67144215918115</v>
       </c>
       <c r="S5">
-        <v>1.058153492287562</v>
+        <v>1.207945674587124</v>
       </c>
       <c r="T5">
-        <v>1.081268704532309</v>
+        <v>1.67144215918115</v>
       </c>
       <c r="U5">
-        <v>1.04435409684006</v>
+        <v>1.424610935621509</v>
       </c>
       <c r="V5">
-        <v>1.036074459571558</v>
+        <v>1.554610092242139</v>
       </c>
       <c r="W5">
-        <v>1.029727313746565</v>
+        <v>1.227029807779749</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4084877448674685</v>
+        <v>0.7833982587822929</v>
       </c>
       <c r="D6">
-        <v>0.4641187178664089</v>
+        <v>0.9015810708565423</v>
       </c>
       <c r="E6">
-        <v>0.4797255152004886</v>
+        <v>1.39575018566405</v>
       </c>
       <c r="F6">
-        <v>3.877737134530845</v>
+        <v>1.234465426894643</v>
       </c>
       <c r="G6">
-        <v>0.4084877448674685</v>
+        <v>0.7833982587822929</v>
       </c>
       <c r="H6">
-        <v>0.6083872202938756</v>
+        <v>0.8849170385059854</v>
       </c>
       <c r="I6">
-        <v>1.047036343349024</v>
+        <v>1.132321693870512</v>
       </c>
       <c r="J6">
-        <v>0.4797255152004886</v>
+        <v>1.39575018566405</v>
       </c>
       <c r="K6">
-        <v>0.4797255152004886</v>
+        <v>1.39575018566405</v>
       </c>
       <c r="L6">
-        <v>0.4273140980184293</v>
+        <v>0.8157886243458725</v>
       </c>
       <c r="M6">
-        <v>2.835249732868166</v>
+        <v>0.9952687013813194</v>
       </c>
       <c r="N6">
-        <v>0.4797255152004886</v>
+        <v>1.39575018566405</v>
       </c>
       <c r="O6">
-        <v>3.877737134530845</v>
+        <v>1.234465426894643</v>
       </c>
       <c r="P6">
-        <v>2.143112439699157</v>
+        <v>1.008931842838468</v>
       </c>
       <c r="Q6">
-        <v>2.24306217741236</v>
+        <v>1.059691232700314</v>
       </c>
       <c r="R6">
-        <v>1.588650131532934</v>
+        <v>1.137871290446995</v>
       </c>
       <c r="S6">
-        <v>1.631537366564063</v>
+        <v>0.9675935747276402</v>
       </c>
       <c r="T6">
-        <v>1.588650131532934</v>
+        <v>1.137871290446995</v>
       </c>
       <c r="U6">
-        <v>1.343584403723169</v>
+        <v>1.074632727461743</v>
       </c>
       <c r="V6">
-        <v>1.170812626018633</v>
+        <v>1.138856219102204</v>
       </c>
       <c r="W6">
-        <v>1.268507063374338</v>
+        <v>1.017936375037652</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9937359188912124</v>
+        <v>0.8035469071444115</v>
       </c>
       <c r="D7">
-        <v>0.9986722427848331</v>
+        <v>0.8939251527622533</v>
       </c>
       <c r="E7">
-        <v>1.111735777928615</v>
+        <v>1.002955910497551</v>
       </c>
       <c r="F7">
-        <v>1.004373524099245</v>
+        <v>1.437303295954964</v>
       </c>
       <c r="G7">
-        <v>0.9937359188912124</v>
+        <v>0.8035469071444115</v>
       </c>
       <c r="H7">
-        <v>1.001553592127684</v>
+        <v>0.9336102737633115</v>
       </c>
       <c r="I7">
-        <v>0.9978413679369329</v>
+        <v>1.074955923817131</v>
       </c>
       <c r="J7">
-        <v>1.111735777928615</v>
+        <v>1.002955910497551</v>
       </c>
       <c r="K7">
-        <v>1.111735777928615</v>
+        <v>1.002955910497551</v>
       </c>
       <c r="L7">
-        <v>0.9926982764659755</v>
+        <v>0.8333046271319161</v>
       </c>
       <c r="M7">
-        <v>0.9989677487805992</v>
+        <v>1.258216418900977</v>
       </c>
       <c r="N7">
-        <v>1.111735777928615</v>
+        <v>1.002955910497551</v>
       </c>
       <c r="O7">
-        <v>1.004373524099245</v>
+        <v>1.437303295954964</v>
       </c>
       <c r="P7">
-        <v>0.9990547214952288</v>
+        <v>1.120425101549688</v>
       </c>
       <c r="Q7">
-        <v>1.002963558113465</v>
+        <v>1.185456784859138</v>
       </c>
       <c r="R7">
-        <v>1.036615073639691</v>
+        <v>1.081268704532309</v>
       </c>
       <c r="S7">
-        <v>0.9998876783727138</v>
+        <v>1.058153492287562</v>
       </c>
       <c r="T7">
-        <v>1.036615073639691</v>
+        <v>1.081268704532309</v>
       </c>
       <c r="U7">
-        <v>1.027849703261689</v>
+        <v>1.04435409684006</v>
       </c>
       <c r="V7">
-        <v>1.044626918195074</v>
+        <v>1.036074459571558</v>
       </c>
       <c r="W7">
-        <v>1.012447306126887</v>
+        <v>1.029727313746565</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9919174881516477</v>
+        <v>0.4084877448674685</v>
       </c>
       <c r="D8">
-        <v>0.9970440927965006</v>
+        <v>0.4641187178664089</v>
       </c>
       <c r="E8">
-        <v>1.007576448623924</v>
+        <v>0.4797255152004886</v>
       </c>
       <c r="F8">
-        <v>1.000428770411991</v>
+        <v>3.877737134530845</v>
       </c>
       <c r="G8">
-        <v>0.9919174881516477</v>
+        <v>0.4084877448674685</v>
       </c>
       <c r="H8">
-        <v>1.008146923112346</v>
+        <v>0.6083872202938756</v>
       </c>
       <c r="I8">
-        <v>1.000809420372564</v>
+        <v>1.047036343349024</v>
       </c>
       <c r="J8">
-        <v>1.007576448623923</v>
+        <v>0.4797255152004886</v>
       </c>
       <c r="K8">
-        <v>1.007576448623923</v>
+        <v>0.4797255152004886</v>
       </c>
       <c r="L8">
-        <v>0.9991003092535027</v>
+        <v>0.4273140980184293</v>
       </c>
       <c r="M8">
-        <v>1.0108505195747</v>
+        <v>2.835249732868166</v>
       </c>
       <c r="N8">
-        <v>1.007576448623923</v>
+        <v>0.4797255152004886</v>
       </c>
       <c r="O8">
-        <v>1.000428770411991</v>
+        <v>3.877737134530845</v>
       </c>
       <c r="P8">
-        <v>0.9961731292818194</v>
+        <v>2.143112439699157</v>
       </c>
       <c r="Q8">
-        <v>1.004287846762169</v>
+        <v>2.24306217741236</v>
       </c>
       <c r="R8">
-        <v>0.9999742357291872</v>
+        <v>1.588650131532934</v>
       </c>
       <c r="S8">
-        <v>1.000164393891995</v>
+        <v>1.631537366564063</v>
       </c>
       <c r="T8">
-        <v>0.9999742357291872</v>
+        <v>1.588650131532934</v>
       </c>
       <c r="U8">
-        <v>1.002017407574977</v>
+        <v>1.343584403723169</v>
       </c>
       <c r="V8">
-        <v>1.003129215784766</v>
+        <v>1.170812626018633</v>
       </c>
       <c r="W8">
-        <v>1.001984246537147</v>
+        <v>1.268507063374338</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9925149798249919</v>
+        <v>0.9937359188912124</v>
       </c>
       <c r="D9">
-        <v>1.003535976736113</v>
+        <v>0.9986722427848331</v>
       </c>
       <c r="E9">
-        <v>1.211549731434579</v>
+        <v>1.111735777928615</v>
       </c>
       <c r="F9">
-        <v>1.016012359026622</v>
+        <v>1.004373524099245</v>
       </c>
       <c r="G9">
-        <v>0.9925149798249919</v>
+        <v>0.9937359188912124</v>
       </c>
       <c r="H9">
-        <v>1.005397152486552</v>
+        <v>1.001553592127684</v>
       </c>
       <c r="I9">
-        <v>0.9956352333619829</v>
+        <v>0.9978413679369329</v>
       </c>
       <c r="J9">
-        <v>1.211549731434579</v>
+        <v>1.111735777928615</v>
       </c>
       <c r="K9">
-        <v>1.211549731434579</v>
+        <v>1.111735777928615</v>
       </c>
       <c r="L9">
-        <v>0.9912829795576776</v>
+        <v>0.9926982764659755</v>
       </c>
       <c r="M9">
-        <v>0.9992945329227504</v>
+        <v>0.9989677487805992</v>
       </c>
       <c r="N9">
-        <v>1.211549731434579</v>
+        <v>1.111735777928615</v>
       </c>
       <c r="O9">
-        <v>1.016012359026622</v>
+        <v>1.004373524099245</v>
       </c>
       <c r="P9">
-        <v>1.004263669425807</v>
+        <v>0.9990547214952288</v>
       </c>
       <c r="Q9">
-        <v>1.010704755756587</v>
+        <v>1.002963558113465</v>
       </c>
       <c r="R9">
-        <v>1.073359023428731</v>
+        <v>1.036615073639691</v>
       </c>
       <c r="S9">
-        <v>1.004641497112722</v>
+        <v>0.9998876783727138</v>
       </c>
       <c r="T9">
-        <v>1.073359023428731</v>
+        <v>1.036615073639691</v>
       </c>
       <c r="U9">
-        <v>1.056368555693186</v>
+        <v>1.027849703261689</v>
       </c>
       <c r="V9">
-        <v>1.087404790841465</v>
+        <v>1.044626918195074</v>
       </c>
       <c r="W9">
-        <v>1.026902868168909</v>
+        <v>1.012447306126887</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.3916108023588791</v>
+        <v>0.9919174881516477</v>
       </c>
       <c r="D10">
-        <v>0.4624244182553622</v>
+        <v>0.9970440927965006</v>
       </c>
       <c r="E10">
-        <v>0.4531614300253244</v>
+        <v>1.007576448623924</v>
       </c>
       <c r="F10">
-        <v>3.943507996050741</v>
+        <v>1.000428770411991</v>
       </c>
       <c r="G10">
-        <v>0.3916108023588791</v>
+        <v>0.9919174881516477</v>
       </c>
       <c r="H10">
-        <v>0.5927466425047507</v>
+        <v>1.008146923112346</v>
       </c>
       <c r="I10">
-        <v>1.047184648410623</v>
+        <v>1.000809420372564</v>
       </c>
       <c r="J10">
-        <v>0.4531614300253244</v>
+        <v>1.007576448623923</v>
       </c>
       <c r="K10">
-        <v>0.4531614300253244</v>
+        <v>1.007576448623923</v>
       </c>
       <c r="L10">
-        <v>0.4222033777579563</v>
+        <v>0.9991003092535027</v>
       </c>
       <c r="M10">
-        <v>2.86885504410152</v>
+        <v>1.0108505195747</v>
       </c>
       <c r="N10">
-        <v>0.4531614300253244</v>
+        <v>1.007576448623923</v>
       </c>
       <c r="O10">
-        <v>3.943507996050741</v>
+        <v>1.000428770411991</v>
       </c>
       <c r="P10">
-        <v>2.16755939920481</v>
+        <v>0.9961731292818194</v>
       </c>
       <c r="Q10">
-        <v>2.268127319277746</v>
+        <v>1.004287846762169</v>
       </c>
       <c r="R10">
-        <v>1.596093409478315</v>
+        <v>0.9999742357291872</v>
       </c>
       <c r="S10">
-        <v>1.642621813638123</v>
+        <v>1.000164393891995</v>
       </c>
       <c r="T10">
-        <v>1.596093409478315</v>
+        <v>0.9999742357291872</v>
       </c>
       <c r="U10">
-        <v>1.345256717734924</v>
+        <v>1.002017407574977</v>
       </c>
       <c r="V10">
-        <v>1.166837660193004</v>
+        <v>1.003129215784766</v>
       </c>
       <c r="W10">
-        <v>1.272711794933145</v>
+        <v>1.001984246537147</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.027654763951649</v>
+        <v>0.9925149798249919</v>
       </c>
       <c r="D11">
-        <v>0.8715267824267383</v>
+        <v>1.003535976736113</v>
       </c>
       <c r="E11">
-        <v>1.297753732958971</v>
+        <v>1.211549731434579</v>
       </c>
       <c r="F11">
-        <v>1.198573665953601</v>
+        <v>1.016012359026622</v>
       </c>
       <c r="G11">
-        <v>1.027654763951649</v>
+        <v>0.9925149798249919</v>
       </c>
       <c r="H11">
-        <v>0.94714452893345</v>
+        <v>1.005397152486552</v>
       </c>
       <c r="I11">
-        <v>1.090335227961583</v>
+        <v>0.9956352333619829</v>
       </c>
       <c r="J11">
-        <v>1.29775373295897</v>
+        <v>1.211549731434579</v>
       </c>
       <c r="K11">
-        <v>1.29775373295897</v>
+        <v>1.211549731434579</v>
       </c>
       <c r="L11">
-        <v>0.9488853334382957</v>
+        <v>0.9912829795576776</v>
       </c>
       <c r="M11">
-        <v>1.005973347330492</v>
+        <v>0.9992945329227504</v>
       </c>
       <c r="N11">
-        <v>1.29775373295897</v>
+        <v>1.211549731434579</v>
       </c>
       <c r="O11">
-        <v>1.198573665953601</v>
+        <v>1.016012359026622</v>
       </c>
       <c r="P11">
-        <v>1.113114214952625</v>
+        <v>1.004263669425807</v>
       </c>
       <c r="Q11">
-        <v>1.072859097443525</v>
+        <v>1.010704755756587</v>
       </c>
       <c r="R11">
-        <v>1.17466072095474</v>
+        <v>1.073359023428731</v>
       </c>
       <c r="S11">
-        <v>1.057790986279567</v>
+        <v>1.004641497112722</v>
       </c>
       <c r="T11">
-        <v>1.17466072095474</v>
+        <v>1.073359023428731</v>
       </c>
       <c r="U11">
-        <v>1.117781672949418</v>
+        <v>1.056368555693186</v>
       </c>
       <c r="V11">
-        <v>1.153776084951328</v>
+        <v>1.087404790841465</v>
       </c>
       <c r="W11">
-        <v>1.048480922869347</v>
+        <v>1.026902868168909</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7711350004478741</v>
+        <v>0.3916108023588791</v>
       </c>
       <c r="D12">
-        <v>0.8938810769864624</v>
+        <v>0.4624244182553622</v>
       </c>
       <c r="E12">
-        <v>0.8848966404267238</v>
+        <v>0.4531614300253244</v>
       </c>
       <c r="F12">
-        <v>1.636251743706517</v>
+        <v>3.943507996050741</v>
       </c>
       <c r="G12">
-        <v>0.7711350004478741</v>
+        <v>0.3916108023588791</v>
       </c>
       <c r="H12">
-        <v>0.9076450845515792</v>
+        <v>0.5927466425047507</v>
       </c>
       <c r="I12">
-        <v>1.053976917295979</v>
+        <v>1.047184648410623</v>
       </c>
       <c r="J12">
-        <v>0.8848966404267238</v>
+        <v>0.4531614300253244</v>
       </c>
       <c r="K12">
-        <v>0.8848966404267238</v>
+        <v>0.4531614300253244</v>
       </c>
       <c r="L12">
-        <v>0.8276464970045487</v>
+        <v>0.4222033777579563</v>
       </c>
       <c r="M12">
-        <v>1.340660817099115</v>
+        <v>2.86885504410152</v>
       </c>
       <c r="N12">
-        <v>0.8848966404267238</v>
+        <v>0.4531614300253244</v>
       </c>
       <c r="O12">
-        <v>1.636251743706517</v>
+        <v>3.943507996050741</v>
       </c>
       <c r="P12">
-        <v>1.203693372077196</v>
+        <v>2.16755939920481</v>
       </c>
       <c r="Q12">
-        <v>1.271948414129048</v>
+        <v>2.268127319277746</v>
       </c>
       <c r="R12">
-        <v>1.097427794860372</v>
+        <v>1.596093409478315</v>
       </c>
       <c r="S12">
-        <v>1.105010609568657</v>
+        <v>1.642621813638123</v>
       </c>
       <c r="T12">
-        <v>1.097427794860372</v>
+        <v>1.596093409478315</v>
       </c>
       <c r="U12">
-        <v>1.049982117283174</v>
+        <v>1.345256717734924</v>
       </c>
       <c r="V12">
-        <v>1.016965021911884</v>
+        <v>1.166837660193004</v>
       </c>
       <c r="W12">
-        <v>1.03951172218985</v>
+        <v>1.272711794933145</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.081643720477908</v>
+        <v>1.027654763951649</v>
       </c>
       <c r="D13">
-        <v>1.081478495047422</v>
+        <v>0.8715267824267383</v>
       </c>
       <c r="E13">
-        <v>0.9257387622891763</v>
+        <v>1.297753732958971</v>
       </c>
       <c r="F13">
-        <v>0.9458109396185096</v>
+        <v>1.198573665953601</v>
       </c>
       <c r="G13">
-        <v>1.081643720477908</v>
+        <v>1.027654763951649</v>
       </c>
       <c r="H13">
-        <v>1.00171803837264</v>
+        <v>0.94714452893345</v>
       </c>
       <c r="I13">
-        <v>0.9255716189670614</v>
+        <v>1.090335227961583</v>
       </c>
       <c r="J13">
-        <v>0.9257387622891763</v>
+        <v>1.29775373295897</v>
       </c>
       <c r="K13">
-        <v>0.9257387622891763</v>
+        <v>1.29775373295897</v>
       </c>
       <c r="L13">
-        <v>1.107100164748763</v>
+        <v>0.9488853334382957</v>
       </c>
       <c r="M13">
-        <v>0.9769035345956014</v>
+        <v>1.005973347330492</v>
       </c>
       <c r="N13">
-        <v>0.9257387622891763</v>
+        <v>1.29775373295897</v>
       </c>
       <c r="O13">
-        <v>0.9458109396185096</v>
+        <v>1.198573665953601</v>
       </c>
       <c r="P13">
-        <v>1.013727330048209</v>
+        <v>1.113114214952625</v>
       </c>
       <c r="Q13">
-        <v>0.9737644889955748</v>
+        <v>1.072859097443525</v>
       </c>
       <c r="R13">
-        <v>0.9843978074618648</v>
+        <v>1.17466072095474</v>
       </c>
       <c r="S13">
-        <v>1.009724232823019</v>
+        <v>1.057790986279567</v>
       </c>
       <c r="T13">
-        <v>0.9843978074618648</v>
+        <v>1.17466072095474</v>
       </c>
       <c r="U13">
-        <v>0.9887278651895586</v>
+        <v>1.117781672949418</v>
       </c>
       <c r="V13">
-        <v>0.9761300446094822</v>
+        <v>1.153776084951328</v>
       </c>
       <c r="W13">
-        <v>1.005745659264635</v>
+        <v>1.048480922869347</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.002121017000000002</v>
+        <v>0.7711350004478741</v>
       </c>
       <c r="D14">
-        <v>0.0045273426</v>
+        <v>0.8938810769864624</v>
       </c>
       <c r="E14">
-        <v>7.851874800000007E-05</v>
+        <v>0.8848966404267238</v>
       </c>
       <c r="F14">
-        <v>6.470613800000009</v>
+        <v>1.636251743706517</v>
       </c>
       <c r="G14">
-        <v>-0.002121017000000002</v>
+        <v>0.7711350004478741</v>
       </c>
       <c r="H14">
-        <v>0.26259054</v>
+        <v>0.9076450845515792</v>
       </c>
       <c r="I14">
-        <v>1.025542700000001</v>
+        <v>1.053976917295979</v>
       </c>
       <c r="J14">
-        <v>7.851874800000007E-05</v>
+        <v>0.8848966404267238</v>
       </c>
       <c r="K14">
-        <v>7.851874800000007E-05</v>
+        <v>0.8848966404267238</v>
       </c>
       <c r="L14">
-        <v>-0.002569772999999999</v>
+        <v>0.8276464970045487</v>
       </c>
       <c r="M14">
-        <v>4.501093000000004</v>
+        <v>1.340660817099115</v>
       </c>
       <c r="N14">
-        <v>7.851874800000007E-05</v>
+        <v>0.8848966404267238</v>
       </c>
       <c r="O14">
-        <v>6.470613800000009</v>
+        <v>1.636251743706517</v>
       </c>
       <c r="P14">
-        <v>3.234246391500004</v>
+        <v>1.203693372077196</v>
       </c>
       <c r="Q14">
-        <v>3.366602170000004</v>
+        <v>1.271948414129048</v>
       </c>
       <c r="R14">
-        <v>2.156190433916003</v>
+        <v>1.097427794860372</v>
       </c>
       <c r="S14">
-        <v>2.243694441000003</v>
+        <v>1.105010609568657</v>
       </c>
       <c r="T14">
-        <v>2.156190433916003</v>
+        <v>1.097427794860372</v>
       </c>
       <c r="U14">
-        <v>1.682790460437002</v>
+        <v>1.049982117283174</v>
       </c>
       <c r="V14">
-        <v>1.346248072099202</v>
+        <v>1.016965021911884</v>
       </c>
       <c r="W14">
-        <v>1.532469388918502</v>
+        <v>1.03951172218985</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.0029932838</v>
+        <v>1.081643720477908</v>
       </c>
       <c r="D15">
-        <v>0.0014752952</v>
+        <v>1.081478495047422</v>
       </c>
       <c r="E15">
-        <v>10.664726</v>
+        <v>0.9257387622891763</v>
       </c>
       <c r="F15">
-        <v>-0.0023402665</v>
+        <v>0.9458109396185096</v>
       </c>
       <c r="G15">
-        <v>0.0029932838</v>
+        <v>1.081643720477908</v>
       </c>
       <c r="H15">
-        <v>0.21637366</v>
+        <v>1.00171803837264</v>
       </c>
       <c r="I15">
-        <v>0.014683657</v>
+        <v>0.9255716189670614</v>
       </c>
       <c r="J15">
-        <v>10.664726</v>
+        <v>0.9257387622891763</v>
       </c>
       <c r="K15">
-        <v>10.664726</v>
+        <v>0.9257387622891763</v>
       </c>
       <c r="L15">
-        <v>0.0006464878100000001</v>
+        <v>1.107100164748763</v>
       </c>
       <c r="M15">
-        <v>5.6402698</v>
+        <v>0.9769035345956014</v>
       </c>
       <c r="N15">
-        <v>10.664726</v>
+        <v>0.9257387622891763</v>
       </c>
       <c r="O15">
-        <v>-0.0023402665</v>
+        <v>0.9458109396185096</v>
       </c>
       <c r="P15">
-        <v>0.0003265086500000001</v>
+        <v>1.013727330048209</v>
       </c>
       <c r="Q15">
-        <v>0.10701669675</v>
+        <v>0.9737644889955748</v>
       </c>
       <c r="R15">
-        <v>3.5551263391</v>
+        <v>0.9843978074618648</v>
       </c>
       <c r="S15">
-        <v>0.07234222576666667</v>
+        <v>1.009724232823019</v>
       </c>
       <c r="T15">
-        <v>3.555126339100001</v>
+        <v>0.9843978074618648</v>
       </c>
       <c r="U15">
-        <v>2.720438169325</v>
+        <v>0.9887278651895586</v>
       </c>
       <c r="V15">
-        <v>4.30929573546</v>
+        <v>0.9761300446094822</v>
       </c>
       <c r="W15">
-        <v>2.06735348966375</v>
+        <v>1.005745659264635</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.0015558615</v>
+        <v>-0.002121017000000002</v>
       </c>
       <c r="D16">
-        <v>0.0021401663</v>
+        <v>0.0045273426</v>
       </c>
       <c r="E16">
-        <v>9.9444131</v>
+        <v>7.851874800000007E-05</v>
       </c>
       <c r="F16">
-        <v>6.530846399999999</v>
+        <v>6.470613800000009</v>
       </c>
       <c r="G16">
-        <v>0.0015558615</v>
+        <v>-0.002121017000000002</v>
       </c>
       <c r="H16">
-        <v>-0.00019674346</v>
+        <v>0.26259054</v>
       </c>
       <c r="I16">
-        <v>1.8359454</v>
+        <v>1.025542700000001</v>
       </c>
       <c r="J16">
-        <v>9.9444131</v>
+        <v>7.851874800000007E-05</v>
       </c>
       <c r="K16">
-        <v>9.9444131</v>
+        <v>7.851874800000007E-05</v>
       </c>
       <c r="L16">
-        <v>-0.0011767289</v>
+        <v>-0.002569772999999999</v>
       </c>
       <c r="M16">
-        <v>0.069599525</v>
+        <v>4.501093000000004</v>
       </c>
       <c r="N16">
-        <v>9.9444131</v>
+        <v>7.851874800000007E-05</v>
       </c>
       <c r="O16">
-        <v>6.530846399999999</v>
+        <v>6.470613800000009</v>
       </c>
       <c r="P16">
-        <v>3.266201130749999</v>
+        <v>3.234246391500004</v>
       </c>
       <c r="Q16">
-        <v>3.265324828269999</v>
+        <v>3.366602170000004</v>
       </c>
       <c r="R16">
-        <v>5.492271787166666</v>
+        <v>2.156190433916003</v>
       </c>
       <c r="S16">
-        <v>2.177401839346666</v>
+        <v>2.243694441000003</v>
       </c>
       <c r="T16">
-        <v>5.492271787166666</v>
+        <v>2.156190433916003</v>
       </c>
       <c r="U16">
-        <v>4.11915465451</v>
+        <v>1.682790460437002</v>
       </c>
       <c r="V16">
-        <v>5.284206343608</v>
+        <v>1.346248072099202</v>
       </c>
       <c r="W16">
-        <v>2.297890872555</v>
+        <v>1.532469388918502</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.00047998677</v>
+        <v>0.0029932838</v>
       </c>
       <c r="D17">
-        <v>1.9510487</v>
+        <v>0.0014752952</v>
       </c>
       <c r="E17">
-        <v>0.07519672600000001</v>
+        <v>10.664726</v>
       </c>
       <c r="F17">
-        <v>0.004619474</v>
+        <v>-0.0023402665</v>
       </c>
       <c r="G17">
-        <v>0.00047998677</v>
+        <v>0.0029932838</v>
       </c>
       <c r="H17">
-        <v>0.84889067</v>
+        <v>0.21637366</v>
       </c>
       <c r="I17">
-        <v>0.4858122</v>
+        <v>0.014683657</v>
       </c>
       <c r="J17">
-        <v>0.07519672600000001</v>
+        <v>10.664726</v>
       </c>
       <c r="K17">
-        <v>0.07519672600000001</v>
+        <v>10.664726</v>
       </c>
       <c r="L17">
-        <v>0.06566205</v>
+        <v>0.0006464878100000001</v>
       </c>
       <c r="M17">
-        <v>3.405394100000001</v>
+        <v>5.6402698</v>
       </c>
       <c r="N17">
-        <v>0.07519672600000001</v>
+        <v>10.664726</v>
       </c>
       <c r="O17">
-        <v>0.004619474</v>
+        <v>-0.0023402665</v>
       </c>
       <c r="P17">
-        <v>0.002549730385</v>
+        <v>0.0003265086500000001</v>
       </c>
       <c r="Q17">
-        <v>0.426755072</v>
+        <v>0.10701669675</v>
       </c>
       <c r="R17">
-        <v>0.02676539559</v>
+        <v>3.5551263391</v>
       </c>
       <c r="S17">
-        <v>0.2846633769233333</v>
+        <v>0.07234222576666667</v>
       </c>
       <c r="T17">
-        <v>0.02676539559</v>
+        <v>3.555126339100001</v>
       </c>
       <c r="U17">
-        <v>0.2322967141925</v>
+        <v>2.720438169325</v>
       </c>
       <c r="V17">
-        <v>0.200876716554</v>
+        <v>4.30929573546</v>
       </c>
       <c r="W17">
-        <v>0.85463798834625</v>
+        <v>2.06735348966375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.80011934749589</v>
+        <v>0.0015558615</v>
       </c>
       <c r="D18">
-        <v>1.008394614342466</v>
+        <v>0.0021401663</v>
       </c>
       <c r="E18">
-        <v>3.378503396672876</v>
+        <v>9.9444131</v>
       </c>
       <c r="F18">
-        <v>1.080927674568493</v>
+        <v>6.530846399999999</v>
       </c>
       <c r="G18">
-        <v>0.80011934749589</v>
+        <v>0.0015558615</v>
       </c>
       <c r="H18">
-        <v>1.04648157446411</v>
+        <v>-0.00019674346</v>
       </c>
       <c r="I18">
-        <v>0.9223271643150684</v>
+        <v>1.8359454</v>
       </c>
       <c r="J18">
-        <v>3.378503396672876</v>
+        <v>9.9444131</v>
       </c>
       <c r="K18">
-        <v>3.378503396672876</v>
+        <v>9.9444131</v>
       </c>
       <c r="L18">
-        <v>0.772216375329726</v>
+        <v>-0.0011767289</v>
       </c>
       <c r="M18">
-        <v>0.9983813265534247</v>
+        <v>0.069599525</v>
       </c>
       <c r="N18">
-        <v>3.378503396672876</v>
+        <v>9.9444131</v>
       </c>
       <c r="O18">
-        <v>1.080927674568493</v>
+        <v>6.530846399999999</v>
       </c>
       <c r="P18">
-        <v>0.9405235110321915</v>
+        <v>3.266201130749999</v>
       </c>
       <c r="Q18">
-        <v>1.063704624516301</v>
+        <v>3.265324828269999</v>
       </c>
       <c r="R18">
-        <v>1.75318347291242</v>
+        <v>5.492271787166666</v>
       </c>
       <c r="S18">
-        <v>0.9758428655094976</v>
+        <v>2.177401839346666</v>
       </c>
       <c r="T18">
-        <v>1.75318347291242</v>
+        <v>5.492271787166666</v>
       </c>
       <c r="U18">
-        <v>1.576507998300342</v>
+        <v>4.11915465451</v>
       </c>
       <c r="V18">
-        <v>1.936907077974849</v>
+        <v>5.284206343608</v>
       </c>
       <c r="W18">
-        <v>1.250918934217757</v>
+        <v>2.297890872555</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>-0.0002670411037368422</v>
+        <v>0.00047998677</v>
       </c>
       <c r="D19">
-        <v>0.9953446248894737</v>
+        <v>1.9510487</v>
       </c>
       <c r="E19">
-        <v>1.526467541726316</v>
+        <v>0.07519672600000001</v>
       </c>
       <c r="F19">
-        <v>2.608338012789474</v>
+        <v>0.004619474</v>
       </c>
       <c r="G19">
-        <v>-0.0002670411037368422</v>
+        <v>0.00047998677</v>
       </c>
       <c r="H19">
-        <v>0.9669753640178944</v>
+        <v>0.84889067</v>
       </c>
       <c r="I19">
-        <v>1.013496240789474</v>
+        <v>0.4858122</v>
       </c>
       <c r="J19">
-        <v>1.526467541726316</v>
+        <v>0.07519672600000001</v>
       </c>
       <c r="K19">
-        <v>1.526467541726316</v>
+        <v>0.07519672600000001</v>
       </c>
       <c r="L19">
-        <v>0.1222936307821053</v>
+        <v>0.06566205</v>
       </c>
       <c r="M19">
-        <v>1.180989614684211</v>
+        <v>3.405394100000001</v>
       </c>
       <c r="N19">
-        <v>1.526467541726316</v>
+        <v>0.07519672600000001</v>
       </c>
       <c r="O19">
-        <v>2.608338012789474</v>
+        <v>0.004619474</v>
       </c>
       <c r="P19">
-        <v>1.304035485842869</v>
+        <v>0.002549730385</v>
       </c>
       <c r="Q19">
-        <v>1.787656688403684</v>
+        <v>0.426755072</v>
       </c>
       <c r="R19">
-        <v>1.378179504470684</v>
+        <v>0.02676539559</v>
       </c>
       <c r="S19">
-        <v>1.19168211190121</v>
+        <v>0.2846633769233333</v>
       </c>
       <c r="T19">
-        <v>1.378179504470684</v>
+        <v>0.02676539559</v>
       </c>
       <c r="U19">
-        <v>1.275378469357487</v>
+        <v>0.2322967141925</v>
       </c>
       <c r="V19">
-        <v>1.325596283831253</v>
+        <v>0.200876716554</v>
       </c>
       <c r="W19">
-        <v>1.051704748571901</v>
+        <v>0.85463798834625</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7519406738610578</v>
+        <v>0.80011934749589</v>
       </c>
       <c r="D20">
-        <v>0.4303516307509684</v>
+        <v>1.008394614342466</v>
       </c>
       <c r="E20">
-        <v>2.121380951949368</v>
+        <v>3.378503396672876</v>
       </c>
       <c r="F20">
-        <v>2.302151875418421</v>
+        <v>1.080927674568493</v>
       </c>
       <c r="G20">
-        <v>0.7519406738610578</v>
+        <v>0.80011934749589</v>
       </c>
       <c r="H20">
-        <v>0.6614177138947368</v>
+        <v>1.04648157446411</v>
       </c>
       <c r="I20">
-        <v>1.603225127563158</v>
+        <v>0.9223271643150684</v>
       </c>
       <c r="J20">
-        <v>2.121380951949368</v>
+        <v>3.378503396672876</v>
       </c>
       <c r="K20">
-        <v>2.121380951949368</v>
+        <v>3.378503396672876</v>
       </c>
       <c r="L20">
-        <v>0.5900334626521053</v>
+        <v>0.772216375329726</v>
       </c>
       <c r="M20">
-        <v>1.596649602101053</v>
+        <v>0.9983813265534247</v>
       </c>
       <c r="N20">
-        <v>2.121380951949368</v>
+        <v>3.378503396672876</v>
       </c>
       <c r="O20">
-        <v>2.302151875418421</v>
+        <v>1.080927674568493</v>
       </c>
       <c r="P20">
-        <v>1.52704627463974</v>
+        <v>0.9405235110321915</v>
       </c>
       <c r="Q20">
-        <v>1.481784794656579</v>
+        <v>1.063704624516301</v>
       </c>
       <c r="R20">
-        <v>1.725157833742949</v>
+        <v>1.75318347291242</v>
       </c>
       <c r="S20">
-        <v>1.238503421058072</v>
+        <v>0.9758428655094976</v>
       </c>
       <c r="T20">
-        <v>1.725157833742949</v>
+        <v>1.75318347291242</v>
       </c>
       <c r="U20">
-        <v>1.459222803780896</v>
+        <v>1.576507998300342</v>
       </c>
       <c r="V20">
-        <v>1.591654433414591</v>
+        <v>1.936907077974849</v>
       </c>
       <c r="W20">
-        <v>1.257143879773859</v>
+        <v>1.250918934217757</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.03773837536633542</v>
+        <v>-0.0002670411037368422</v>
       </c>
       <c r="D21">
-        <v>1.570541915132424</v>
+        <v>0.9953446248894737</v>
       </c>
       <c r="E21">
-        <v>0.0003076322294923381</v>
+        <v>1.526467541726316</v>
       </c>
       <c r="F21">
-        <v>1.656625280993738</v>
+        <v>2.608338012789474</v>
       </c>
       <c r="G21">
-        <v>0.03773837536633542</v>
+        <v>-0.0002670411037368422</v>
       </c>
       <c r="H21">
-        <v>0.6360889011545153</v>
+        <v>0.9669753640178944</v>
       </c>
       <c r="I21">
-        <v>1.473716931119822</v>
+        <v>1.013496240789474</v>
       </c>
       <c r="J21">
-        <v>0.0003076322294923381</v>
+        <v>1.526467541726316</v>
       </c>
       <c r="K21">
-        <v>0.0003076322294923381</v>
+        <v>1.526467541726316</v>
       </c>
       <c r="L21">
-        <v>0.7796614023820978</v>
+        <v>0.1222936307821053</v>
       </c>
       <c r="M21">
-        <v>0.8783289107094991</v>
+        <v>1.180989614684211</v>
       </c>
       <c r="N21">
-        <v>0.0003076322294923381</v>
+        <v>1.526467541726316</v>
       </c>
       <c r="O21">
-        <v>1.656625280993738</v>
+        <v>2.608338012789474</v>
       </c>
       <c r="P21">
-        <v>0.8471818281800368</v>
+        <v>1.304035485842869</v>
       </c>
       <c r="Q21">
-        <v>1.146357091074127</v>
+        <v>1.787656688403684</v>
       </c>
       <c r="R21">
-        <v>0.5648904295298554</v>
+        <v>1.378179504470684</v>
       </c>
       <c r="S21">
-        <v>0.7768175191715296</v>
+        <v>1.19168211190121</v>
       </c>
       <c r="T21">
-        <v>0.5648904295298554</v>
+        <v>1.378179504470684</v>
       </c>
       <c r="U21">
-        <v>0.5826900474360204</v>
+        <v>1.275378469357487</v>
       </c>
       <c r="V21">
-        <v>0.4662135643947147</v>
+        <v>1.325596283831253</v>
       </c>
       <c r="W21">
-        <v>0.8791261686359906</v>
+        <v>1.051704748571901</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.791353615150844</v>
+        <v>0.7519406738610578</v>
       </c>
       <c r="D22">
-        <v>0.7257790382051001</v>
+        <v>0.4303516307509684</v>
       </c>
       <c r="E22">
-        <v>1.141735436796123</v>
+        <v>2.121380951949368</v>
       </c>
       <c r="F22">
-        <v>0.6608881912220492</v>
+        <v>2.302151875418421</v>
       </c>
       <c r="G22">
-        <v>1.791353615150844</v>
+        <v>0.7519406738610578</v>
       </c>
       <c r="H22">
-        <v>1.155123494897504</v>
+        <v>0.6614177138947368</v>
       </c>
       <c r="I22">
-        <v>0.8690513730446268</v>
+        <v>1.603225127563158</v>
       </c>
       <c r="J22">
-        <v>1.141735436796123</v>
+        <v>2.121380951949368</v>
       </c>
       <c r="K22">
-        <v>1.141735436796123</v>
+        <v>2.121380951949368</v>
       </c>
       <c r="L22">
-        <v>1.202095304430305</v>
+        <v>0.5900334626521053</v>
       </c>
       <c r="M22">
-        <v>1.120996097187746</v>
+        <v>1.596649602101053</v>
       </c>
       <c r="N22">
-        <v>1.141735436796123</v>
+        <v>2.121380951949368</v>
       </c>
       <c r="O22">
-        <v>0.6608881912220492</v>
+        <v>2.302151875418421</v>
       </c>
       <c r="P22">
-        <v>1.226120903186447</v>
+        <v>1.52704627463974</v>
       </c>
       <c r="Q22">
-        <v>0.9080058430597764</v>
+        <v>1.481784794656579</v>
       </c>
       <c r="R22">
-        <v>1.197992414389672</v>
+        <v>1.725157833742949</v>
       </c>
       <c r="S22">
-        <v>1.202455100423466</v>
+        <v>1.238503421058072</v>
       </c>
       <c r="T22">
-        <v>1.197992414389672</v>
+        <v>1.725157833742949</v>
       </c>
       <c r="U22">
-        <v>1.18727518451663</v>
+        <v>1.459222803780896</v>
       </c>
       <c r="V22">
-        <v>1.178167234972529</v>
+        <v>1.591654433414591</v>
       </c>
       <c r="W22">
-        <v>1.083377818866787</v>
+        <v>1.257143879773859</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.726801437537558</v>
+        <v>0.03773837536633542</v>
       </c>
       <c r="D23">
-        <v>0.8828982741061746</v>
+        <v>1.570541915132424</v>
       </c>
       <c r="E23">
-        <v>1.145232462878803</v>
+        <v>0.0003076322294923381</v>
       </c>
       <c r="F23">
-        <v>0.1599185143386154</v>
+        <v>1.656625280993738</v>
       </c>
       <c r="G23">
-        <v>1.726801437537558</v>
+        <v>0.03773837536633542</v>
       </c>
       <c r="H23">
-        <v>1.085228272657029</v>
+        <v>0.6360889011545153</v>
       </c>
       <c r="I23">
-        <v>0.7751179788942166</v>
+        <v>1.473716931119822</v>
       </c>
       <c r="J23">
-        <v>1.145232462878803</v>
+        <v>0.0003076322294923381</v>
       </c>
       <c r="K23">
-        <v>1.145232462878803</v>
+        <v>0.0003076322294923381</v>
       </c>
       <c r="L23">
-        <v>1.372661093213325</v>
+        <v>0.7796614023820978</v>
       </c>
       <c r="M23">
-        <v>1.383118589064885</v>
+        <v>0.8783289107094991</v>
       </c>
       <c r="N23">
-        <v>1.145232462878803</v>
+        <v>0.0003076322294923381</v>
       </c>
       <c r="O23">
-        <v>0.1599185143386154</v>
+        <v>1.656625280993738</v>
       </c>
       <c r="P23">
-        <v>0.9433599759380868</v>
+        <v>0.8471818281800368</v>
       </c>
       <c r="Q23">
-        <v>0.6225733934978221</v>
+        <v>1.146357091074127</v>
       </c>
       <c r="R23">
-        <v>1.010650804918326</v>
+        <v>0.5648904295298554</v>
       </c>
       <c r="S23">
-        <v>0.9906494081777342</v>
+        <v>0.7768175191715296</v>
       </c>
       <c r="T23">
-        <v>1.010650804918326</v>
+        <v>0.5648904295298554</v>
       </c>
       <c r="U23">
-        <v>1.029295171853001</v>
+        <v>0.5826900474360204</v>
       </c>
       <c r="V23">
-        <v>1.052482630058162</v>
+        <v>0.4662135643947147</v>
       </c>
       <c r="W23">
-        <v>1.066372077836326</v>
+        <v>0.8791261686359906</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.082997514484764</v>
+        <v>1.791353615150844</v>
       </c>
       <c r="D24">
-        <v>1.038092648420819</v>
+        <v>0.7257790382051001</v>
       </c>
       <c r="E24">
-        <v>1.036021412617618</v>
+        <v>1.141735436796123</v>
       </c>
       <c r="F24">
-        <v>1.243025255202959</v>
+        <v>0.6608881912220492</v>
       </c>
       <c r="G24">
-        <v>1.082997514484764</v>
+        <v>1.791353615150844</v>
       </c>
       <c r="H24">
-        <v>1.001828586076536</v>
+        <v>1.155123494897504</v>
       </c>
       <c r="I24">
-        <v>1.049621676940299</v>
+        <v>0.8690513730446268</v>
       </c>
       <c r="J24">
-        <v>1.036021412617618</v>
+        <v>1.141735436796123</v>
       </c>
       <c r="K24">
-        <v>1.036021412617618</v>
+        <v>1.141735436796123</v>
       </c>
       <c r="L24">
-        <v>0.9665614535475507</v>
+        <v>1.202095304430305</v>
       </c>
       <c r="M24">
-        <v>0.712092959815386</v>
+        <v>1.120996097187746</v>
       </c>
       <c r="N24">
-        <v>1.036021412617618</v>
+        <v>1.141735436796123</v>
       </c>
       <c r="O24">
-        <v>1.243025255202959</v>
+        <v>0.6608881912220492</v>
       </c>
       <c r="P24">
-        <v>1.163011384843861</v>
+        <v>1.226120903186447</v>
       </c>
       <c r="Q24">
-        <v>1.122426920639747</v>
+        <v>0.9080058430597764</v>
       </c>
       <c r="R24">
-        <v>1.12068139410178</v>
+        <v>1.197992414389672</v>
       </c>
       <c r="S24">
-        <v>1.109283785254753</v>
+        <v>1.202455100423466</v>
       </c>
       <c r="T24">
-        <v>1.12068139410178</v>
+        <v>1.197992414389672</v>
       </c>
       <c r="U24">
-        <v>1.090968192095469</v>
+        <v>1.18727518451663</v>
       </c>
       <c r="V24">
-        <v>1.079978836199899</v>
+        <v>1.178167234972529</v>
       </c>
       <c r="W24">
-        <v>1.016280188388242</v>
+        <v>1.083377818866787</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.181415886518902</v>
+        <v>1.726801437537558</v>
       </c>
       <c r="D25">
-        <v>0.3538601308767901</v>
+        <v>0.8828982741061746</v>
       </c>
       <c r="E25">
-        <v>1.867554428680995</v>
+        <v>1.145232462878803</v>
       </c>
       <c r="F25">
-        <v>0.2969189350260613</v>
+        <v>0.1599185143386154</v>
       </c>
       <c r="G25">
-        <v>1.181415886518902</v>
+        <v>1.726801437537558</v>
       </c>
       <c r="H25">
-        <v>0.8132364109836681</v>
+        <v>1.085228272657029</v>
       </c>
       <c r="I25">
-        <v>0.8777226875536663</v>
+        <v>0.7751179788942166</v>
       </c>
       <c r="J25">
-        <v>1.867554428680995</v>
+        <v>1.145232462878803</v>
       </c>
       <c r="K25">
-        <v>1.867554428680995</v>
+        <v>1.145232462878803</v>
       </c>
       <c r="L25">
-        <v>1.129598621014024</v>
+        <v>1.372661093213325</v>
       </c>
       <c r="M25">
-        <v>1.17267306424144</v>
+        <v>1.383118589064885</v>
       </c>
       <c r="N25">
-        <v>1.867554428680995</v>
+        <v>1.145232462878803</v>
       </c>
       <c r="O25">
-        <v>0.2969189350260613</v>
+        <v>0.1599185143386154</v>
       </c>
       <c r="P25">
-        <v>0.7391674107724818</v>
+        <v>0.9433599759380868</v>
       </c>
       <c r="Q25">
-        <v>0.5550776730048647</v>
+        <v>0.6225733934978221</v>
       </c>
       <c r="R25">
-        <v>1.115296416741986</v>
+        <v>1.010650804918326</v>
       </c>
       <c r="S25">
-        <v>0.7638570775095439</v>
+        <v>0.9906494081777342</v>
       </c>
       <c r="T25">
-        <v>1.115296416741986</v>
+        <v>1.010650804918326</v>
       </c>
       <c r="U25">
-        <v>1.039781415302407</v>
+        <v>1.029295171853001</v>
       </c>
       <c r="V25">
-        <v>1.205336017978124</v>
+        <v>1.052482630058162</v>
       </c>
       <c r="W25">
-        <v>0.9616225206119433</v>
+        <v>1.066372077836326</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.5516271307015894</v>
+        <v>1.082997514484764</v>
       </c>
       <c r="D26">
-        <v>1.620672981573563</v>
+        <v>1.038092648420819</v>
       </c>
       <c r="E26">
-        <v>0.6477686783339331</v>
+        <v>1.036021412617618</v>
       </c>
       <c r="F26">
-        <v>1.1290623337565</v>
+        <v>1.243025255202959</v>
       </c>
       <c r="G26">
-        <v>0.5516271307015894</v>
+        <v>1.082997514484764</v>
       </c>
       <c r="H26">
-        <v>1.376324826221152</v>
+        <v>1.001828586076536</v>
       </c>
       <c r="I26">
-        <v>0.8690934055135403</v>
+        <v>1.049621676940299</v>
       </c>
       <c r="J26">
-        <v>0.6477686783339331</v>
+        <v>1.036021412617618</v>
       </c>
       <c r="K26">
-        <v>0.6477686783339331</v>
+        <v>1.036021412617618</v>
       </c>
       <c r="L26">
-        <v>0.8210707486783988</v>
+        <v>0.9665614535475507</v>
       </c>
       <c r="M26">
-        <v>0.5393095625250561</v>
+        <v>0.712092959815386</v>
       </c>
       <c r="N26">
-        <v>0.6477686783339331</v>
+        <v>1.036021412617618</v>
       </c>
       <c r="O26">
-        <v>1.1290623337565</v>
+        <v>1.243025255202959</v>
       </c>
       <c r="P26">
-        <v>0.8403447322290448</v>
+        <v>1.163011384843861</v>
       </c>
       <c r="Q26">
-        <v>1.252693579988826</v>
+        <v>1.122426920639747</v>
       </c>
       <c r="R26">
-        <v>0.7761527142640077</v>
+        <v>1.12068139410178</v>
       </c>
       <c r="S26">
-        <v>1.019004763559747</v>
+        <v>1.109283785254753</v>
       </c>
       <c r="T26">
-        <v>0.7761527142640077</v>
+        <v>1.12068139410178</v>
       </c>
       <c r="U26">
-        <v>0.9261957422532936</v>
+        <v>1.090968192095469</v>
       </c>
       <c r="V26">
-        <v>0.8705103294694215</v>
+        <v>1.079978836199899</v>
       </c>
       <c r="W26">
-        <v>0.9443662084129666</v>
+        <v>1.016280188388242</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.709633460173726</v>
+        <v>1.181415886518902</v>
       </c>
       <c r="D27">
-        <v>0.6314389973715618</v>
+        <v>0.3538601308767901</v>
       </c>
       <c r="E27">
-        <v>0.7336737261001748</v>
+        <v>1.867554428680995</v>
       </c>
       <c r="F27">
-        <v>1.479818250683035</v>
+        <v>0.2969189350260613</v>
       </c>
       <c r="G27">
-        <v>1.709633460173726</v>
+        <v>1.181415886518902</v>
       </c>
       <c r="H27">
-        <v>0.9504328112651368</v>
+        <v>0.8132364109836681</v>
       </c>
       <c r="I27">
-        <v>1.07651347405149</v>
+        <v>0.8777226875536663</v>
       </c>
       <c r="J27">
-        <v>0.7336737261001748</v>
+        <v>1.867554428680995</v>
       </c>
       <c r="K27">
-        <v>0.7336737261001748</v>
+        <v>1.867554428680995</v>
       </c>
       <c r="L27">
-        <v>0.6816126823434893</v>
+        <v>1.129598621014024</v>
       </c>
       <c r="M27">
-        <v>1.328716988935114</v>
+        <v>1.17267306424144</v>
       </c>
       <c r="N27">
-        <v>0.7336737261001748</v>
+        <v>1.867554428680995</v>
       </c>
       <c r="O27">
-        <v>1.479818250683035</v>
+        <v>0.2969189350260613</v>
       </c>
       <c r="P27">
-        <v>1.59472585542838</v>
+        <v>0.7391674107724818</v>
       </c>
       <c r="Q27">
-        <v>1.215125530974086</v>
+        <v>0.5550776730048647</v>
       </c>
       <c r="R27">
-        <v>1.307708478985645</v>
+        <v>1.115296416741986</v>
       </c>
       <c r="S27">
-        <v>1.379961507373966</v>
+        <v>0.7638570775095439</v>
       </c>
       <c r="T27">
-        <v>1.307708478985645</v>
+        <v>1.115296416741986</v>
       </c>
       <c r="U27">
-        <v>1.218389562055518</v>
+        <v>1.039781415302407</v>
       </c>
       <c r="V27">
-        <v>1.12144639486445</v>
+        <v>1.205336017978124</v>
       </c>
       <c r="W27">
-        <v>1.073980048865466</v>
+        <v>0.9616225206119433</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.171111422494656</v>
+        <v>0.5516271307015894</v>
       </c>
       <c r="D28">
-        <v>1.255640117068292</v>
+        <v>1.620672981573563</v>
       </c>
       <c r="E28">
-        <v>1.337741628823156</v>
+        <v>0.6477686783339331</v>
       </c>
       <c r="F28">
-        <v>1.03180624229009</v>
+        <v>1.1290623337565</v>
       </c>
       <c r="G28">
-        <v>1.171111422494656</v>
+        <v>0.5516271307015894</v>
       </c>
       <c r="H28">
-        <v>0.7947910837157592</v>
+        <v>1.376324826221152</v>
       </c>
       <c r="I28">
-        <v>1.151807415378035</v>
+        <v>0.8690934055135403</v>
       </c>
       <c r="J28">
-        <v>1.337741628823156</v>
+        <v>0.6477686783339331</v>
       </c>
       <c r="K28">
-        <v>1.337741628823156</v>
+        <v>0.6477686783339331</v>
       </c>
       <c r="L28">
-        <v>0.9583730600109537</v>
+        <v>0.8210707486783988</v>
       </c>
       <c r="M28">
-        <v>1.067096805451199</v>
+        <v>0.5393095625250561</v>
       </c>
       <c r="N28">
-        <v>1.337741628823156</v>
+        <v>0.6477686783339331</v>
       </c>
       <c r="O28">
-        <v>1.03180624229009</v>
+        <v>1.1290623337565</v>
       </c>
       <c r="P28">
-        <v>1.101458832392373</v>
+        <v>0.8403447322290448</v>
       </c>
       <c r="Q28">
-        <v>0.9132986630029246</v>
+        <v>1.252693579988826</v>
       </c>
       <c r="R28">
-        <v>1.180219764535967</v>
+        <v>0.7761527142640077</v>
       </c>
       <c r="S28">
-        <v>0.9992362495001683</v>
+        <v>1.019004763559747</v>
       </c>
       <c r="T28">
-        <v>1.180219764535967</v>
+        <v>0.7761527142640077</v>
       </c>
       <c r="U28">
-        <v>1.083862594330915</v>
+        <v>0.9261957422532936</v>
       </c>
       <c r="V28">
-        <v>1.134638401229364</v>
+        <v>0.8705103294694215</v>
       </c>
       <c r="W28">
-        <v>1.096045971904018</v>
+        <v>0.9443662084129666</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.709633460173726</v>
+      </c>
+      <c r="D29">
+        <v>0.6314389973715618</v>
+      </c>
+      <c r="E29">
+        <v>0.7336737261001748</v>
+      </c>
+      <c r="F29">
+        <v>1.479818250683035</v>
+      </c>
+      <c r="G29">
+        <v>1.709633460173726</v>
+      </c>
+      <c r="H29">
+        <v>0.9504328112651368</v>
+      </c>
+      <c r="I29">
+        <v>1.07651347405149</v>
+      </c>
+      <c r="J29">
+        <v>0.7336737261001748</v>
+      </c>
+      <c r="K29">
+        <v>0.7336737261001748</v>
+      </c>
+      <c r="L29">
+        <v>0.6816126823434893</v>
+      </c>
+      <c r="M29">
+        <v>1.328716988935114</v>
+      </c>
+      <c r="N29">
+        <v>0.7336737261001748</v>
+      </c>
+      <c r="O29">
+        <v>1.479818250683035</v>
+      </c>
+      <c r="P29">
+        <v>1.59472585542838</v>
+      </c>
+      <c r="Q29">
+        <v>1.215125530974086</v>
+      </c>
+      <c r="R29">
+        <v>1.307708478985645</v>
+      </c>
+      <c r="S29">
+        <v>1.379961507373966</v>
+      </c>
+      <c r="T29">
+        <v>1.307708478985645</v>
+      </c>
+      <c r="U29">
+        <v>1.218389562055518</v>
+      </c>
+      <c r="V29">
+        <v>1.12144639486445</v>
+      </c>
+      <c r="W29">
+        <v>1.073980048865466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.171111422494656</v>
+      </c>
+      <c r="D30">
+        <v>1.255640117068292</v>
+      </c>
+      <c r="E30">
+        <v>1.337741628823156</v>
+      </c>
+      <c r="F30">
+        <v>1.03180624229009</v>
+      </c>
+      <c r="G30">
+        <v>1.171111422494656</v>
+      </c>
+      <c r="H30">
+        <v>0.7947910837157592</v>
+      </c>
+      <c r="I30">
+        <v>1.151807415378035</v>
+      </c>
+      <c r="J30">
+        <v>1.337741628823156</v>
+      </c>
+      <c r="K30">
+        <v>1.337741628823156</v>
+      </c>
+      <c r="L30">
+        <v>0.9583730600109537</v>
+      </c>
+      <c r="M30">
+        <v>1.067096805451199</v>
+      </c>
+      <c r="N30">
+        <v>1.337741628823156</v>
+      </c>
+      <c r="O30">
+        <v>1.03180624229009</v>
+      </c>
+      <c r="P30">
+        <v>1.101458832392373</v>
+      </c>
+      <c r="Q30">
+        <v>0.9132986630029246</v>
+      </c>
+      <c r="R30">
+        <v>1.180219764535967</v>
+      </c>
+      <c r="S30">
+        <v>0.9992362495001683</v>
+      </c>
+      <c r="T30">
+        <v>1.180219764535967</v>
+      </c>
+      <c r="U30">
+        <v>1.083862594330915</v>
+      </c>
+      <c r="V30">
+        <v>1.134638401229364</v>
+      </c>
+      <c r="W30">
+        <v>1.096045971904018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.8600118615986335</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.714639893722389</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.2077396785070532</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.03249030391632691</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.8600118615986335</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.151033481524991</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9266880887967153</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.2077396785070532</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.2077396785070532</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9717137962487213</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.680427208709791</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.2077396785070532</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.03249030391632691</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.4462510827574802</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.591761892720659</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.3667472813406712</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.6811785490133172</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.3667472813406712</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.5628188313867513</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.4918030008108117</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9430930391280777</v>
       </c>
     </row>
